--- a/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>AKO.B</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2141300</v>
+        <v>2206000</v>
       </c>
       <c r="E8" s="3">
-        <v>2366600</v>
+        <v>2074400</v>
       </c>
       <c r="F8" s="3">
-        <v>2275100</v>
+        <v>2292600</v>
       </c>
       <c r="G8" s="3">
-        <v>2403100</v>
+        <v>2204000</v>
       </c>
       <c r="H8" s="3">
-        <v>2300400</v>
+        <v>2328000</v>
       </c>
       <c r="I8" s="3">
-        <v>1947800</v>
+        <v>2228500</v>
       </c>
       <c r="J8" s="3">
+        <v>1886900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1500500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1484100</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1239100</v>
+        <v>1299900</v>
       </c>
       <c r="E9" s="3">
-        <v>1368400</v>
+        <v>1200400</v>
       </c>
       <c r="F9" s="3">
-        <v>1323400</v>
+        <v>1325600</v>
       </c>
       <c r="G9" s="3">
-        <v>1416600</v>
+        <v>1282000</v>
       </c>
       <c r="H9" s="3">
-        <v>1384000</v>
+        <v>1372300</v>
       </c>
       <c r="I9" s="3">
-        <v>1171000</v>
+        <v>1340700</v>
       </c>
       <c r="J9" s="3">
+        <v>1134400</v>
+      </c>
+      <c r="K9" s="3">
         <v>894700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>873700</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>902300</v>
+        <v>906000</v>
       </c>
       <c r="E10" s="3">
-        <v>998200</v>
+        <v>874100</v>
       </c>
       <c r="F10" s="3">
-        <v>951700</v>
+        <v>967000</v>
       </c>
       <c r="G10" s="3">
-        <v>986500</v>
+        <v>922000</v>
       </c>
       <c r="H10" s="3">
-        <v>916400</v>
+        <v>955700</v>
       </c>
       <c r="I10" s="3">
-        <v>776800</v>
+        <v>887800</v>
       </c>
       <c r="J10" s="3">
+        <v>752500</v>
+      </c>
+      <c r="K10" s="3">
         <v>605900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>610500</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
-        <v>3900</v>
-      </c>
       <c r="F14" s="3">
-        <v>6100</v>
+        <v>3800</v>
       </c>
       <c r="G14" s="3">
-        <v>5100</v>
+        <v>6000</v>
       </c>
       <c r="H14" s="3">
-        <v>7400</v>
+        <v>4900</v>
       </c>
       <c r="I14" s="3">
-        <v>9800</v>
+        <v>7200</v>
       </c>
       <c r="J14" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K14" s="3">
         <v>3200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3700</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1873500</v>
+        <v>1892800</v>
       </c>
       <c r="E17" s="3">
-        <v>2084900</v>
+        <v>1815000</v>
       </c>
       <c r="F17" s="3">
-        <v>2032900</v>
+        <v>2019800</v>
       </c>
       <c r="G17" s="3">
-        <v>2162700</v>
+        <v>1969300</v>
       </c>
       <c r="H17" s="3">
-        <v>2082100</v>
+        <v>2095100</v>
       </c>
       <c r="I17" s="3">
-        <v>1758300</v>
+        <v>2017100</v>
       </c>
       <c r="J17" s="3">
+        <v>1703400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1320300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1282700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>267800</v>
+        <v>313200</v>
       </c>
       <c r="E18" s="3">
-        <v>281600</v>
+        <v>259400</v>
       </c>
       <c r="F18" s="3">
-        <v>242300</v>
+        <v>272800</v>
       </c>
       <c r="G18" s="3">
-        <v>240400</v>
+        <v>234700</v>
       </c>
       <c r="H18" s="3">
-        <v>218300</v>
+        <v>232900</v>
       </c>
       <c r="I18" s="3">
-        <v>189400</v>
+        <v>211500</v>
       </c>
       <c r="J18" s="3">
+        <v>183500</v>
+      </c>
+      <c r="K18" s="3">
         <v>180200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>201500</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-20300</v>
+        <v>29000</v>
       </c>
       <c r="E20" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3600</v>
       </c>
-      <c r="G20" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-16300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8300</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>342100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>239800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>271000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>231300</v>
+      </c>
+      <c r="H21" s="3">
+        <v>223100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>195600</v>
       </c>
       <c r="J21" s="3">
+        <v>173500</v>
+      </c>
+      <c r="K21" s="3">
         <v>246000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>268700</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>51700</v>
+        <v>49000</v>
       </c>
       <c r="E22" s="3">
-        <v>61100</v>
+        <v>50100</v>
       </c>
       <c r="F22" s="3">
-        <v>58400</v>
+        <v>59200</v>
       </c>
       <c r="G22" s="3">
-        <v>64300</v>
+        <v>56600</v>
       </c>
       <c r="H22" s="3">
-        <v>76700</v>
+        <v>62300</v>
       </c>
       <c r="I22" s="3">
-        <v>34200</v>
+        <v>74300</v>
       </c>
       <c r="J22" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K22" s="3">
         <v>14300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10900</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>195900</v>
+        <v>293200</v>
       </c>
       <c r="E23" s="3">
-        <v>218600</v>
+        <v>189700</v>
       </c>
       <c r="F23" s="3">
-        <v>180300</v>
+        <v>211800</v>
       </c>
       <c r="G23" s="3">
-        <v>166100</v>
+        <v>174700</v>
       </c>
       <c r="H23" s="3">
-        <v>125200</v>
+        <v>160900</v>
       </c>
       <c r="I23" s="3">
-        <v>144900</v>
+        <v>121300</v>
       </c>
       <c r="J23" s="3">
+        <v>140400</v>
+      </c>
+      <c r="K23" s="3">
         <v>162300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>198900</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>71100</v>
+        <v>75800</v>
       </c>
       <c r="E24" s="3">
-        <v>66300</v>
+        <v>68900</v>
       </c>
       <c r="F24" s="3">
-        <v>62500</v>
+        <v>64200</v>
       </c>
       <c r="G24" s="3">
-        <v>53300</v>
+        <v>60500</v>
       </c>
       <c r="H24" s="3">
-        <v>28200</v>
+        <v>51600</v>
       </c>
       <c r="I24" s="3">
-        <v>29400</v>
+        <v>27300</v>
       </c>
       <c r="J24" s="3">
+        <v>28500</v>
+      </c>
+      <c r="K24" s="3">
         <v>49300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>52400</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>124700</v>
+        <v>217300</v>
       </c>
       <c r="E26" s="3">
-        <v>152300</v>
+        <v>120800</v>
       </c>
       <c r="F26" s="3">
-        <v>117800</v>
+        <v>147600</v>
       </c>
       <c r="G26" s="3">
-        <v>112800</v>
+        <v>114100</v>
       </c>
       <c r="H26" s="3">
-        <v>97000</v>
+        <v>109200</v>
       </c>
       <c r="I26" s="3">
-        <v>115500</v>
+        <v>94000</v>
       </c>
       <c r="J26" s="3">
+        <v>111900</v>
+      </c>
+      <c r="K26" s="3">
         <v>113000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>146500</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>123700</v>
+        <v>215400</v>
       </c>
       <c r="E27" s="3">
-        <v>150800</v>
+        <v>119800</v>
       </c>
       <c r="F27" s="3">
-        <v>115900</v>
+        <v>146100</v>
       </c>
       <c r="G27" s="3">
-        <v>112500</v>
+        <v>112300</v>
       </c>
       <c r="H27" s="3">
-        <v>96600</v>
+        <v>109000</v>
       </c>
       <c r="I27" s="3">
-        <v>113900</v>
+        <v>93600</v>
       </c>
       <c r="J27" s="3">
+        <v>110300</v>
+      </c>
+      <c r="K27" s="3">
         <v>112200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>146500</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>20300</v>
+        <v>-29000</v>
       </c>
       <c r="E32" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F32" s="3">
         <v>1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>9700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>15800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K32" s="3">
         <v>3600</v>
       </c>
-      <c r="G32" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>16300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>10300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>3600</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8300</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>123700</v>
+        <v>215400</v>
       </c>
       <c r="E33" s="3">
-        <v>150800</v>
+        <v>119800</v>
       </c>
       <c r="F33" s="3">
-        <v>115900</v>
+        <v>146100</v>
       </c>
       <c r="G33" s="3">
-        <v>112500</v>
+        <v>112300</v>
       </c>
       <c r="H33" s="3">
-        <v>96600</v>
+        <v>109000</v>
       </c>
       <c r="I33" s="3">
-        <v>113900</v>
+        <v>93600</v>
       </c>
       <c r="J33" s="3">
+        <v>110300</v>
+      </c>
+      <c r="K33" s="3">
         <v>112200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>146500</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>123700</v>
+        <v>215400</v>
       </c>
       <c r="E35" s="3">
-        <v>150800</v>
+        <v>119800</v>
       </c>
       <c r="F35" s="3">
-        <v>115900</v>
+        <v>146100</v>
       </c>
       <c r="G35" s="3">
-        <v>112500</v>
+        <v>112300</v>
       </c>
       <c r="H35" s="3">
-        <v>96600</v>
+        <v>109000</v>
       </c>
       <c r="I35" s="3">
-        <v>113900</v>
+        <v>93600</v>
       </c>
       <c r="J35" s="3">
+        <v>110300</v>
+      </c>
+      <c r="K35" s="3">
         <v>112200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>146500</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>176000</v>
+        <v>197000</v>
       </c>
       <c r="E41" s="3">
-        <v>174400</v>
+        <v>171900</v>
       </c>
       <c r="F41" s="3">
-        <v>180800</v>
+        <v>170300</v>
       </c>
       <c r="G41" s="3">
-        <v>165300</v>
+        <v>176600</v>
       </c>
       <c r="H41" s="3">
-        <v>101800</v>
+        <v>161500</v>
       </c>
       <c r="I41" s="3">
-        <v>102400</v>
+        <v>99400</v>
       </c>
       <c r="J41" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K41" s="3">
         <v>32100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24900</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1599,239 +1688,263 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>17500</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>71000</v>
+        <v>17100</v>
       </c>
       <c r="G42" s="3">
-        <v>112000</v>
+        <v>69300</v>
       </c>
       <c r="H42" s="3">
-        <v>136400</v>
+        <v>109400</v>
       </c>
       <c r="I42" s="3">
-        <v>46700</v>
+        <v>133200</v>
       </c>
       <c r="J42" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K42" s="3">
         <v>39000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22400</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>227100</v>
+        <v>264900</v>
       </c>
       <c r="E43" s="3">
-        <v>241600</v>
+        <v>221800</v>
       </c>
       <c r="F43" s="3">
-        <v>242200</v>
+        <v>236000</v>
       </c>
       <c r="G43" s="3">
-        <v>233500</v>
+        <v>236500</v>
       </c>
       <c r="H43" s="3">
-        <v>263100</v>
+        <v>228000</v>
       </c>
       <c r="I43" s="3">
-        <v>264800</v>
+        <v>257000</v>
       </c>
       <c r="J43" s="3">
+        <v>258600</v>
+      </c>
+      <c r="K43" s="3">
         <v>202400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>228100</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>193700</v>
+        <v>184600</v>
       </c>
       <c r="E44" s="3">
-        <v>168100</v>
+        <v>189100</v>
       </c>
       <c r="F44" s="3">
-        <v>185200</v>
+        <v>164200</v>
       </c>
       <c r="G44" s="3">
-        <v>170700</v>
+        <v>180900</v>
       </c>
       <c r="H44" s="3">
-        <v>191700</v>
+        <v>166700</v>
       </c>
       <c r="I44" s="3">
-        <v>161100</v>
+        <v>187200</v>
       </c>
       <c r="J44" s="3">
+        <v>157300</v>
+      </c>
+      <c r="K44" s="3">
         <v>114300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>86800</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19500</v>
+        <v>20400</v>
       </c>
       <c r="E45" s="3">
-        <v>17900</v>
+        <v>19100</v>
       </c>
       <c r="F45" s="3">
-        <v>28200</v>
+        <v>17500</v>
       </c>
       <c r="G45" s="3">
-        <v>19200</v>
+        <v>27600</v>
       </c>
       <c r="H45" s="3">
-        <v>15800</v>
+        <v>18700</v>
       </c>
       <c r="I45" s="3">
-        <v>14600</v>
+        <v>15400</v>
       </c>
       <c r="J45" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K45" s="3">
         <v>31000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>49700</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>616400</v>
+        <v>666800</v>
       </c>
       <c r="E46" s="3">
-        <v>619500</v>
+        <v>602000</v>
       </c>
       <c r="F46" s="3">
-        <v>707500</v>
+        <v>605000</v>
       </c>
       <c r="G46" s="3">
-        <v>700700</v>
+        <v>690900</v>
       </c>
       <c r="H46" s="3">
-        <v>708800</v>
+        <v>684300</v>
       </c>
       <c r="I46" s="3">
-        <v>589500</v>
+        <v>692200</v>
       </c>
       <c r="J46" s="3">
+        <v>575700</v>
+      </c>
+      <c r="K46" s="3">
         <v>418800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>355700</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>149900</v>
+        <v>256800</v>
       </c>
       <c r="E47" s="3">
-        <v>117300</v>
+        <v>146300</v>
       </c>
       <c r="F47" s="3">
-        <v>107300</v>
+        <v>114600</v>
       </c>
       <c r="G47" s="3">
-        <v>80900</v>
+        <v>104800</v>
       </c>
       <c r="H47" s="3">
-        <v>159000</v>
+        <v>79000</v>
       </c>
       <c r="I47" s="3">
-        <v>107800</v>
+        <v>155200</v>
       </c>
       <c r="J47" s="3">
+        <v>105300</v>
+      </c>
+      <c r="K47" s="3">
         <v>102200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>101900</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>910300</v>
+        <v>904000</v>
       </c>
       <c r="E48" s="3">
-        <v>845100</v>
+        <v>889000</v>
       </c>
       <c r="F48" s="3">
-        <v>853300</v>
+        <v>825300</v>
       </c>
       <c r="G48" s="3">
-        <v>820500</v>
+        <v>833300</v>
       </c>
       <c r="H48" s="3">
-        <v>913300</v>
+        <v>801300</v>
       </c>
       <c r="I48" s="3">
-        <v>887600</v>
+        <v>891900</v>
       </c>
       <c r="J48" s="3">
+        <v>866800</v>
+      </c>
+      <c r="K48" s="3">
         <v>738000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>528600</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1005600</v>
+        <v>994800</v>
       </c>
       <c r="E49" s="3">
-        <v>968200</v>
+        <v>982000</v>
       </c>
       <c r="F49" s="3">
-        <v>1002800</v>
+        <v>945500</v>
       </c>
       <c r="G49" s="3">
-        <v>974100</v>
+        <v>979300</v>
       </c>
       <c r="H49" s="3">
-        <v>1081200</v>
+        <v>951300</v>
       </c>
       <c r="I49" s="3">
-        <v>1044400</v>
+        <v>1055800</v>
       </c>
       <c r="J49" s="3">
+        <v>1019900</v>
+      </c>
+      <c r="K49" s="3">
         <v>677600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>88600</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>152300</v>
+        <v>166300</v>
       </c>
       <c r="E52" s="3">
-        <v>156900</v>
+        <v>148800</v>
       </c>
       <c r="F52" s="3">
-        <v>143900</v>
+        <v>153200</v>
       </c>
       <c r="G52" s="3">
-        <v>251800</v>
+        <v>140600</v>
       </c>
       <c r="H52" s="3">
-        <v>42300</v>
+        <v>245900</v>
       </c>
       <c r="I52" s="3">
-        <v>36900</v>
+        <v>41300</v>
       </c>
       <c r="J52" s="3">
+        <v>36000</v>
+      </c>
+      <c r="K52" s="3">
         <v>34500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>45600</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2834600</v>
+        <v>2988700</v>
       </c>
       <c r="E54" s="3">
-        <v>2707000</v>
+        <v>2768100</v>
       </c>
       <c r="F54" s="3">
-        <v>2814900</v>
+        <v>2643600</v>
       </c>
       <c r="G54" s="3">
-        <v>2828000</v>
+        <v>2748900</v>
       </c>
       <c r="H54" s="3">
-        <v>2904500</v>
+        <v>2761700</v>
       </c>
       <c r="I54" s="3">
-        <v>2666200</v>
+        <v>2836500</v>
       </c>
       <c r="J54" s="3">
+        <v>2603700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1971000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1120400</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>363400</v>
+        <v>371700</v>
       </c>
       <c r="E57" s="3">
-        <v>373100</v>
+        <v>354900</v>
       </c>
       <c r="F57" s="3">
-        <v>367300</v>
+        <v>364400</v>
       </c>
       <c r="G57" s="3">
-        <v>334300</v>
+        <v>358700</v>
       </c>
       <c r="H57" s="3">
-        <v>277400</v>
+        <v>326500</v>
       </c>
       <c r="I57" s="3">
-        <v>264200</v>
+        <v>270900</v>
       </c>
       <c r="J57" s="3">
+        <v>258000</v>
+      </c>
+      <c r="K57" s="3">
         <v>245700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>187700</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>71700</v>
+        <v>50300</v>
       </c>
       <c r="E58" s="3">
-        <v>86400</v>
+        <v>70000</v>
       </c>
       <c r="F58" s="3">
-        <v>81400</v>
+        <v>84400</v>
       </c>
       <c r="G58" s="3">
         <v>79500</v>
       </c>
       <c r="H58" s="3">
-        <v>101100</v>
+        <v>77600</v>
       </c>
       <c r="I58" s="3">
-        <v>135500</v>
+        <v>98700</v>
       </c>
       <c r="J58" s="3">
+        <v>132300</v>
+      </c>
+      <c r="K58" s="3">
         <v>136000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>34900</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>102300</v>
+        <v>92600</v>
       </c>
       <c r="E59" s="3">
-        <v>88700</v>
+        <v>99900</v>
       </c>
       <c r="F59" s="3">
-        <v>88300</v>
+        <v>86600</v>
       </c>
       <c r="G59" s="3">
-        <v>73300</v>
+        <v>86300</v>
       </c>
       <c r="H59" s="3">
-        <v>146500</v>
+        <v>71600</v>
       </c>
       <c r="I59" s="3">
-        <v>115100</v>
+        <v>143100</v>
       </c>
       <c r="J59" s="3">
+        <v>112400</v>
+      </c>
+      <c r="K59" s="3">
         <v>60400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>74300</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>537400</v>
+        <v>514600</v>
       </c>
       <c r="E60" s="3">
-        <v>548200</v>
+        <v>524800</v>
       </c>
       <c r="F60" s="3">
-        <v>537000</v>
+        <v>535400</v>
       </c>
       <c r="G60" s="3">
-        <v>487100</v>
+        <v>524400</v>
       </c>
       <c r="H60" s="3">
-        <v>525100</v>
+        <v>475700</v>
       </c>
       <c r="I60" s="3">
-        <v>514700</v>
+        <v>512800</v>
       </c>
       <c r="J60" s="3">
+        <v>502700</v>
+      </c>
+      <c r="K60" s="3">
         <v>442100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>296900</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>917200</v>
+        <v>929200</v>
       </c>
       <c r="E61" s="3">
-        <v>865000</v>
+        <v>895700</v>
       </c>
       <c r="F61" s="3">
-        <v>923600</v>
+        <v>844700</v>
       </c>
       <c r="G61" s="3">
-        <v>979600</v>
+        <v>902000</v>
       </c>
       <c r="H61" s="3">
-        <v>930100</v>
+        <v>956600</v>
       </c>
       <c r="I61" s="3">
-        <v>773600</v>
+        <v>908300</v>
       </c>
       <c r="J61" s="3">
+        <v>755500</v>
+      </c>
+      <c r="K61" s="3">
         <v>222600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>112700</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>274400</v>
+        <v>333800</v>
       </c>
       <c r="E62" s="3">
-        <v>252900</v>
+        <v>268000</v>
       </c>
       <c r="F62" s="3">
-        <v>276300</v>
+        <v>247000</v>
       </c>
       <c r="G62" s="3">
-        <v>271300</v>
+        <v>269800</v>
       </c>
       <c r="H62" s="3">
-        <v>273100</v>
+        <v>264900</v>
       </c>
       <c r="I62" s="3">
-        <v>249600</v>
+        <v>266700</v>
       </c>
       <c r="J62" s="3">
+        <v>243700</v>
+      </c>
+      <c r="K62" s="3">
         <v>162500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>73500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1754500</v>
+        <v>1802900</v>
       </c>
       <c r="E66" s="3">
-        <v>1694100</v>
+        <v>1713400</v>
       </c>
       <c r="F66" s="3">
-        <v>1764500</v>
+        <v>1654400</v>
       </c>
       <c r="G66" s="3">
-        <v>1765000</v>
+        <v>1723100</v>
       </c>
       <c r="H66" s="3">
-        <v>1756000</v>
+        <v>1723600</v>
       </c>
       <c r="I66" s="3">
-        <v>1564500</v>
+        <v>1714800</v>
       </c>
       <c r="J66" s="3">
+        <v>1527900</v>
+      </c>
+      <c r="K66" s="3">
         <v>852100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>483200</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1146100</v>
+        <v>1292600</v>
       </c>
       <c r="E72" s="3">
-        <v>976200</v>
+        <v>1119200</v>
       </c>
       <c r="F72" s="3">
-        <v>925200</v>
+        <v>953300</v>
       </c>
       <c r="G72" s="3">
-        <v>898400</v>
+        <v>903600</v>
       </c>
       <c r="H72" s="3">
-        <v>863900</v>
+        <v>877400</v>
       </c>
       <c r="I72" s="3">
-        <v>858000</v>
+        <v>843700</v>
       </c>
       <c r="J72" s="3">
+        <v>837900</v>
+      </c>
+      <c r="K72" s="3">
         <v>853700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>322400</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1080100</v>
+        <v>1185800</v>
       </c>
       <c r="E76" s="3">
-        <v>1012900</v>
+        <v>1054800</v>
       </c>
       <c r="F76" s="3">
-        <v>1050400</v>
+        <v>989100</v>
       </c>
       <c r="G76" s="3">
-        <v>1063000</v>
+        <v>1025800</v>
       </c>
       <c r="H76" s="3">
-        <v>1148500</v>
+        <v>1038100</v>
       </c>
       <c r="I76" s="3">
-        <v>1101700</v>
+        <v>1121600</v>
       </c>
       <c r="J76" s="3">
+        <v>1075800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1118900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>637200</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>123700</v>
+        <v>215400</v>
       </c>
       <c r="E81" s="3">
-        <v>150800</v>
+        <v>119800</v>
       </c>
       <c r="F81" s="3">
-        <v>115900</v>
+        <v>146100</v>
       </c>
       <c r="G81" s="3">
-        <v>112500</v>
+        <v>112300</v>
       </c>
       <c r="H81" s="3">
-        <v>96600</v>
+        <v>109000</v>
       </c>
       <c r="I81" s="3">
-        <v>113900</v>
+        <v>93600</v>
       </c>
       <c r="J81" s="3">
+        <v>110300</v>
+      </c>
+      <c r="K81" s="3">
         <v>112200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>146500</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>68900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>59700</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>295000</v>
+        <v>313900</v>
       </c>
       <c r="E89" s="3">
-        <v>317400</v>
+        <v>285700</v>
       </c>
       <c r="F89" s="3">
-        <v>286000</v>
+        <v>307500</v>
       </c>
       <c r="G89" s="3">
-        <v>339100</v>
+        <v>277100</v>
       </c>
       <c r="H89" s="3">
-        <v>275900</v>
+        <v>328500</v>
       </c>
       <c r="I89" s="3">
-        <v>220300</v>
+        <v>267200</v>
       </c>
       <c r="J89" s="3">
+        <v>213400</v>
+      </c>
+      <c r="K89" s="3">
         <v>241700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>209800</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-155000</v>
+        <v>-137200</v>
       </c>
       <c r="E91" s="3">
-        <v>-216100</v>
+        <v>-150100</v>
       </c>
       <c r="F91" s="3">
-        <v>-164100</v>
+        <v>-209400</v>
       </c>
       <c r="G91" s="3">
-        <v>-143900</v>
+        <v>-159000</v>
       </c>
       <c r="H91" s="3">
-        <v>-146200</v>
+        <v>-139400</v>
       </c>
       <c r="I91" s="3">
-        <v>-235100</v>
+        <v>-141600</v>
       </c>
       <c r="J91" s="3">
+        <v>-227800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-184000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-191700</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-151100</v>
+        <v>-136500</v>
       </c>
       <c r="E94" s="3">
-        <v>-216100</v>
+        <v>-146400</v>
       </c>
       <c r="F94" s="3">
-        <v>-145800</v>
+        <v>-209400</v>
       </c>
       <c r="G94" s="3">
-        <v>-132000</v>
+        <v>-141300</v>
       </c>
       <c r="H94" s="3">
-        <v>-213500</v>
+        <v>-127900</v>
       </c>
       <c r="I94" s="3">
-        <v>-572900</v>
+        <v>-206800</v>
       </c>
       <c r="J94" s="3">
+        <v>-555000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-199900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-135300</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-112000</v>
+        <v>-107000</v>
       </c>
       <c r="E96" s="3">
-        <v>-96000</v>
+        <v>-108500</v>
       </c>
       <c r="F96" s="3">
-        <v>-86500</v>
+        <v>-93000</v>
       </c>
       <c r="G96" s="3">
-        <v>-69500</v>
+        <v>-83800</v>
       </c>
       <c r="H96" s="3">
-        <v>-66900</v>
+        <v>-67400</v>
       </c>
       <c r="I96" s="3">
-        <v>-93500</v>
+        <v>-64800</v>
       </c>
       <c r="J96" s="3">
+        <v>-90600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-89300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-107100</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-146700</v>
+        <v>-157600</v>
       </c>
       <c r="E100" s="3">
-        <v>-100300</v>
+        <v>-142100</v>
       </c>
       <c r="F100" s="3">
-        <v>-125700</v>
+        <v>-97100</v>
       </c>
       <c r="G100" s="3">
-        <v>-126200</v>
+        <v>-121800</v>
       </c>
       <c r="H100" s="3">
-        <v>-60100</v>
+        <v>-122200</v>
       </c>
       <c r="I100" s="3">
-        <v>388000</v>
+        <v>-58200</v>
       </c>
       <c r="J100" s="3">
+        <v>375900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-101400</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4600</v>
+        <v>5000</v>
       </c>
       <c r="E101" s="3">
-        <v>-7400</v>
+        <v>4400</v>
       </c>
       <c r="F101" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
-        <v>-17400</v>
-      </c>
       <c r="H101" s="3">
-        <v>-2900</v>
+        <v>-16800</v>
       </c>
       <c r="I101" s="3">
-        <v>-4100</v>
+        <v>-2800</v>
       </c>
       <c r="J101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-6300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1300</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1700</v>
+        <v>24800</v>
       </c>
       <c r="E102" s="3">
-        <v>-6400</v>
+        <v>1600</v>
       </c>
       <c r="F102" s="3">
-        <v>15500</v>
+        <v>-6200</v>
       </c>
       <c r="G102" s="3">
-        <v>63500</v>
+        <v>15000</v>
       </c>
       <c r="H102" s="3">
+        <v>61600</v>
+      </c>
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
-        <v>31300</v>
-      </c>
       <c r="J102" s="3">
+        <v>30300</v>
+      </c>
+      <c r="K102" s="3">
         <v>31000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-25600</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2206000</v>
+        <v>2259400</v>
       </c>
       <c r="E8" s="3">
-        <v>2074400</v>
+        <v>2124600</v>
       </c>
       <c r="F8" s="3">
-        <v>2292600</v>
+        <v>2348100</v>
       </c>
       <c r="G8" s="3">
-        <v>2204000</v>
+        <v>2257400</v>
       </c>
       <c r="H8" s="3">
-        <v>2328000</v>
+        <v>2384300</v>
       </c>
       <c r="I8" s="3">
-        <v>2228500</v>
+        <v>2282400</v>
       </c>
       <c r="J8" s="3">
-        <v>1886900</v>
+        <v>1932500</v>
       </c>
       <c r="K8" s="3">
         <v>1500500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1299900</v>
+        <v>1331400</v>
       </c>
       <c r="E9" s="3">
-        <v>1200400</v>
+        <v>1229400</v>
       </c>
       <c r="F9" s="3">
-        <v>1325600</v>
+        <v>1357700</v>
       </c>
       <c r="G9" s="3">
-        <v>1282000</v>
+        <v>1313100</v>
       </c>
       <c r="H9" s="3">
-        <v>1372300</v>
+        <v>1405500</v>
       </c>
       <c r="I9" s="3">
-        <v>1340700</v>
+        <v>1373200</v>
       </c>
       <c r="J9" s="3">
-        <v>1134400</v>
+        <v>1161800</v>
       </c>
       <c r="K9" s="3">
         <v>894700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>906000</v>
+        <v>928000</v>
       </c>
       <c r="E10" s="3">
-        <v>874100</v>
+        <v>895200</v>
       </c>
       <c r="F10" s="3">
-        <v>967000</v>
+        <v>990400</v>
       </c>
       <c r="G10" s="3">
-        <v>922000</v>
+        <v>944300</v>
       </c>
       <c r="H10" s="3">
-        <v>955700</v>
+        <v>978800</v>
       </c>
       <c r="I10" s="3">
-        <v>887800</v>
+        <v>909300</v>
       </c>
       <c r="J10" s="3">
-        <v>752500</v>
+        <v>770700</v>
       </c>
       <c r="K10" s="3">
         <v>605900</v>
@@ -897,7 +897,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="E14" s="3">
         <v>300</v>
@@ -906,16 +906,16 @@
         <v>3800</v>
       </c>
       <c r="G14" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="H14" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="I14" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="J14" s="3">
-        <v>9500</v>
+        <v>9700</v>
       </c>
       <c r="K14" s="3">
         <v>3200</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1892800</v>
+        <v>1938600</v>
       </c>
       <c r="E17" s="3">
-        <v>1815000</v>
+        <v>1858900</v>
       </c>
       <c r="F17" s="3">
-        <v>2019800</v>
+        <v>2068600</v>
       </c>
       <c r="G17" s="3">
-        <v>1969300</v>
+        <v>2017000</v>
       </c>
       <c r="H17" s="3">
-        <v>2095100</v>
+        <v>2145800</v>
       </c>
       <c r="I17" s="3">
-        <v>2017100</v>
+        <v>2065900</v>
       </c>
       <c r="J17" s="3">
-        <v>1703400</v>
+        <v>1744600</v>
       </c>
       <c r="K17" s="3">
         <v>1320300</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>313200</v>
+        <v>320700</v>
       </c>
       <c r="E18" s="3">
-        <v>259400</v>
+        <v>265700</v>
       </c>
       <c r="F18" s="3">
-        <v>272800</v>
+        <v>279400</v>
       </c>
       <c r="G18" s="3">
-        <v>234700</v>
+        <v>240400</v>
       </c>
       <c r="H18" s="3">
-        <v>232900</v>
+        <v>238500</v>
       </c>
       <c r="I18" s="3">
-        <v>211500</v>
+        <v>216600</v>
       </c>
       <c r="J18" s="3">
-        <v>183500</v>
+        <v>188000</v>
       </c>
       <c r="K18" s="3">
         <v>180200</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>29000</v>
+        <v>29700</v>
       </c>
       <c r="E20" s="3">
-        <v>-19600</v>
+        <v>-20100</v>
       </c>
       <c r="F20" s="3">
         <v>-1900</v>
       </c>
       <c r="G20" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="H20" s="3">
-        <v>-9700</v>
+        <v>-9900</v>
       </c>
       <c r="I20" s="3">
-        <v>-15800</v>
+        <v>-16200</v>
       </c>
       <c r="J20" s="3">
-        <v>-10000</v>
+        <v>-10200</v>
       </c>
       <c r="K20" s="3">
         <v>-3600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>342100</v>
+        <v>350400</v>
       </c>
       <c r="E21" s="3">
-        <v>239800</v>
+        <v>245600</v>
       </c>
       <c r="F21" s="3">
-        <v>271000</v>
+        <v>277500</v>
       </c>
       <c r="G21" s="3">
-        <v>231300</v>
+        <v>236900</v>
       </c>
       <c r="H21" s="3">
-        <v>223100</v>
+        <v>228500</v>
       </c>
       <c r="I21" s="3">
-        <v>195600</v>
+        <v>200400</v>
       </c>
       <c r="J21" s="3">
-        <v>173500</v>
+        <v>177700</v>
       </c>
       <c r="K21" s="3">
         <v>246000</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>49000</v>
+        <v>50200</v>
       </c>
       <c r="E22" s="3">
-        <v>50100</v>
+        <v>51300</v>
       </c>
       <c r="F22" s="3">
-        <v>59200</v>
+        <v>60600</v>
       </c>
       <c r="G22" s="3">
-        <v>56600</v>
+        <v>58000</v>
       </c>
       <c r="H22" s="3">
-        <v>62300</v>
+        <v>63800</v>
       </c>
       <c r="I22" s="3">
-        <v>74300</v>
+        <v>76100</v>
       </c>
       <c r="J22" s="3">
-        <v>33100</v>
+        <v>33900</v>
       </c>
       <c r="K22" s="3">
         <v>14300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>293200</v>
+        <v>300200</v>
       </c>
       <c r="E23" s="3">
-        <v>189700</v>
+        <v>194300</v>
       </c>
       <c r="F23" s="3">
-        <v>211800</v>
+        <v>216900</v>
       </c>
       <c r="G23" s="3">
-        <v>174700</v>
+        <v>178900</v>
       </c>
       <c r="H23" s="3">
-        <v>160900</v>
+        <v>164800</v>
       </c>
       <c r="I23" s="3">
-        <v>121300</v>
+        <v>124200</v>
       </c>
       <c r="J23" s="3">
-        <v>140400</v>
+        <v>143800</v>
       </c>
       <c r="K23" s="3">
         <v>162300</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>75800</v>
+        <v>77700</v>
       </c>
       <c r="E24" s="3">
-        <v>68900</v>
+        <v>70600</v>
       </c>
       <c r="F24" s="3">
-        <v>64200</v>
+        <v>65800</v>
       </c>
       <c r="G24" s="3">
-        <v>60500</v>
+        <v>62000</v>
       </c>
       <c r="H24" s="3">
-        <v>51600</v>
+        <v>52900</v>
       </c>
       <c r="I24" s="3">
-        <v>27300</v>
+        <v>28000</v>
       </c>
       <c r="J24" s="3">
-        <v>28500</v>
+        <v>29200</v>
       </c>
       <c r="K24" s="3">
         <v>49300</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>217300</v>
+        <v>222600</v>
       </c>
       <c r="E26" s="3">
-        <v>120800</v>
+        <v>123800</v>
       </c>
       <c r="F26" s="3">
-        <v>147600</v>
+        <v>151100</v>
       </c>
       <c r="G26" s="3">
-        <v>114100</v>
+        <v>116900</v>
       </c>
       <c r="H26" s="3">
-        <v>109200</v>
+        <v>111900</v>
       </c>
       <c r="I26" s="3">
-        <v>94000</v>
+        <v>96300</v>
       </c>
       <c r="J26" s="3">
-        <v>111900</v>
+        <v>114600</v>
       </c>
       <c r="K26" s="3">
         <v>113000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>215400</v>
+        <v>220600</v>
       </c>
       <c r="E27" s="3">
-        <v>119800</v>
+        <v>122700</v>
       </c>
       <c r="F27" s="3">
-        <v>146100</v>
+        <v>149700</v>
       </c>
       <c r="G27" s="3">
-        <v>112300</v>
+        <v>115000</v>
       </c>
       <c r="H27" s="3">
-        <v>109000</v>
+        <v>111600</v>
       </c>
       <c r="I27" s="3">
-        <v>93600</v>
+        <v>95900</v>
       </c>
       <c r="J27" s="3">
-        <v>110300</v>
+        <v>113000</v>
       </c>
       <c r="K27" s="3">
         <v>112200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-29000</v>
+        <v>-29700</v>
       </c>
       <c r="E32" s="3">
-        <v>19600</v>
+        <v>20100</v>
       </c>
       <c r="F32" s="3">
         <v>1900</v>
       </c>
       <c r="G32" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H32" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="I32" s="3">
-        <v>15800</v>
+        <v>16200</v>
       </c>
       <c r="J32" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="K32" s="3">
         <v>3600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>215400</v>
+        <v>220600</v>
       </c>
       <c r="E33" s="3">
-        <v>119800</v>
+        <v>122700</v>
       </c>
       <c r="F33" s="3">
-        <v>146100</v>
+        <v>149700</v>
       </c>
       <c r="G33" s="3">
-        <v>112300</v>
+        <v>115000</v>
       </c>
       <c r="H33" s="3">
-        <v>109000</v>
+        <v>111600</v>
       </c>
       <c r="I33" s="3">
-        <v>93600</v>
+        <v>95900</v>
       </c>
       <c r="J33" s="3">
-        <v>110300</v>
+        <v>113000</v>
       </c>
       <c r="K33" s="3">
         <v>112200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>215400</v>
+        <v>220600</v>
       </c>
       <c r="E35" s="3">
-        <v>119800</v>
+        <v>122700</v>
       </c>
       <c r="F35" s="3">
-        <v>146100</v>
+        <v>149700</v>
       </c>
       <c r="G35" s="3">
-        <v>112300</v>
+        <v>115000</v>
       </c>
       <c r="H35" s="3">
-        <v>109000</v>
+        <v>111600</v>
       </c>
       <c r="I35" s="3">
-        <v>93600</v>
+        <v>95900</v>
       </c>
       <c r="J35" s="3">
-        <v>110300</v>
+        <v>113000</v>
       </c>
       <c r="K35" s="3">
         <v>112200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>197000</v>
+        <v>200100</v>
       </c>
       <c r="E41" s="3">
-        <v>171900</v>
+        <v>174700</v>
       </c>
       <c r="F41" s="3">
-        <v>170300</v>
+        <v>173000</v>
       </c>
       <c r="G41" s="3">
-        <v>176600</v>
+        <v>179400</v>
       </c>
       <c r="H41" s="3">
-        <v>161500</v>
+        <v>164000</v>
       </c>
       <c r="I41" s="3">
-        <v>99400</v>
+        <v>101000</v>
       </c>
       <c r="J41" s="3">
-        <v>100000</v>
+        <v>101600</v>
       </c>
       <c r="K41" s="3">
         <v>32100</v>
@@ -1691,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="G42" s="3">
-        <v>69300</v>
+        <v>70500</v>
       </c>
       <c r="H42" s="3">
-        <v>109400</v>
+        <v>111100</v>
       </c>
       <c r="I42" s="3">
-        <v>133200</v>
+        <v>135400</v>
       </c>
       <c r="J42" s="3">
-        <v>45600</v>
+        <v>46300</v>
       </c>
       <c r="K42" s="3">
         <v>39000</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>264900</v>
+        <v>269100</v>
       </c>
       <c r="E43" s="3">
-        <v>221800</v>
+        <v>225300</v>
       </c>
       <c r="F43" s="3">
-        <v>236000</v>
+        <v>239700</v>
       </c>
       <c r="G43" s="3">
-        <v>236500</v>
+        <v>240300</v>
       </c>
       <c r="H43" s="3">
-        <v>228000</v>
+        <v>231700</v>
       </c>
       <c r="I43" s="3">
-        <v>257000</v>
+        <v>261100</v>
       </c>
       <c r="J43" s="3">
-        <v>258600</v>
+        <v>262800</v>
       </c>
       <c r="K43" s="3">
         <v>202400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>184600</v>
+        <v>187500</v>
       </c>
       <c r="E44" s="3">
-        <v>189100</v>
+        <v>192200</v>
       </c>
       <c r="F44" s="3">
-        <v>164200</v>
+        <v>166800</v>
       </c>
       <c r="G44" s="3">
-        <v>180900</v>
+        <v>183800</v>
       </c>
       <c r="H44" s="3">
-        <v>166700</v>
+        <v>169300</v>
       </c>
       <c r="I44" s="3">
-        <v>187200</v>
+        <v>190200</v>
       </c>
       <c r="J44" s="3">
-        <v>157300</v>
+        <v>159800</v>
       </c>
       <c r="K44" s="3">
         <v>114300</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20400</v>
+        <v>20700</v>
       </c>
       <c r="E45" s="3">
-        <v>19100</v>
+        <v>19400</v>
       </c>
       <c r="F45" s="3">
-        <v>17500</v>
+        <v>17700</v>
       </c>
       <c r="G45" s="3">
-        <v>27600</v>
+        <v>28000</v>
       </c>
       <c r="H45" s="3">
-        <v>18700</v>
+        <v>19000</v>
       </c>
       <c r="I45" s="3">
-        <v>15400</v>
+        <v>15700</v>
       </c>
       <c r="J45" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="K45" s="3">
         <v>31000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>666800</v>
+        <v>677500</v>
       </c>
       <c r="E46" s="3">
-        <v>602000</v>
+        <v>611600</v>
       </c>
       <c r="F46" s="3">
-        <v>605000</v>
+        <v>614700</v>
       </c>
       <c r="G46" s="3">
-        <v>690900</v>
+        <v>702000</v>
       </c>
       <c r="H46" s="3">
-        <v>684300</v>
+        <v>695200</v>
       </c>
       <c r="I46" s="3">
-        <v>692200</v>
+        <v>703200</v>
       </c>
       <c r="J46" s="3">
-        <v>575700</v>
+        <v>584900</v>
       </c>
       <c r="K46" s="3">
         <v>418800</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>256800</v>
+        <v>260900</v>
       </c>
       <c r="E47" s="3">
-        <v>146300</v>
+        <v>148700</v>
       </c>
       <c r="F47" s="3">
-        <v>114600</v>
+        <v>116400</v>
       </c>
       <c r="G47" s="3">
-        <v>104800</v>
+        <v>106500</v>
       </c>
       <c r="H47" s="3">
-        <v>79000</v>
+        <v>80300</v>
       </c>
       <c r="I47" s="3">
-        <v>155200</v>
+        <v>157700</v>
       </c>
       <c r="J47" s="3">
-        <v>105300</v>
+        <v>107000</v>
       </c>
       <c r="K47" s="3">
         <v>102200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>904000</v>
+        <v>918400</v>
       </c>
       <c r="E48" s="3">
-        <v>889000</v>
+        <v>903200</v>
       </c>
       <c r="F48" s="3">
-        <v>825300</v>
+        <v>838500</v>
       </c>
       <c r="G48" s="3">
-        <v>833300</v>
+        <v>846600</v>
       </c>
       <c r="H48" s="3">
-        <v>801300</v>
+        <v>814100</v>
       </c>
       <c r="I48" s="3">
-        <v>891900</v>
+        <v>906200</v>
       </c>
       <c r="J48" s="3">
-        <v>866800</v>
+        <v>880600</v>
       </c>
       <c r="K48" s="3">
         <v>738000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>994800</v>
+        <v>1010700</v>
       </c>
       <c r="E49" s="3">
-        <v>982000</v>
+        <v>997700</v>
       </c>
       <c r="F49" s="3">
-        <v>945500</v>
+        <v>960600</v>
       </c>
       <c r="G49" s="3">
-        <v>979300</v>
+        <v>995000</v>
       </c>
       <c r="H49" s="3">
-        <v>951300</v>
+        <v>966500</v>
       </c>
       <c r="I49" s="3">
-        <v>1055800</v>
+        <v>1072700</v>
       </c>
       <c r="J49" s="3">
-        <v>1019900</v>
+        <v>1036200</v>
       </c>
       <c r="K49" s="3">
         <v>677600</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>166300</v>
+        <v>168900</v>
       </c>
       <c r="E52" s="3">
-        <v>148800</v>
+        <v>151200</v>
       </c>
       <c r="F52" s="3">
-        <v>153200</v>
+        <v>155700</v>
       </c>
       <c r="G52" s="3">
-        <v>140600</v>
+        <v>142800</v>
       </c>
       <c r="H52" s="3">
-        <v>245900</v>
+        <v>249800</v>
       </c>
       <c r="I52" s="3">
-        <v>41300</v>
+        <v>42000</v>
       </c>
       <c r="J52" s="3">
-        <v>36000</v>
+        <v>36600</v>
       </c>
       <c r="K52" s="3">
         <v>34500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2988700</v>
+        <v>3036500</v>
       </c>
       <c r="E54" s="3">
-        <v>2768100</v>
+        <v>2812400</v>
       </c>
       <c r="F54" s="3">
-        <v>2643600</v>
+        <v>2685900</v>
       </c>
       <c r="G54" s="3">
-        <v>2748900</v>
+        <v>2792900</v>
       </c>
       <c r="H54" s="3">
-        <v>2761700</v>
+        <v>2805900</v>
       </c>
       <c r="I54" s="3">
-        <v>2836500</v>
+        <v>2881900</v>
       </c>
       <c r="J54" s="3">
-        <v>2603700</v>
+        <v>2645400</v>
       </c>
       <c r="K54" s="3">
         <v>1971000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>371700</v>
+        <v>377600</v>
       </c>
       <c r="E57" s="3">
-        <v>354900</v>
+        <v>360600</v>
       </c>
       <c r="F57" s="3">
+        <v>370200</v>
+      </c>
+      <c r="G57" s="3">
         <v>364400</v>
       </c>
-      <c r="G57" s="3">
-        <v>358700</v>
-      </c>
       <c r="H57" s="3">
-        <v>326500</v>
+        <v>331700</v>
       </c>
       <c r="I57" s="3">
-        <v>270900</v>
+        <v>275300</v>
       </c>
       <c r="J57" s="3">
-        <v>258000</v>
+        <v>262100</v>
       </c>
       <c r="K57" s="3">
         <v>245700</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>50300</v>
+        <v>51100</v>
       </c>
       <c r="E58" s="3">
-        <v>70000</v>
+        <v>71100</v>
       </c>
       <c r="F58" s="3">
-        <v>84400</v>
+        <v>85800</v>
       </c>
       <c r="G58" s="3">
-        <v>79500</v>
+        <v>80700</v>
       </c>
       <c r="H58" s="3">
-        <v>77600</v>
+        <v>78900</v>
       </c>
       <c r="I58" s="3">
-        <v>98700</v>
+        <v>100300</v>
       </c>
       <c r="J58" s="3">
-        <v>132300</v>
+        <v>134400</v>
       </c>
       <c r="K58" s="3">
         <v>136000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>92600</v>
+        <v>94100</v>
       </c>
       <c r="E59" s="3">
-        <v>99900</v>
+        <v>101500</v>
       </c>
       <c r="F59" s="3">
-        <v>86600</v>
+        <v>88000</v>
       </c>
       <c r="G59" s="3">
-        <v>86300</v>
+        <v>87600</v>
       </c>
       <c r="H59" s="3">
-        <v>71600</v>
+        <v>72800</v>
       </c>
       <c r="I59" s="3">
-        <v>143100</v>
+        <v>145400</v>
       </c>
       <c r="J59" s="3">
-        <v>112400</v>
+        <v>114200</v>
       </c>
       <c r="K59" s="3">
         <v>60400</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>514600</v>
+        <v>522800</v>
       </c>
       <c r="E60" s="3">
-        <v>524800</v>
+        <v>533200</v>
       </c>
       <c r="F60" s="3">
-        <v>535400</v>
+        <v>543900</v>
       </c>
       <c r="G60" s="3">
-        <v>524400</v>
+        <v>532800</v>
       </c>
       <c r="H60" s="3">
-        <v>475700</v>
+        <v>483300</v>
       </c>
       <c r="I60" s="3">
-        <v>512800</v>
+        <v>521000</v>
       </c>
       <c r="J60" s="3">
-        <v>502700</v>
+        <v>510700</v>
       </c>
       <c r="K60" s="3">
         <v>442100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>929200</v>
+        <v>944000</v>
       </c>
       <c r="E61" s="3">
-        <v>895700</v>
+        <v>910000</v>
       </c>
       <c r="F61" s="3">
-        <v>844700</v>
+        <v>858200</v>
       </c>
       <c r="G61" s="3">
-        <v>902000</v>
+        <v>916400</v>
       </c>
       <c r="H61" s="3">
-        <v>956600</v>
+        <v>971900</v>
       </c>
       <c r="I61" s="3">
-        <v>908300</v>
+        <v>922800</v>
       </c>
       <c r="J61" s="3">
-        <v>755500</v>
+        <v>767600</v>
       </c>
       <c r="K61" s="3">
         <v>222600</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>333800</v>
+        <v>339200</v>
       </c>
       <c r="E62" s="3">
-        <v>268000</v>
+        <v>272200</v>
       </c>
       <c r="F62" s="3">
-        <v>247000</v>
+        <v>250900</v>
       </c>
       <c r="G62" s="3">
-        <v>269800</v>
+        <v>274100</v>
       </c>
       <c r="H62" s="3">
-        <v>264900</v>
+        <v>269200</v>
       </c>
       <c r="I62" s="3">
-        <v>266700</v>
+        <v>271000</v>
       </c>
       <c r="J62" s="3">
-        <v>243700</v>
+        <v>247600</v>
       </c>
       <c r="K62" s="3">
         <v>162500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1802900</v>
+        <v>1831700</v>
       </c>
       <c r="E66" s="3">
-        <v>1713400</v>
+        <v>1740800</v>
       </c>
       <c r="F66" s="3">
-        <v>1654400</v>
+        <v>1680900</v>
       </c>
       <c r="G66" s="3">
-        <v>1723100</v>
+        <v>1750700</v>
       </c>
       <c r="H66" s="3">
-        <v>1723600</v>
+        <v>1751200</v>
       </c>
       <c r="I66" s="3">
-        <v>1714800</v>
+        <v>1742300</v>
       </c>
       <c r="J66" s="3">
-        <v>1527900</v>
+        <v>1552300</v>
       </c>
       <c r="K66" s="3">
         <v>852100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1292600</v>
+        <v>1313300</v>
       </c>
       <c r="E72" s="3">
-        <v>1119200</v>
+        <v>1137100</v>
       </c>
       <c r="F72" s="3">
-        <v>953300</v>
+        <v>968600</v>
       </c>
       <c r="G72" s="3">
-        <v>903600</v>
+        <v>918000</v>
       </c>
       <c r="H72" s="3">
-        <v>877400</v>
+        <v>891400</v>
       </c>
       <c r="I72" s="3">
-        <v>843700</v>
+        <v>857200</v>
       </c>
       <c r="J72" s="3">
-        <v>837900</v>
+        <v>851300</v>
       </c>
       <c r="K72" s="3">
         <v>853700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1185800</v>
+        <v>1204800</v>
       </c>
       <c r="E76" s="3">
-        <v>1054800</v>
+        <v>1071600</v>
       </c>
       <c r="F76" s="3">
-        <v>989100</v>
+        <v>1005000</v>
       </c>
       <c r="G76" s="3">
-        <v>1025800</v>
+        <v>1042200</v>
       </c>
       <c r="H76" s="3">
-        <v>1038100</v>
+        <v>1054700</v>
       </c>
       <c r="I76" s="3">
-        <v>1121600</v>
+        <v>1139600</v>
       </c>
       <c r="J76" s="3">
-        <v>1075800</v>
+        <v>1093000</v>
       </c>
       <c r="K76" s="3">
         <v>1118900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>215400</v>
+        <v>220600</v>
       </c>
       <c r="E81" s="3">
-        <v>119800</v>
+        <v>122700</v>
       </c>
       <c r="F81" s="3">
-        <v>146100</v>
+        <v>149700</v>
       </c>
       <c r="G81" s="3">
-        <v>112300</v>
+        <v>115000</v>
       </c>
       <c r="H81" s="3">
-        <v>109000</v>
+        <v>111600</v>
       </c>
       <c r="I81" s="3">
-        <v>93600</v>
+        <v>95900</v>
       </c>
       <c r="J81" s="3">
-        <v>110300</v>
+        <v>113000</v>
       </c>
       <c r="K81" s="3">
         <v>112200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>313900</v>
+        <v>321500</v>
       </c>
       <c r="E89" s="3">
-        <v>285700</v>
+        <v>292700</v>
       </c>
       <c r="F89" s="3">
-        <v>307500</v>
+        <v>314900</v>
       </c>
       <c r="G89" s="3">
-        <v>277100</v>
+        <v>283800</v>
       </c>
       <c r="H89" s="3">
-        <v>328500</v>
+        <v>336400</v>
       </c>
       <c r="I89" s="3">
-        <v>267200</v>
+        <v>273700</v>
       </c>
       <c r="J89" s="3">
-        <v>213400</v>
+        <v>218500</v>
       </c>
       <c r="K89" s="3">
         <v>241700</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-137200</v>
+        <v>-140600</v>
       </c>
       <c r="E91" s="3">
-        <v>-150100</v>
+        <v>-153800</v>
       </c>
       <c r="F91" s="3">
-        <v>-209400</v>
+        <v>-214400</v>
       </c>
       <c r="G91" s="3">
-        <v>-159000</v>
+        <v>-162800</v>
       </c>
       <c r="H91" s="3">
-        <v>-139400</v>
+        <v>-142700</v>
       </c>
       <c r="I91" s="3">
-        <v>-141600</v>
+        <v>-145100</v>
       </c>
       <c r="J91" s="3">
-        <v>-227800</v>
+        <v>-233300</v>
       </c>
       <c r="K91" s="3">
         <v>-184000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-136500</v>
+        <v>-139800</v>
       </c>
       <c r="E94" s="3">
-        <v>-146400</v>
+        <v>-150000</v>
       </c>
       <c r="F94" s="3">
-        <v>-209400</v>
+        <v>-214400</v>
       </c>
       <c r="G94" s="3">
-        <v>-141300</v>
+        <v>-144700</v>
       </c>
       <c r="H94" s="3">
-        <v>-127900</v>
+        <v>-131000</v>
       </c>
       <c r="I94" s="3">
-        <v>-206800</v>
+        <v>-211800</v>
       </c>
       <c r="J94" s="3">
-        <v>-555000</v>
+        <v>-568400</v>
       </c>
       <c r="K94" s="3">
         <v>-199900</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-107000</v>
+        <v>-109600</v>
       </c>
       <c r="E96" s="3">
-        <v>-108500</v>
+        <v>-111200</v>
       </c>
       <c r="F96" s="3">
-        <v>-93000</v>
+        <v>-95200</v>
       </c>
       <c r="G96" s="3">
-        <v>-83800</v>
+        <v>-85800</v>
       </c>
       <c r="H96" s="3">
-        <v>-67400</v>
+        <v>-69000</v>
       </c>
       <c r="I96" s="3">
-        <v>-64800</v>
+        <v>-66400</v>
       </c>
       <c r="J96" s="3">
-        <v>-90600</v>
+        <v>-92800</v>
       </c>
       <c r="K96" s="3">
         <v>-89300</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-157600</v>
+        <v>-161400</v>
       </c>
       <c r="E100" s="3">
-        <v>-142100</v>
+        <v>-145600</v>
       </c>
       <c r="F100" s="3">
-        <v>-97100</v>
+        <v>-99500</v>
       </c>
       <c r="G100" s="3">
-        <v>-121800</v>
+        <v>-124700</v>
       </c>
       <c r="H100" s="3">
-        <v>-122200</v>
+        <v>-125200</v>
       </c>
       <c r="I100" s="3">
-        <v>-58200</v>
+        <v>-59600</v>
       </c>
       <c r="J100" s="3">
-        <v>375900</v>
+        <v>384900</v>
       </c>
       <c r="K100" s="3">
         <v>-4500</v>
@@ -3463,22 +3463,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="E101" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="F101" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="G101" s="3">
         <v>1000</v>
       </c>
       <c r="H101" s="3">
-        <v>-16800</v>
+        <v>-17200</v>
       </c>
       <c r="I101" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="J101" s="3">
         <v>-4000</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>24800</v>
+        <v>25400</v>
       </c>
       <c r="E102" s="3">
         <v>1600</v>
       </c>
       <c r="F102" s="3">
-        <v>-6200</v>
+        <v>-6400</v>
       </c>
       <c r="G102" s="3">
-        <v>15000</v>
+        <v>15400</v>
       </c>
       <c r="H102" s="3">
-        <v>61600</v>
+        <v>63100</v>
       </c>
       <c r="I102" s="3">
         <v>-600</v>
       </c>
       <c r="J102" s="3">
-        <v>30300</v>
+        <v>31100</v>
       </c>
       <c r="K102" s="3">
         <v>31000</v>

--- a/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2259400</v>
+        <v>2312700</v>
       </c>
       <c r="E8" s="3">
-        <v>2124600</v>
+        <v>2174800</v>
       </c>
       <c r="F8" s="3">
-        <v>2348100</v>
+        <v>2403500</v>
       </c>
       <c r="G8" s="3">
-        <v>2257400</v>
+        <v>2310700</v>
       </c>
       <c r="H8" s="3">
-        <v>2384300</v>
+        <v>2440600</v>
       </c>
       <c r="I8" s="3">
-        <v>2282400</v>
+        <v>2336400</v>
       </c>
       <c r="J8" s="3">
-        <v>1932500</v>
+        <v>1978200</v>
       </c>
       <c r="K8" s="3">
         <v>1500500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1331400</v>
+        <v>1362800</v>
       </c>
       <c r="E9" s="3">
-        <v>1229400</v>
+        <v>1258400</v>
       </c>
       <c r="F9" s="3">
-        <v>1357700</v>
+        <v>1389700</v>
       </c>
       <c r="G9" s="3">
-        <v>1313100</v>
+        <v>1344100</v>
       </c>
       <c r="H9" s="3">
-        <v>1405500</v>
+        <v>1438700</v>
       </c>
       <c r="I9" s="3">
-        <v>1373200</v>
+        <v>1405600</v>
       </c>
       <c r="J9" s="3">
-        <v>1161800</v>
+        <v>1189300</v>
       </c>
       <c r="K9" s="3">
         <v>894700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>928000</v>
+        <v>949900</v>
       </c>
       <c r="E10" s="3">
-        <v>895200</v>
+        <v>916400</v>
       </c>
       <c r="F10" s="3">
-        <v>990400</v>
+        <v>1013800</v>
       </c>
       <c r="G10" s="3">
-        <v>944300</v>
+        <v>966600</v>
       </c>
       <c r="H10" s="3">
-        <v>978800</v>
+        <v>1001900</v>
       </c>
       <c r="I10" s="3">
-        <v>909300</v>
+        <v>930700</v>
       </c>
       <c r="J10" s="3">
-        <v>770700</v>
+        <v>788900</v>
       </c>
       <c r="K10" s="3">
         <v>605900</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E14" s="3">
         <v>300</v>
       </c>
       <c r="F14" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G14" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H14" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="I14" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="J14" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="K14" s="3">
         <v>3200</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1938600</v>
+        <v>1984400</v>
       </c>
       <c r="E17" s="3">
-        <v>1858900</v>
+        <v>1902800</v>
       </c>
       <c r="F17" s="3">
-        <v>2068600</v>
+        <v>2117500</v>
       </c>
       <c r="G17" s="3">
-        <v>2017000</v>
+        <v>2064600</v>
       </c>
       <c r="H17" s="3">
-        <v>2145800</v>
+        <v>2196500</v>
       </c>
       <c r="I17" s="3">
-        <v>2065900</v>
+        <v>2114700</v>
       </c>
       <c r="J17" s="3">
-        <v>1744600</v>
+        <v>1785800</v>
       </c>
       <c r="K17" s="3">
         <v>1320300</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>320700</v>
+        <v>328300</v>
       </c>
       <c r="E18" s="3">
-        <v>265700</v>
+        <v>272000</v>
       </c>
       <c r="F18" s="3">
-        <v>279400</v>
+        <v>286100</v>
       </c>
       <c r="G18" s="3">
-        <v>240400</v>
+        <v>246100</v>
       </c>
       <c r="H18" s="3">
-        <v>238500</v>
+        <v>244100</v>
       </c>
       <c r="I18" s="3">
-        <v>216600</v>
+        <v>221700</v>
       </c>
       <c r="J18" s="3">
-        <v>188000</v>
+        <v>192400</v>
       </c>
       <c r="K18" s="3">
         <v>180200</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>29700</v>
+        <v>30400</v>
       </c>
       <c r="E20" s="3">
-        <v>-20100</v>
+        <v>-20600</v>
       </c>
       <c r="F20" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="G20" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="H20" s="3">
-        <v>-9900</v>
+        <v>-10200</v>
       </c>
       <c r="I20" s="3">
-        <v>-16200</v>
+        <v>-16600</v>
       </c>
       <c r="J20" s="3">
-        <v>-10200</v>
+        <v>-10400</v>
       </c>
       <c r="K20" s="3">
         <v>-3600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>350400</v>
+        <v>358700</v>
       </c>
       <c r="E21" s="3">
-        <v>245600</v>
+        <v>251400</v>
       </c>
       <c r="F21" s="3">
-        <v>277500</v>
+        <v>284100</v>
       </c>
       <c r="G21" s="3">
-        <v>236900</v>
+        <v>242400</v>
       </c>
       <c r="H21" s="3">
-        <v>228500</v>
+        <v>233900</v>
       </c>
       <c r="I21" s="3">
-        <v>200400</v>
+        <v>205100</v>
       </c>
       <c r="J21" s="3">
-        <v>177700</v>
+        <v>181900</v>
       </c>
       <c r="K21" s="3">
         <v>246000</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>50200</v>
+        <v>51300</v>
       </c>
       <c r="E22" s="3">
-        <v>51300</v>
+        <v>52500</v>
       </c>
       <c r="F22" s="3">
-        <v>60600</v>
+        <v>62100</v>
       </c>
       <c r="G22" s="3">
-        <v>58000</v>
+        <v>59300</v>
       </c>
       <c r="H22" s="3">
-        <v>63800</v>
+        <v>65300</v>
       </c>
       <c r="I22" s="3">
-        <v>76100</v>
+        <v>77900</v>
       </c>
       <c r="J22" s="3">
-        <v>33900</v>
+        <v>34700</v>
       </c>
       <c r="K22" s="3">
         <v>14300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>300200</v>
+        <v>307300</v>
       </c>
       <c r="E23" s="3">
-        <v>194300</v>
+        <v>198900</v>
       </c>
       <c r="F23" s="3">
-        <v>216900</v>
+        <v>222000</v>
       </c>
       <c r="G23" s="3">
-        <v>178900</v>
+        <v>183100</v>
       </c>
       <c r="H23" s="3">
-        <v>164800</v>
+        <v>168700</v>
       </c>
       <c r="I23" s="3">
-        <v>124200</v>
+        <v>127200</v>
       </c>
       <c r="J23" s="3">
-        <v>143800</v>
+        <v>147200</v>
       </c>
       <c r="K23" s="3">
         <v>162300</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>77700</v>
+        <v>79500</v>
       </c>
       <c r="E24" s="3">
-        <v>70600</v>
+        <v>72200</v>
       </c>
       <c r="F24" s="3">
-        <v>65800</v>
+        <v>67300</v>
       </c>
       <c r="G24" s="3">
-        <v>62000</v>
+        <v>63400</v>
       </c>
       <c r="H24" s="3">
-        <v>52900</v>
+        <v>54100</v>
       </c>
       <c r="I24" s="3">
-        <v>28000</v>
+        <v>28600</v>
       </c>
       <c r="J24" s="3">
-        <v>29200</v>
+        <v>29900</v>
       </c>
       <c r="K24" s="3">
         <v>49300</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>222600</v>
+        <v>227800</v>
       </c>
       <c r="E26" s="3">
-        <v>123800</v>
+        <v>126700</v>
       </c>
       <c r="F26" s="3">
-        <v>151100</v>
+        <v>154700</v>
       </c>
       <c r="G26" s="3">
-        <v>116900</v>
+        <v>119700</v>
       </c>
       <c r="H26" s="3">
-        <v>111900</v>
+        <v>114500</v>
       </c>
       <c r="I26" s="3">
-        <v>96300</v>
+        <v>98500</v>
       </c>
       <c r="J26" s="3">
-        <v>114600</v>
+        <v>117300</v>
       </c>
       <c r="K26" s="3">
         <v>113000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>220600</v>
+        <v>225800</v>
       </c>
       <c r="E27" s="3">
-        <v>122700</v>
+        <v>125600</v>
       </c>
       <c r="F27" s="3">
-        <v>149700</v>
+        <v>153200</v>
       </c>
       <c r="G27" s="3">
-        <v>115000</v>
+        <v>117700</v>
       </c>
       <c r="H27" s="3">
-        <v>111600</v>
+        <v>114200</v>
       </c>
       <c r="I27" s="3">
-        <v>95900</v>
+        <v>98100</v>
       </c>
       <c r="J27" s="3">
-        <v>113000</v>
+        <v>115700</v>
       </c>
       <c r="K27" s="3">
         <v>112200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-29700</v>
+        <v>-30400</v>
       </c>
       <c r="E32" s="3">
-        <v>20100</v>
+        <v>20600</v>
       </c>
       <c r="F32" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G32" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H32" s="3">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="I32" s="3">
-        <v>16200</v>
+        <v>16600</v>
       </c>
       <c r="J32" s="3">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="K32" s="3">
         <v>3600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>220600</v>
+        <v>225800</v>
       </c>
       <c r="E33" s="3">
-        <v>122700</v>
+        <v>125600</v>
       </c>
       <c r="F33" s="3">
-        <v>149700</v>
+        <v>153200</v>
       </c>
       <c r="G33" s="3">
-        <v>115000</v>
+        <v>117700</v>
       </c>
       <c r="H33" s="3">
-        <v>111600</v>
+        <v>114200</v>
       </c>
       <c r="I33" s="3">
-        <v>95900</v>
+        <v>98100</v>
       </c>
       <c r="J33" s="3">
-        <v>113000</v>
+        <v>115700</v>
       </c>
       <c r="K33" s="3">
         <v>112200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>220600</v>
+        <v>225800</v>
       </c>
       <c r="E35" s="3">
-        <v>122700</v>
+        <v>125600</v>
       </c>
       <c r="F35" s="3">
-        <v>149700</v>
+        <v>153200</v>
       </c>
       <c r="G35" s="3">
-        <v>115000</v>
+        <v>117700</v>
       </c>
       <c r="H35" s="3">
-        <v>111600</v>
+        <v>114200</v>
       </c>
       <c r="I35" s="3">
-        <v>95900</v>
+        <v>98100</v>
       </c>
       <c r="J35" s="3">
-        <v>113000</v>
+        <v>115700</v>
       </c>
       <c r="K35" s="3">
         <v>112200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200100</v>
+        <v>204800</v>
       </c>
       <c r="E41" s="3">
-        <v>174700</v>
+        <v>178800</v>
       </c>
       <c r="F41" s="3">
-        <v>173000</v>
+        <v>177100</v>
       </c>
       <c r="G41" s="3">
-        <v>179400</v>
+        <v>183600</v>
       </c>
       <c r="H41" s="3">
-        <v>164000</v>
+        <v>167900</v>
       </c>
       <c r="I41" s="3">
-        <v>101000</v>
+        <v>103400</v>
       </c>
       <c r="J41" s="3">
-        <v>101600</v>
+        <v>104000</v>
       </c>
       <c r="K41" s="3">
         <v>32100</v>
@@ -1691,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>17400</v>
+        <v>17800</v>
       </c>
       <c r="G42" s="3">
-        <v>70500</v>
+        <v>72100</v>
       </c>
       <c r="H42" s="3">
-        <v>111100</v>
+        <v>113700</v>
       </c>
       <c r="I42" s="3">
-        <v>135400</v>
+        <v>138600</v>
       </c>
       <c r="J42" s="3">
-        <v>46300</v>
+        <v>47400</v>
       </c>
       <c r="K42" s="3">
         <v>39000</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>269100</v>
+        <v>275500</v>
       </c>
       <c r="E43" s="3">
-        <v>225300</v>
+        <v>230700</v>
       </c>
       <c r="F43" s="3">
-        <v>239700</v>
+        <v>245400</v>
       </c>
       <c r="G43" s="3">
-        <v>240300</v>
+        <v>246000</v>
       </c>
       <c r="H43" s="3">
-        <v>231700</v>
+        <v>237200</v>
       </c>
       <c r="I43" s="3">
-        <v>261100</v>
+        <v>267300</v>
       </c>
       <c r="J43" s="3">
-        <v>262800</v>
+        <v>269000</v>
       </c>
       <c r="K43" s="3">
         <v>202400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>187500</v>
+        <v>191900</v>
       </c>
       <c r="E44" s="3">
-        <v>192200</v>
+        <v>196700</v>
       </c>
       <c r="F44" s="3">
-        <v>166800</v>
+        <v>170800</v>
       </c>
       <c r="G44" s="3">
-        <v>183800</v>
+        <v>188100</v>
       </c>
       <c r="H44" s="3">
-        <v>169300</v>
+        <v>173300</v>
       </c>
       <c r="I44" s="3">
-        <v>190200</v>
+        <v>194600</v>
       </c>
       <c r="J44" s="3">
-        <v>159800</v>
+        <v>163600</v>
       </c>
       <c r="K44" s="3">
         <v>114300</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="E45" s="3">
-        <v>19400</v>
+        <v>19900</v>
       </c>
       <c r="F45" s="3">
-        <v>17700</v>
+        <v>18200</v>
       </c>
       <c r="G45" s="3">
-        <v>28000</v>
+        <v>28700</v>
       </c>
       <c r="H45" s="3">
-        <v>19000</v>
+        <v>19500</v>
       </c>
       <c r="I45" s="3">
-        <v>15700</v>
+        <v>16000</v>
       </c>
       <c r="J45" s="3">
-        <v>14400</v>
+        <v>14800</v>
       </c>
       <c r="K45" s="3">
         <v>31000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>677500</v>
+        <v>693500</v>
       </c>
       <c r="E46" s="3">
-        <v>611600</v>
+        <v>626100</v>
       </c>
       <c r="F46" s="3">
-        <v>614700</v>
+        <v>629200</v>
       </c>
       <c r="G46" s="3">
-        <v>702000</v>
+        <v>718600</v>
       </c>
       <c r="H46" s="3">
-        <v>695200</v>
+        <v>711600</v>
       </c>
       <c r="I46" s="3">
-        <v>703200</v>
+        <v>719900</v>
       </c>
       <c r="J46" s="3">
-        <v>584900</v>
+        <v>598800</v>
       </c>
       <c r="K46" s="3">
         <v>418800</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>260900</v>
+        <v>267100</v>
       </c>
       <c r="E47" s="3">
-        <v>148700</v>
+        <v>152200</v>
       </c>
       <c r="F47" s="3">
-        <v>116400</v>
+        <v>119100</v>
       </c>
       <c r="G47" s="3">
-        <v>106500</v>
+        <v>109000</v>
       </c>
       <c r="H47" s="3">
-        <v>80300</v>
+        <v>82200</v>
       </c>
       <c r="I47" s="3">
-        <v>157700</v>
+        <v>161500</v>
       </c>
       <c r="J47" s="3">
-        <v>107000</v>
+        <v>109500</v>
       </c>
       <c r="K47" s="3">
         <v>102200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>918400</v>
+        <v>939500</v>
       </c>
       <c r="E48" s="3">
-        <v>903200</v>
+        <v>924000</v>
       </c>
       <c r="F48" s="3">
-        <v>838500</v>
+        <v>857700</v>
       </c>
       <c r="G48" s="3">
-        <v>846600</v>
+        <v>866000</v>
       </c>
       <c r="H48" s="3">
-        <v>814100</v>
+        <v>832700</v>
       </c>
       <c r="I48" s="3">
-        <v>906200</v>
+        <v>927000</v>
       </c>
       <c r="J48" s="3">
-        <v>880600</v>
+        <v>900800</v>
       </c>
       <c r="K48" s="3">
         <v>738000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1010700</v>
+        <v>1035200</v>
       </c>
       <c r="E49" s="3">
-        <v>997700</v>
+        <v>1021900</v>
       </c>
       <c r="F49" s="3">
-        <v>960600</v>
+        <v>983900</v>
       </c>
       <c r="G49" s="3">
-        <v>995000</v>
+        <v>1019100</v>
       </c>
       <c r="H49" s="3">
-        <v>966500</v>
+        <v>990000</v>
       </c>
       <c r="I49" s="3">
-        <v>1072700</v>
+        <v>1098600</v>
       </c>
       <c r="J49" s="3">
-        <v>1036200</v>
+        <v>1061300</v>
       </c>
       <c r="K49" s="3">
         <v>677600</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>168900</v>
+        <v>172900</v>
       </c>
       <c r="E52" s="3">
-        <v>151200</v>
+        <v>154700</v>
       </c>
       <c r="F52" s="3">
-        <v>155700</v>
+        <v>159400</v>
       </c>
       <c r="G52" s="3">
-        <v>142800</v>
+        <v>146200</v>
       </c>
       <c r="H52" s="3">
-        <v>249800</v>
+        <v>255700</v>
       </c>
       <c r="I52" s="3">
-        <v>42000</v>
+        <v>43000</v>
       </c>
       <c r="J52" s="3">
-        <v>36600</v>
+        <v>37400</v>
       </c>
       <c r="K52" s="3">
         <v>34500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3036500</v>
+        <v>3108200</v>
       </c>
       <c r="E54" s="3">
-        <v>2812400</v>
+        <v>2878900</v>
       </c>
       <c r="F54" s="3">
-        <v>2685900</v>
+        <v>2749300</v>
       </c>
       <c r="G54" s="3">
-        <v>2792900</v>
+        <v>2858800</v>
       </c>
       <c r="H54" s="3">
-        <v>2805900</v>
+        <v>2872200</v>
       </c>
       <c r="I54" s="3">
-        <v>2881900</v>
+        <v>2949900</v>
       </c>
       <c r="J54" s="3">
-        <v>2645400</v>
+        <v>2707800</v>
       </c>
       <c r="K54" s="3">
         <v>1971000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>377600</v>
+        <v>386500</v>
       </c>
       <c r="E57" s="3">
-        <v>360600</v>
+        <v>369100</v>
       </c>
       <c r="F57" s="3">
-        <v>370200</v>
+        <v>378900</v>
       </c>
       <c r="G57" s="3">
-        <v>364400</v>
+        <v>373000</v>
       </c>
       <c r="H57" s="3">
-        <v>331700</v>
+        <v>339500</v>
       </c>
       <c r="I57" s="3">
-        <v>275300</v>
+        <v>281800</v>
       </c>
       <c r="J57" s="3">
-        <v>262100</v>
+        <v>268300</v>
       </c>
       <c r="K57" s="3">
         <v>245700</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>51100</v>
+        <v>52300</v>
       </c>
       <c r="E58" s="3">
-        <v>71100</v>
+        <v>72800</v>
       </c>
       <c r="F58" s="3">
-        <v>85800</v>
+        <v>87800</v>
       </c>
       <c r="G58" s="3">
+        <v>82600</v>
+      </c>
+      <c r="H58" s="3">
         <v>80700</v>
       </c>
-      <c r="H58" s="3">
-        <v>78900</v>
-      </c>
       <c r="I58" s="3">
-        <v>100300</v>
+        <v>102700</v>
       </c>
       <c r="J58" s="3">
-        <v>134400</v>
+        <v>137600</v>
       </c>
       <c r="K58" s="3">
         <v>136000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>94100</v>
+        <v>96300</v>
       </c>
       <c r="E59" s="3">
-        <v>101500</v>
+        <v>103900</v>
       </c>
       <c r="F59" s="3">
-        <v>88000</v>
+        <v>90100</v>
       </c>
       <c r="G59" s="3">
-        <v>87600</v>
+        <v>89700</v>
       </c>
       <c r="H59" s="3">
-        <v>72800</v>
+        <v>74500</v>
       </c>
       <c r="I59" s="3">
-        <v>145400</v>
+        <v>148800</v>
       </c>
       <c r="J59" s="3">
-        <v>114200</v>
+        <v>116900</v>
       </c>
       <c r="K59" s="3">
         <v>60400</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>535200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>545800</v>
+      </c>
+      <c r="F60" s="3">
+        <v>556800</v>
+      </c>
+      <c r="G60" s="3">
+        <v>545400</v>
+      </c>
+      <c r="H60" s="3">
+        <v>494700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>533300</v>
+      </c>
+      <c r="J60" s="3">
         <v>522800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>533200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>543900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>532800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>483300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>521000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>510700</v>
       </c>
       <c r="K60" s="3">
         <v>442100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>944000</v>
+        <v>966300</v>
       </c>
       <c r="E61" s="3">
-        <v>910000</v>
+        <v>931500</v>
       </c>
       <c r="F61" s="3">
-        <v>858200</v>
+        <v>878500</v>
       </c>
       <c r="G61" s="3">
-        <v>916400</v>
+        <v>938000</v>
       </c>
       <c r="H61" s="3">
-        <v>971900</v>
+        <v>994900</v>
       </c>
       <c r="I61" s="3">
-        <v>922800</v>
+        <v>944600</v>
       </c>
       <c r="J61" s="3">
-        <v>767600</v>
+        <v>785700</v>
       </c>
       <c r="K61" s="3">
         <v>222600</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>339200</v>
+        <v>347200</v>
       </c>
       <c r="E62" s="3">
-        <v>272200</v>
+        <v>278700</v>
       </c>
       <c r="F62" s="3">
-        <v>250900</v>
+        <v>256800</v>
       </c>
       <c r="G62" s="3">
-        <v>274100</v>
+        <v>280600</v>
       </c>
       <c r="H62" s="3">
-        <v>269200</v>
+        <v>275500</v>
       </c>
       <c r="I62" s="3">
-        <v>271000</v>
+        <v>277400</v>
       </c>
       <c r="J62" s="3">
-        <v>247600</v>
+        <v>253500</v>
       </c>
       <c r="K62" s="3">
         <v>162500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1831700</v>
+        <v>1875000</v>
       </c>
       <c r="E66" s="3">
-        <v>1740800</v>
+        <v>1781900</v>
       </c>
       <c r="F66" s="3">
-        <v>1680900</v>
+        <v>1720600</v>
       </c>
       <c r="G66" s="3">
-        <v>1750700</v>
+        <v>1792100</v>
       </c>
       <c r="H66" s="3">
-        <v>1751200</v>
+        <v>1792600</v>
       </c>
       <c r="I66" s="3">
-        <v>1742300</v>
+        <v>1783400</v>
       </c>
       <c r="J66" s="3">
-        <v>1552300</v>
+        <v>1589000</v>
       </c>
       <c r="K66" s="3">
         <v>852100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1313300</v>
+        <v>1344300</v>
       </c>
       <c r="E72" s="3">
-        <v>1137100</v>
+        <v>1164000</v>
       </c>
       <c r="F72" s="3">
-        <v>968600</v>
+        <v>991500</v>
       </c>
       <c r="G72" s="3">
-        <v>918000</v>
+        <v>939700</v>
       </c>
       <c r="H72" s="3">
-        <v>891400</v>
+        <v>912500</v>
       </c>
       <c r="I72" s="3">
-        <v>857200</v>
+        <v>877400</v>
       </c>
       <c r="J72" s="3">
-        <v>851300</v>
+        <v>871400</v>
       </c>
       <c r="K72" s="3">
         <v>853700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1204800</v>
+        <v>1233200</v>
       </c>
       <c r="E76" s="3">
-        <v>1071600</v>
+        <v>1097000</v>
       </c>
       <c r="F76" s="3">
-        <v>1005000</v>
+        <v>1028700</v>
       </c>
       <c r="G76" s="3">
-        <v>1042200</v>
+        <v>1066800</v>
       </c>
       <c r="H76" s="3">
-        <v>1054700</v>
+        <v>1079600</v>
       </c>
       <c r="I76" s="3">
-        <v>1139600</v>
+        <v>1166500</v>
       </c>
       <c r="J76" s="3">
-        <v>1093000</v>
+        <v>1118900</v>
       </c>
       <c r="K76" s="3">
         <v>1118900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>220600</v>
+        <v>225800</v>
       </c>
       <c r="E81" s="3">
-        <v>122700</v>
+        <v>125600</v>
       </c>
       <c r="F81" s="3">
-        <v>149700</v>
+        <v>153200</v>
       </c>
       <c r="G81" s="3">
-        <v>115000</v>
+        <v>117700</v>
       </c>
       <c r="H81" s="3">
-        <v>111600</v>
+        <v>114200</v>
       </c>
       <c r="I81" s="3">
-        <v>95900</v>
+        <v>98100</v>
       </c>
       <c r="J81" s="3">
-        <v>113000</v>
+        <v>115700</v>
       </c>
       <c r="K81" s="3">
         <v>112200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>321500</v>
+        <v>329100</v>
       </c>
       <c r="E89" s="3">
-        <v>292700</v>
+        <v>299600</v>
       </c>
       <c r="F89" s="3">
-        <v>314900</v>
+        <v>322300</v>
       </c>
       <c r="G89" s="3">
-        <v>283800</v>
+        <v>290500</v>
       </c>
       <c r="H89" s="3">
-        <v>336400</v>
+        <v>344400</v>
       </c>
       <c r="I89" s="3">
-        <v>273700</v>
+        <v>280200</v>
       </c>
       <c r="J89" s="3">
-        <v>218500</v>
+        <v>223700</v>
       </c>
       <c r="K89" s="3">
         <v>241700</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-140600</v>
+        <v>-143900</v>
       </c>
       <c r="E91" s="3">
-        <v>-153800</v>
+        <v>-157400</v>
       </c>
       <c r="F91" s="3">
-        <v>-214400</v>
+        <v>-219500</v>
       </c>
       <c r="G91" s="3">
-        <v>-162800</v>
+        <v>-166700</v>
       </c>
       <c r="H91" s="3">
-        <v>-142700</v>
+        <v>-146100</v>
       </c>
       <c r="I91" s="3">
-        <v>-145100</v>
+        <v>-148500</v>
       </c>
       <c r="J91" s="3">
-        <v>-233300</v>
+        <v>-238800</v>
       </c>
       <c r="K91" s="3">
         <v>-184000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-139800</v>
+        <v>-143100</v>
       </c>
       <c r="E94" s="3">
-        <v>-150000</v>
+        <v>-153500</v>
       </c>
       <c r="F94" s="3">
-        <v>-214400</v>
+        <v>-219500</v>
       </c>
       <c r="G94" s="3">
-        <v>-144700</v>
+        <v>-148100</v>
       </c>
       <c r="H94" s="3">
-        <v>-131000</v>
+        <v>-134100</v>
       </c>
       <c r="I94" s="3">
-        <v>-211800</v>
+        <v>-216800</v>
       </c>
       <c r="J94" s="3">
-        <v>-568400</v>
+        <v>-581800</v>
       </c>
       <c r="K94" s="3">
         <v>-199900</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-109600</v>
+        <v>-112100</v>
       </c>
       <c r="E96" s="3">
-        <v>-111200</v>
+        <v>-113800</v>
       </c>
       <c r="F96" s="3">
-        <v>-95200</v>
+        <v>-97500</v>
       </c>
       <c r="G96" s="3">
-        <v>-85800</v>
+        <v>-87900</v>
       </c>
       <c r="H96" s="3">
-        <v>-69000</v>
+        <v>-70600</v>
       </c>
       <c r="I96" s="3">
-        <v>-66400</v>
+        <v>-67900</v>
       </c>
       <c r="J96" s="3">
-        <v>-92800</v>
+        <v>-95000</v>
       </c>
       <c r="K96" s="3">
         <v>-89300</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-161400</v>
+        <v>-165200</v>
       </c>
       <c r="E100" s="3">
-        <v>-145600</v>
+        <v>-149000</v>
       </c>
       <c r="F100" s="3">
-        <v>-99500</v>
+        <v>-101800</v>
       </c>
       <c r="G100" s="3">
-        <v>-124700</v>
+        <v>-127700</v>
       </c>
       <c r="H100" s="3">
-        <v>-125200</v>
+        <v>-128100</v>
       </c>
       <c r="I100" s="3">
-        <v>-59600</v>
+        <v>-61000</v>
       </c>
       <c r="J100" s="3">
-        <v>384900</v>
+        <v>394000</v>
       </c>
       <c r="K100" s="3">
         <v>-4500</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="E101" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F101" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="G101" s="3">
         <v>1000</v>
       </c>
       <c r="H101" s="3">
-        <v>-17200</v>
+        <v>-17600</v>
       </c>
       <c r="I101" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="J101" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="K101" s="3">
         <v>-6300</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>25400</v>
+        <v>26000</v>
       </c>
       <c r="E102" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F102" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="G102" s="3">
-        <v>15400</v>
+        <v>15700</v>
       </c>
       <c r="H102" s="3">
-        <v>63100</v>
+        <v>64500</v>
       </c>
       <c r="I102" s="3">
         <v>-600</v>
       </c>
       <c r="J102" s="3">
-        <v>31100</v>
+        <v>31800</v>
       </c>
       <c r="K102" s="3">
         <v>31000</v>

--- a/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>AKO.B</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2312700</v>
+        <v>2343600</v>
       </c>
       <c r="E8" s="3">
-        <v>2174800</v>
+        <v>2455100</v>
       </c>
       <c r="F8" s="3">
-        <v>2403500</v>
+        <v>2308600</v>
       </c>
       <c r="G8" s="3">
-        <v>2310700</v>
+        <v>2551500</v>
       </c>
       <c r="H8" s="3">
-        <v>2440600</v>
+        <v>2452900</v>
       </c>
       <c r="I8" s="3">
-        <v>2336400</v>
+        <v>2590800</v>
       </c>
       <c r="J8" s="3">
+        <v>2480100</v>
+      </c>
+      <c r="K8" s="3">
         <v>1978200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1500500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1484100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1362800</v>
+        <v>1411000</v>
       </c>
       <c r="E9" s="3">
-        <v>1258400</v>
+        <v>1446700</v>
       </c>
       <c r="F9" s="3">
-        <v>1389700</v>
+        <v>1335900</v>
       </c>
       <c r="G9" s="3">
-        <v>1344100</v>
+        <v>1475300</v>
       </c>
       <c r="H9" s="3">
-        <v>1438700</v>
+        <v>1426800</v>
       </c>
       <c r="I9" s="3">
-        <v>1405600</v>
+        <v>1527300</v>
       </c>
       <c r="J9" s="3">
+        <v>1492100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1189300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>894700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>873700</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>949900</v>
+        <v>932600</v>
       </c>
       <c r="E10" s="3">
-        <v>916400</v>
+        <v>1008300</v>
       </c>
       <c r="F10" s="3">
-        <v>1013800</v>
+        <v>972700</v>
       </c>
       <c r="G10" s="3">
-        <v>966600</v>
+        <v>1076200</v>
       </c>
       <c r="H10" s="3">
-        <v>1001900</v>
+        <v>1026100</v>
       </c>
       <c r="I10" s="3">
-        <v>930700</v>
+        <v>1063500</v>
       </c>
       <c r="J10" s="3">
+        <v>988000</v>
+      </c>
+      <c r="K10" s="3">
         <v>788900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>605900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>610500</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,42 +906,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3900</v>
+        <v>11000</v>
       </c>
       <c r="E14" s="3">
-        <v>300</v>
+        <v>4100</v>
       </c>
       <c r="F14" s="3">
-        <v>3900</v>
+        <v>400</v>
       </c>
       <c r="G14" s="3">
-        <v>6200</v>
+        <v>4200</v>
       </c>
       <c r="H14" s="3">
-        <v>5200</v>
+        <v>6600</v>
       </c>
       <c r="I14" s="3">
-        <v>7600</v>
+        <v>5500</v>
       </c>
       <c r="J14" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K14" s="3">
         <v>9900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3700</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1984400</v>
+        <v>2025500</v>
       </c>
       <c r="E17" s="3">
-        <v>1902800</v>
+        <v>2106500</v>
       </c>
       <c r="F17" s="3">
-        <v>2117500</v>
+        <v>2019900</v>
       </c>
       <c r="G17" s="3">
-        <v>2064600</v>
+        <v>2247800</v>
       </c>
       <c r="H17" s="3">
-        <v>2196500</v>
+        <v>2191700</v>
       </c>
       <c r="I17" s="3">
-        <v>2114700</v>
+        <v>2331700</v>
       </c>
       <c r="J17" s="3">
+        <v>2244800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1785800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1320300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1282700</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>328300</v>
+        <v>318100</v>
       </c>
       <c r="E18" s="3">
-        <v>272000</v>
+        <v>348500</v>
       </c>
       <c r="F18" s="3">
-        <v>286100</v>
+        <v>288700</v>
       </c>
       <c r="G18" s="3">
-        <v>246100</v>
+        <v>303700</v>
       </c>
       <c r="H18" s="3">
-        <v>244100</v>
+        <v>261200</v>
       </c>
       <c r="I18" s="3">
-        <v>221700</v>
+        <v>259100</v>
       </c>
       <c r="J18" s="3">
+        <v>235300</v>
+      </c>
+      <c r="K18" s="3">
         <v>192400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>180200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>201500</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>30400</v>
+        <v>-7500</v>
       </c>
       <c r="E20" s="3">
-        <v>-20600</v>
+        <v>32200</v>
       </c>
       <c r="F20" s="3">
-        <v>-2000</v>
+        <v>-21800</v>
       </c>
       <c r="G20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="L20" s="3">
         <v>-3600</v>
       </c>
-      <c r="H20" s="3">
-        <v>-10200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-16600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8300</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>358700</v>
+        <v>310700</v>
       </c>
       <c r="E21" s="3">
-        <v>251400</v>
+        <v>380700</v>
       </c>
       <c r="F21" s="3">
-        <v>284100</v>
+        <v>266900</v>
       </c>
       <c r="G21" s="3">
-        <v>242400</v>
+        <v>301600</v>
       </c>
       <c r="H21" s="3">
-        <v>233900</v>
+        <v>257400</v>
       </c>
       <c r="I21" s="3">
-        <v>205100</v>
+        <v>248300</v>
       </c>
       <c r="J21" s="3">
+        <v>217700</v>
+      </c>
+      <c r="K21" s="3">
         <v>181900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>246000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>268700</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>51300</v>
+        <v>65000</v>
       </c>
       <c r="E22" s="3">
-        <v>52500</v>
+        <v>54500</v>
       </c>
       <c r="F22" s="3">
-        <v>62100</v>
+        <v>55700</v>
       </c>
       <c r="G22" s="3">
-        <v>59300</v>
+        <v>65900</v>
       </c>
       <c r="H22" s="3">
-        <v>65300</v>
+        <v>63000</v>
       </c>
       <c r="I22" s="3">
-        <v>77900</v>
+        <v>69300</v>
       </c>
       <c r="J22" s="3">
+        <v>82700</v>
+      </c>
+      <c r="K22" s="3">
         <v>34700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>14300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10900</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>307300</v>
+        <v>245700</v>
       </c>
       <c r="E23" s="3">
+        <v>326300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>211200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>235700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>194400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>179000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>135000</v>
+      </c>
+      <c r="K23" s="3">
+        <v>147200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>162300</v>
+      </c>
+      <c r="M23" s="3">
         <v>198900</v>
       </c>
-      <c r="F23" s="3">
-        <v>222000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>183100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>168700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>127200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>147200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>162300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>198900</v>
-      </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>79500</v>
+        <v>75800</v>
       </c>
       <c r="E24" s="3">
-        <v>72200</v>
+        <v>84400</v>
       </c>
       <c r="F24" s="3">
-        <v>67300</v>
+        <v>76700</v>
       </c>
       <c r="G24" s="3">
-        <v>63400</v>
+        <v>71500</v>
       </c>
       <c r="H24" s="3">
-        <v>54100</v>
+        <v>67400</v>
       </c>
       <c r="I24" s="3">
-        <v>28600</v>
+        <v>57500</v>
       </c>
       <c r="J24" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K24" s="3">
         <v>29900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>49300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>52400</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>227800</v>
+        <v>169900</v>
       </c>
       <c r="E26" s="3">
-        <v>126700</v>
+        <v>241800</v>
       </c>
       <c r="F26" s="3">
-        <v>154700</v>
+        <v>134500</v>
       </c>
       <c r="G26" s="3">
-        <v>119700</v>
+        <v>164200</v>
       </c>
       <c r="H26" s="3">
-        <v>114500</v>
+        <v>127000</v>
       </c>
       <c r="I26" s="3">
-        <v>98500</v>
+        <v>121600</v>
       </c>
       <c r="J26" s="3">
+        <v>104600</v>
+      </c>
+      <c r="K26" s="3">
         <v>117300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>113000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>146500</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>225800</v>
+        <v>168400</v>
       </c>
       <c r="E27" s="3">
-        <v>125600</v>
+        <v>239700</v>
       </c>
       <c r="F27" s="3">
-        <v>153200</v>
+        <v>133300</v>
       </c>
       <c r="G27" s="3">
-        <v>117700</v>
+        <v>162600</v>
       </c>
       <c r="H27" s="3">
-        <v>114200</v>
+        <v>124900</v>
       </c>
       <c r="I27" s="3">
-        <v>98100</v>
+        <v>121300</v>
       </c>
       <c r="J27" s="3">
+        <v>104200</v>
+      </c>
+      <c r="K27" s="3">
         <v>115700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>112200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>146500</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-30400</v>
+        <v>7500</v>
       </c>
       <c r="E32" s="3">
-        <v>20600</v>
+        <v>-32200</v>
       </c>
       <c r="F32" s="3">
-        <v>2000</v>
+        <v>21800</v>
       </c>
       <c r="G32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>10800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K32" s="3">
+        <v>10400</v>
+      </c>
+      <c r="L32" s="3">
         <v>3600</v>
       </c>
-      <c r="H32" s="3">
-        <v>10200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>16600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>10400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>3600</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8300</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>225800</v>
+        <v>168400</v>
       </c>
       <c r="E33" s="3">
-        <v>125600</v>
+        <v>239700</v>
       </c>
       <c r="F33" s="3">
-        <v>153200</v>
+        <v>133300</v>
       </c>
       <c r="G33" s="3">
-        <v>117700</v>
+        <v>162600</v>
       </c>
       <c r="H33" s="3">
-        <v>114200</v>
+        <v>124900</v>
       </c>
       <c r="I33" s="3">
-        <v>98100</v>
+        <v>121300</v>
       </c>
       <c r="J33" s="3">
+        <v>104200</v>
+      </c>
+      <c r="K33" s="3">
         <v>115700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>112200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>146500</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>225800</v>
+        <v>168400</v>
       </c>
       <c r="E35" s="3">
-        <v>125600</v>
+        <v>239700</v>
       </c>
       <c r="F35" s="3">
-        <v>153200</v>
+        <v>133300</v>
       </c>
       <c r="G35" s="3">
-        <v>117700</v>
+        <v>162600</v>
       </c>
       <c r="H35" s="3">
-        <v>114200</v>
+        <v>124900</v>
       </c>
       <c r="I35" s="3">
-        <v>98100</v>
+        <v>121300</v>
       </c>
       <c r="J35" s="3">
+        <v>104200</v>
+      </c>
+      <c r="K35" s="3">
         <v>115700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>112200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>146500</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>204800</v>
+        <v>427200</v>
       </c>
       <c r="E41" s="3">
-        <v>178800</v>
+        <v>217400</v>
       </c>
       <c r="F41" s="3">
-        <v>177100</v>
+        <v>189800</v>
       </c>
       <c r="G41" s="3">
-        <v>183600</v>
+        <v>188000</v>
       </c>
       <c r="H41" s="3">
-        <v>167900</v>
+        <v>194900</v>
       </c>
       <c r="I41" s="3">
-        <v>103400</v>
+        <v>178200</v>
       </c>
       <c r="J41" s="3">
+        <v>109700</v>
+      </c>
+      <c r="K41" s="3">
         <v>104000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>32100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24900</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>193600</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>17800</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>72100</v>
+        <v>18900</v>
       </c>
       <c r="H42" s="3">
-        <v>113700</v>
+        <v>76600</v>
       </c>
       <c r="I42" s="3">
-        <v>138600</v>
+        <v>120700</v>
       </c>
       <c r="J42" s="3">
+        <v>147100</v>
+      </c>
+      <c r="K42" s="3">
         <v>47400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>39000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>22400</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>275500</v>
+        <v>284800</v>
       </c>
       <c r="E43" s="3">
-        <v>230700</v>
+        <v>292400</v>
       </c>
       <c r="F43" s="3">
-        <v>245400</v>
+        <v>244900</v>
       </c>
       <c r="G43" s="3">
-        <v>246000</v>
+        <v>260500</v>
       </c>
       <c r="H43" s="3">
-        <v>237200</v>
+        <v>261100</v>
       </c>
       <c r="I43" s="3">
-        <v>267300</v>
+        <v>251800</v>
       </c>
       <c r="J43" s="3">
+        <v>283700</v>
+      </c>
+      <c r="K43" s="3">
         <v>269000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>202400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>228100</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>191900</v>
+        <v>176600</v>
       </c>
       <c r="E44" s="3">
-        <v>196700</v>
+        <v>203700</v>
       </c>
       <c r="F44" s="3">
-        <v>170800</v>
+        <v>208800</v>
       </c>
       <c r="G44" s="3">
-        <v>188100</v>
+        <v>181300</v>
       </c>
       <c r="H44" s="3">
-        <v>173300</v>
+        <v>199700</v>
       </c>
       <c r="I44" s="3">
-        <v>194600</v>
+        <v>184000</v>
       </c>
       <c r="J44" s="3">
+        <v>206600</v>
+      </c>
+      <c r="K44" s="3">
         <v>163600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>114300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>86800</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21200</v>
+        <v>18100</v>
       </c>
       <c r="E45" s="3">
-        <v>19900</v>
+        <v>22500</v>
       </c>
       <c r="F45" s="3">
-        <v>18200</v>
+        <v>21100</v>
       </c>
       <c r="G45" s="3">
-        <v>28700</v>
+        <v>19300</v>
       </c>
       <c r="H45" s="3">
-        <v>19500</v>
+        <v>30400</v>
       </c>
       <c r="I45" s="3">
-        <v>16000</v>
+        <v>20700</v>
       </c>
       <c r="J45" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K45" s="3">
         <v>14800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>49700</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>693500</v>
+        <v>1100300</v>
       </c>
       <c r="E46" s="3">
-        <v>626100</v>
+        <v>736200</v>
       </c>
       <c r="F46" s="3">
-        <v>629200</v>
+        <v>664600</v>
       </c>
       <c r="G46" s="3">
-        <v>718600</v>
+        <v>667900</v>
       </c>
       <c r="H46" s="3">
-        <v>711600</v>
+        <v>762800</v>
       </c>
       <c r="I46" s="3">
-        <v>719900</v>
+        <v>755400</v>
       </c>
       <c r="J46" s="3">
+        <v>764200</v>
+      </c>
+      <c r="K46" s="3">
         <v>598800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>418800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>355700</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>267100</v>
+        <v>228600</v>
       </c>
       <c r="E47" s="3">
-        <v>152200</v>
+        <v>283500</v>
       </c>
       <c r="F47" s="3">
-        <v>119100</v>
+        <v>161600</v>
       </c>
       <c r="G47" s="3">
-        <v>109000</v>
+        <v>126500</v>
       </c>
       <c r="H47" s="3">
-        <v>82200</v>
+        <v>115700</v>
       </c>
       <c r="I47" s="3">
-        <v>161500</v>
+        <v>87200</v>
       </c>
       <c r="J47" s="3">
+        <v>171400</v>
+      </c>
+      <c r="K47" s="3">
         <v>109500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>102200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>101900</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>939500</v>
+        <v>835700</v>
       </c>
       <c r="E48" s="3">
-        <v>924000</v>
+        <v>997400</v>
       </c>
       <c r="F48" s="3">
-        <v>857700</v>
+        <v>980900</v>
       </c>
       <c r="G48" s="3">
-        <v>866000</v>
+        <v>910500</v>
       </c>
       <c r="H48" s="3">
-        <v>832700</v>
+        <v>919300</v>
       </c>
       <c r="I48" s="3">
-        <v>927000</v>
+        <v>883900</v>
       </c>
       <c r="J48" s="3">
+        <v>984000</v>
+      </c>
+      <c r="K48" s="3">
         <v>900800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>738000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>528600</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1035200</v>
+        <v>969900</v>
       </c>
       <c r="E49" s="3">
-        <v>1021900</v>
+        <v>1098900</v>
       </c>
       <c r="F49" s="3">
-        <v>983900</v>
+        <v>1084800</v>
       </c>
       <c r="G49" s="3">
-        <v>1019100</v>
+        <v>1044500</v>
       </c>
       <c r="H49" s="3">
-        <v>990000</v>
+        <v>1081800</v>
       </c>
       <c r="I49" s="3">
-        <v>1098600</v>
+        <v>1050900</v>
       </c>
       <c r="J49" s="3">
+        <v>1166200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1061300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>677600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>88600</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>172900</v>
+        <v>243800</v>
       </c>
       <c r="E52" s="3">
-        <v>154700</v>
+        <v>183600</v>
       </c>
       <c r="F52" s="3">
-        <v>159400</v>
+        <v>164200</v>
       </c>
       <c r="G52" s="3">
-        <v>146200</v>
+        <v>169200</v>
       </c>
       <c r="H52" s="3">
-        <v>255700</v>
+        <v>155200</v>
       </c>
       <c r="I52" s="3">
-        <v>43000</v>
+        <v>271500</v>
       </c>
       <c r="J52" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K52" s="3">
         <v>37400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>34500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>45600</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3108200</v>
+        <v>3378300</v>
       </c>
       <c r="E54" s="3">
-        <v>2878900</v>
+        <v>3299500</v>
       </c>
       <c r="F54" s="3">
-        <v>2749300</v>
+        <v>3056000</v>
       </c>
       <c r="G54" s="3">
-        <v>2858800</v>
+        <v>2918500</v>
       </c>
       <c r="H54" s="3">
-        <v>2872200</v>
+        <v>3034800</v>
       </c>
       <c r="I54" s="3">
-        <v>2949900</v>
+        <v>3048900</v>
       </c>
       <c r="J54" s="3">
+        <v>3131500</v>
+      </c>
+      <c r="K54" s="3">
         <v>2707800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1971000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1120400</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>386500</v>
+        <v>372600</v>
       </c>
       <c r="E57" s="3">
-        <v>369100</v>
+        <v>410300</v>
       </c>
       <c r="F57" s="3">
-        <v>378900</v>
+        <v>391800</v>
       </c>
       <c r="G57" s="3">
-        <v>373000</v>
+        <v>402200</v>
       </c>
       <c r="H57" s="3">
-        <v>339500</v>
+        <v>396000</v>
       </c>
       <c r="I57" s="3">
-        <v>281800</v>
+        <v>360400</v>
       </c>
       <c r="J57" s="3">
+        <v>299100</v>
+      </c>
+      <c r="K57" s="3">
         <v>268300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>245700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>187700</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>52300</v>
+        <v>51500</v>
       </c>
       <c r="E58" s="3">
-        <v>72800</v>
+        <v>55500</v>
       </c>
       <c r="F58" s="3">
-        <v>87800</v>
+        <v>77300</v>
       </c>
       <c r="G58" s="3">
-        <v>82600</v>
+        <v>93200</v>
       </c>
       <c r="H58" s="3">
-        <v>80700</v>
+        <v>87700</v>
       </c>
       <c r="I58" s="3">
-        <v>102700</v>
+        <v>85700</v>
       </c>
       <c r="J58" s="3">
+        <v>109000</v>
+      </c>
+      <c r="K58" s="3">
         <v>137600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>136000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>34900</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>96300</v>
+        <v>97600</v>
       </c>
       <c r="E59" s="3">
-        <v>103900</v>
+        <v>102300</v>
       </c>
       <c r="F59" s="3">
-        <v>90100</v>
+        <v>110300</v>
       </c>
       <c r="G59" s="3">
-        <v>89700</v>
+        <v>95600</v>
       </c>
       <c r="H59" s="3">
-        <v>74500</v>
+        <v>95200</v>
       </c>
       <c r="I59" s="3">
-        <v>148800</v>
+        <v>79100</v>
       </c>
       <c r="J59" s="3">
+        <v>158000</v>
+      </c>
+      <c r="K59" s="3">
         <v>116900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>60400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>74300</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>535200</v>
+        <v>521700</v>
       </c>
       <c r="E60" s="3">
-        <v>545800</v>
+        <v>568100</v>
       </c>
       <c r="F60" s="3">
-        <v>556800</v>
+        <v>579400</v>
       </c>
       <c r="G60" s="3">
-        <v>545400</v>
+        <v>591000</v>
       </c>
       <c r="H60" s="3">
-        <v>494700</v>
+        <v>579000</v>
       </c>
       <c r="I60" s="3">
-        <v>533300</v>
+        <v>525200</v>
       </c>
       <c r="J60" s="3">
+        <v>566100</v>
+      </c>
+      <c r="K60" s="3">
         <v>522800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>442100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>296900</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>966300</v>
+        <v>1294800</v>
       </c>
       <c r="E61" s="3">
-        <v>931500</v>
+        <v>1025800</v>
       </c>
       <c r="F61" s="3">
-        <v>878500</v>
+        <v>988900</v>
       </c>
       <c r="G61" s="3">
-        <v>938000</v>
+        <v>932600</v>
       </c>
       <c r="H61" s="3">
-        <v>994900</v>
+        <v>995800</v>
       </c>
       <c r="I61" s="3">
-        <v>944600</v>
+        <v>1056100</v>
       </c>
       <c r="J61" s="3">
+        <v>1002700</v>
+      </c>
+      <c r="K61" s="3">
         <v>785700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>222600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>112700</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>347200</v>
+        <v>414300</v>
       </c>
       <c r="E62" s="3">
-        <v>278700</v>
+        <v>368500</v>
       </c>
       <c r="F62" s="3">
-        <v>256800</v>
+        <v>295800</v>
       </c>
       <c r="G62" s="3">
-        <v>280600</v>
+        <v>272600</v>
       </c>
       <c r="H62" s="3">
-        <v>275500</v>
+        <v>297900</v>
       </c>
       <c r="I62" s="3">
-        <v>277400</v>
+        <v>292500</v>
       </c>
       <c r="J62" s="3">
+        <v>294400</v>
+      </c>
+      <c r="K62" s="3">
         <v>253500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>162500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>73500</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1875000</v>
+        <v>2258900</v>
       </c>
       <c r="E66" s="3">
-        <v>1781900</v>
+        <v>1990400</v>
       </c>
       <c r="F66" s="3">
-        <v>1720600</v>
+        <v>1891600</v>
       </c>
       <c r="G66" s="3">
-        <v>1792100</v>
+        <v>1826500</v>
       </c>
       <c r="H66" s="3">
-        <v>1792600</v>
+        <v>1902300</v>
       </c>
       <c r="I66" s="3">
-        <v>1783400</v>
+        <v>1902900</v>
       </c>
       <c r="J66" s="3">
+        <v>1893200</v>
+      </c>
+      <c r="K66" s="3">
         <v>1589000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>852100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>483200</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1344300</v>
+        <v>1500500</v>
       </c>
       <c r="E72" s="3">
-        <v>1164000</v>
+        <v>1427000</v>
       </c>
       <c r="F72" s="3">
-        <v>991500</v>
+        <v>1235600</v>
       </c>
       <c r="G72" s="3">
-        <v>939700</v>
+        <v>1052500</v>
       </c>
       <c r="H72" s="3">
-        <v>912500</v>
+        <v>997500</v>
       </c>
       <c r="I72" s="3">
-        <v>877400</v>
+        <v>968600</v>
       </c>
       <c r="J72" s="3">
+        <v>931400</v>
+      </c>
+      <c r="K72" s="3">
         <v>871400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>853700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>322400</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1233200</v>
+        <v>1119400</v>
       </c>
       <c r="E76" s="3">
-        <v>1097000</v>
+        <v>1309100</v>
       </c>
       <c r="F76" s="3">
-        <v>1028700</v>
+        <v>1164500</v>
       </c>
       <c r="G76" s="3">
-        <v>1066800</v>
+        <v>1092000</v>
       </c>
       <c r="H76" s="3">
-        <v>1079600</v>
+        <v>1132400</v>
       </c>
       <c r="I76" s="3">
-        <v>1166500</v>
+        <v>1146100</v>
       </c>
       <c r="J76" s="3">
-        <v>1118900</v>
+        <v>1238300</v>
       </c>
       <c r="K76" s="3">
         <v>1118900</v>
       </c>
       <c r="L76" s="3">
+        <v>1118900</v>
+      </c>
+      <c r="M76" s="3">
         <v>637200</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>225800</v>
+        <v>168400</v>
       </c>
       <c r="E81" s="3">
-        <v>125600</v>
+        <v>239700</v>
       </c>
       <c r="F81" s="3">
-        <v>153200</v>
+        <v>133300</v>
       </c>
       <c r="G81" s="3">
-        <v>117700</v>
+        <v>162600</v>
       </c>
       <c r="H81" s="3">
-        <v>114200</v>
+        <v>124900</v>
       </c>
       <c r="I81" s="3">
-        <v>98100</v>
+        <v>121300</v>
       </c>
       <c r="J81" s="3">
+        <v>104200</v>
+      </c>
+      <c r="K81" s="3">
         <v>115700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>112200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>146500</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,8 +3096,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2926,14 +3124,17 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>68900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>59700</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>329100</v>
+        <v>381400</v>
       </c>
       <c r="E89" s="3">
-        <v>299600</v>
+        <v>349300</v>
       </c>
       <c r="F89" s="3">
-        <v>322300</v>
+        <v>318000</v>
       </c>
       <c r="G89" s="3">
-        <v>290500</v>
+        <v>342200</v>
       </c>
       <c r="H89" s="3">
-        <v>344400</v>
+        <v>308400</v>
       </c>
       <c r="I89" s="3">
-        <v>280200</v>
+        <v>365600</v>
       </c>
       <c r="J89" s="3">
+        <v>297400</v>
+      </c>
+      <c r="K89" s="3">
         <v>223700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>241700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>209800</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-143900</v>
+        <v>-118500</v>
       </c>
       <c r="E91" s="3">
-        <v>-157400</v>
+        <v>-152700</v>
       </c>
       <c r="F91" s="3">
-        <v>-219500</v>
+        <v>-167100</v>
       </c>
       <c r="G91" s="3">
-        <v>-166700</v>
+        <v>-233000</v>
       </c>
       <c r="H91" s="3">
-        <v>-146100</v>
+        <v>-176900</v>
       </c>
       <c r="I91" s="3">
-        <v>-148500</v>
+        <v>-155100</v>
       </c>
       <c r="J91" s="3">
+        <v>-157600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-238800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-184000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-191700</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-143100</v>
+        <v>-309000</v>
       </c>
       <c r="E94" s="3">
-        <v>-153500</v>
+        <v>-151900</v>
       </c>
       <c r="F94" s="3">
-        <v>-219500</v>
+        <v>-163000</v>
       </c>
       <c r="G94" s="3">
-        <v>-148100</v>
+        <v>-233000</v>
       </c>
       <c r="H94" s="3">
-        <v>-134100</v>
+        <v>-157200</v>
       </c>
       <c r="I94" s="3">
-        <v>-216800</v>
+        <v>-142300</v>
       </c>
       <c r="J94" s="3">
+        <v>-230200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-581800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-199900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-135300</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-112100</v>
+        <v>-138000</v>
       </c>
       <c r="E96" s="3">
-        <v>-113800</v>
+        <v>-119000</v>
       </c>
       <c r="F96" s="3">
-        <v>-97500</v>
+        <v>-120800</v>
       </c>
       <c r="G96" s="3">
-        <v>-87900</v>
+        <v>-103500</v>
       </c>
       <c r="H96" s="3">
-        <v>-70600</v>
+        <v>-93300</v>
       </c>
       <c r="I96" s="3">
-        <v>-67900</v>
+        <v>-75000</v>
       </c>
       <c r="J96" s="3">
+        <v>-72100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-95000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-89300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-107100</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-165200</v>
+        <v>156000</v>
       </c>
       <c r="E100" s="3">
-        <v>-149000</v>
+        <v>-175400</v>
       </c>
       <c r="F100" s="3">
-        <v>-101800</v>
+        <v>-158200</v>
       </c>
       <c r="G100" s="3">
-        <v>-127700</v>
+        <v>-108100</v>
       </c>
       <c r="H100" s="3">
-        <v>-128100</v>
+        <v>-135500</v>
       </c>
       <c r="I100" s="3">
-        <v>-61000</v>
+        <v>-136000</v>
       </c>
       <c r="J100" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="K100" s="3">
         <v>394000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-101400</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5300</v>
+        <v>-18700</v>
       </c>
       <c r="E101" s="3">
-        <v>4600</v>
+        <v>5600</v>
       </c>
       <c r="F101" s="3">
-        <v>-7500</v>
+        <v>4900</v>
       </c>
       <c r="G101" s="3">
-        <v>1000</v>
+        <v>-8000</v>
       </c>
       <c r="H101" s="3">
-        <v>-17600</v>
+        <v>1100</v>
       </c>
       <c r="I101" s="3">
-        <v>-3000</v>
+        <v>-18700</v>
       </c>
       <c r="J101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-4100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1300</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>26000</v>
+        <v>209700</v>
       </c>
       <c r="E102" s="3">
-        <v>1700</v>
+        <v>27600</v>
       </c>
       <c r="F102" s="3">
-        <v>-6500</v>
+        <v>1800</v>
       </c>
       <c r="G102" s="3">
-        <v>15700</v>
+        <v>-6900</v>
       </c>
       <c r="H102" s="3">
-        <v>64500</v>
+        <v>16700</v>
       </c>
       <c r="I102" s="3">
+        <v>68500</v>
+      </c>
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>31800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>31000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-25600</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2343600</v>
+        <v>2309700</v>
       </c>
       <c r="E8" s="3">
-        <v>2455100</v>
+        <v>2419500</v>
       </c>
       <c r="F8" s="3">
-        <v>2308600</v>
+        <v>2275200</v>
       </c>
       <c r="G8" s="3">
-        <v>2551500</v>
+        <v>2514500</v>
       </c>
       <c r="H8" s="3">
-        <v>2452900</v>
+        <v>2417300</v>
       </c>
       <c r="I8" s="3">
-        <v>2590800</v>
+        <v>2553300</v>
       </c>
       <c r="J8" s="3">
-        <v>2480100</v>
+        <v>2444200</v>
       </c>
       <c r="K8" s="3">
         <v>1978200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1411000</v>
+        <v>1390600</v>
       </c>
       <c r="E9" s="3">
-        <v>1446700</v>
+        <v>1425700</v>
       </c>
       <c r="F9" s="3">
-        <v>1335900</v>
+        <v>1316500</v>
       </c>
       <c r="G9" s="3">
-        <v>1475300</v>
+        <v>1453900</v>
       </c>
       <c r="H9" s="3">
-        <v>1426800</v>
+        <v>1406100</v>
       </c>
       <c r="I9" s="3">
-        <v>1527300</v>
+        <v>1505100</v>
       </c>
       <c r="J9" s="3">
-        <v>1492100</v>
+        <v>1470500</v>
       </c>
       <c r="K9" s="3">
         <v>1189300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>932600</v>
+        <v>919100</v>
       </c>
       <c r="E10" s="3">
-        <v>1008300</v>
+        <v>993700</v>
       </c>
       <c r="F10" s="3">
-        <v>972700</v>
+        <v>958600</v>
       </c>
       <c r="G10" s="3">
-        <v>1076200</v>
+        <v>1060600</v>
       </c>
       <c r="H10" s="3">
-        <v>1026100</v>
+        <v>1011200</v>
       </c>
       <c r="I10" s="3">
-        <v>1063500</v>
+        <v>1048100</v>
       </c>
       <c r="J10" s="3">
-        <v>988000</v>
+        <v>973700</v>
       </c>
       <c r="K10" s="3">
         <v>788900</v>
@@ -916,7 +916,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>11000</v>
+        <v>10800</v>
       </c>
       <c r="E14" s="3">
         <v>4100</v>
@@ -925,16 +925,16 @@
         <v>400</v>
       </c>
       <c r="G14" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="H14" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="I14" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="J14" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="K14" s="3">
         <v>9900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2025500</v>
+        <v>1996100</v>
       </c>
       <c r="E17" s="3">
-        <v>2106500</v>
+        <v>2076000</v>
       </c>
       <c r="F17" s="3">
-        <v>2019900</v>
+        <v>1990600</v>
       </c>
       <c r="G17" s="3">
-        <v>2247800</v>
+        <v>2215200</v>
       </c>
       <c r="H17" s="3">
-        <v>2191700</v>
+        <v>2159900</v>
       </c>
       <c r="I17" s="3">
-        <v>2331700</v>
+        <v>2297900</v>
       </c>
       <c r="J17" s="3">
-        <v>2244800</v>
+        <v>2212300</v>
       </c>
       <c r="K17" s="3">
         <v>1785800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>318100</v>
+        <v>313500</v>
       </c>
       <c r="E18" s="3">
-        <v>348500</v>
+        <v>343500</v>
       </c>
       <c r="F18" s="3">
-        <v>288700</v>
+        <v>284500</v>
       </c>
       <c r="G18" s="3">
-        <v>303700</v>
+        <v>299300</v>
       </c>
       <c r="H18" s="3">
-        <v>261200</v>
+        <v>257400</v>
       </c>
       <c r="I18" s="3">
-        <v>259100</v>
+        <v>255400</v>
       </c>
       <c r="J18" s="3">
-        <v>235300</v>
+        <v>231900</v>
       </c>
       <c r="K18" s="3">
         <v>192400</v>
@@ -1089,13 +1089,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7500</v>
+        <v>-7300</v>
       </c>
       <c r="E20" s="3">
-        <v>32200</v>
+        <v>31800</v>
       </c>
       <c r="F20" s="3">
-        <v>-21800</v>
+        <v>-21500</v>
       </c>
       <c r="G20" s="3">
         <v>-2100</v>
@@ -1104,10 +1104,10 @@
         <v>-3800</v>
       </c>
       <c r="I20" s="3">
-        <v>-10800</v>
+        <v>-10700</v>
       </c>
       <c r="J20" s="3">
-        <v>-17600</v>
+        <v>-17400</v>
       </c>
       <c r="K20" s="3">
         <v>-10400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>310700</v>
+        <v>306200</v>
       </c>
       <c r="E21" s="3">
-        <v>380700</v>
+        <v>375200</v>
       </c>
       <c r="F21" s="3">
-        <v>266900</v>
+        <v>263000</v>
       </c>
       <c r="G21" s="3">
-        <v>301600</v>
+        <v>297200</v>
       </c>
       <c r="H21" s="3">
-        <v>257400</v>
+        <v>253600</v>
       </c>
       <c r="I21" s="3">
-        <v>248300</v>
+        <v>244700</v>
       </c>
       <c r="J21" s="3">
-        <v>217700</v>
+        <v>214600</v>
       </c>
       <c r="K21" s="3">
         <v>181900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>65000</v>
+        <v>64100</v>
       </c>
       <c r="E22" s="3">
-        <v>54500</v>
+        <v>53700</v>
       </c>
       <c r="F22" s="3">
-        <v>55700</v>
+        <v>54900</v>
       </c>
       <c r="G22" s="3">
-        <v>65900</v>
+        <v>64900</v>
       </c>
       <c r="H22" s="3">
-        <v>63000</v>
+        <v>62100</v>
       </c>
       <c r="I22" s="3">
-        <v>69300</v>
+        <v>68300</v>
       </c>
       <c r="J22" s="3">
-        <v>82700</v>
+        <v>81500</v>
       </c>
       <c r="K22" s="3">
         <v>34700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>245700</v>
+        <v>242100</v>
       </c>
       <c r="E23" s="3">
-        <v>326300</v>
+        <v>321500</v>
       </c>
       <c r="F23" s="3">
-        <v>211200</v>
+        <v>208100</v>
       </c>
       <c r="G23" s="3">
-        <v>235700</v>
+        <v>232300</v>
       </c>
       <c r="H23" s="3">
-        <v>194400</v>
+        <v>191600</v>
       </c>
       <c r="I23" s="3">
-        <v>179000</v>
+        <v>176400</v>
       </c>
       <c r="J23" s="3">
-        <v>135000</v>
+        <v>133000</v>
       </c>
       <c r="K23" s="3">
         <v>147200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>75800</v>
+        <v>74700</v>
       </c>
       <c r="E24" s="3">
-        <v>84400</v>
+        <v>83200</v>
       </c>
       <c r="F24" s="3">
-        <v>76700</v>
+        <v>75600</v>
       </c>
       <c r="G24" s="3">
-        <v>71500</v>
+        <v>70400</v>
       </c>
       <c r="H24" s="3">
-        <v>67400</v>
+        <v>66400</v>
       </c>
       <c r="I24" s="3">
-        <v>57500</v>
+        <v>56600</v>
       </c>
       <c r="J24" s="3">
-        <v>30400</v>
+        <v>29900</v>
       </c>
       <c r="K24" s="3">
         <v>29900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>169900</v>
+        <v>167400</v>
       </c>
       <c r="E26" s="3">
-        <v>241800</v>
+        <v>238300</v>
       </c>
       <c r="F26" s="3">
-        <v>134500</v>
+        <v>132500</v>
       </c>
       <c r="G26" s="3">
-        <v>164200</v>
+        <v>161800</v>
       </c>
       <c r="H26" s="3">
-        <v>127000</v>
+        <v>125200</v>
       </c>
       <c r="I26" s="3">
-        <v>121600</v>
+        <v>119800</v>
       </c>
       <c r="J26" s="3">
-        <v>104600</v>
+        <v>103100</v>
       </c>
       <c r="K26" s="3">
         <v>117300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>168400</v>
+        <v>165900</v>
       </c>
       <c r="E27" s="3">
-        <v>239700</v>
+        <v>236300</v>
       </c>
       <c r="F27" s="3">
-        <v>133300</v>
+        <v>131400</v>
       </c>
       <c r="G27" s="3">
-        <v>162600</v>
+        <v>160300</v>
       </c>
       <c r="H27" s="3">
-        <v>124900</v>
+        <v>123100</v>
       </c>
       <c r="I27" s="3">
-        <v>121300</v>
+        <v>119500</v>
       </c>
       <c r="J27" s="3">
-        <v>104200</v>
+        <v>102700</v>
       </c>
       <c r="K27" s="3">
         <v>115700</v>
@@ -1521,13 +1521,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="E32" s="3">
-        <v>-32200</v>
+        <v>-31800</v>
       </c>
       <c r="F32" s="3">
-        <v>21800</v>
+        <v>21500</v>
       </c>
       <c r="G32" s="3">
         <v>2100</v>
@@ -1536,10 +1536,10 @@
         <v>3800</v>
       </c>
       <c r="I32" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="J32" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="K32" s="3">
         <v>10400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>168400</v>
+        <v>165900</v>
       </c>
       <c r="E33" s="3">
-        <v>239700</v>
+        <v>236300</v>
       </c>
       <c r="F33" s="3">
-        <v>133300</v>
+        <v>131400</v>
       </c>
       <c r="G33" s="3">
-        <v>162600</v>
+        <v>160300</v>
       </c>
       <c r="H33" s="3">
-        <v>124900</v>
+        <v>123100</v>
       </c>
       <c r="I33" s="3">
-        <v>121300</v>
+        <v>119500</v>
       </c>
       <c r="J33" s="3">
-        <v>104200</v>
+        <v>102700</v>
       </c>
       <c r="K33" s="3">
         <v>115700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>168400</v>
+        <v>165900</v>
       </c>
       <c r="E35" s="3">
-        <v>239700</v>
+        <v>236300</v>
       </c>
       <c r="F35" s="3">
-        <v>133300</v>
+        <v>131400</v>
       </c>
       <c r="G35" s="3">
-        <v>162600</v>
+        <v>160300</v>
       </c>
       <c r="H35" s="3">
-        <v>124900</v>
+        <v>123100</v>
       </c>
       <c r="I35" s="3">
-        <v>121300</v>
+        <v>119500</v>
       </c>
       <c r="J35" s="3">
-        <v>104200</v>
+        <v>102700</v>
       </c>
       <c r="K35" s="3">
         <v>115700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>427200</v>
+        <v>421000</v>
       </c>
       <c r="E41" s="3">
-        <v>217400</v>
+        <v>214300</v>
       </c>
       <c r="F41" s="3">
-        <v>189800</v>
+        <v>187100</v>
       </c>
       <c r="G41" s="3">
-        <v>188000</v>
+        <v>185300</v>
       </c>
       <c r="H41" s="3">
-        <v>194900</v>
+        <v>192100</v>
       </c>
       <c r="I41" s="3">
-        <v>178200</v>
+        <v>175700</v>
       </c>
       <c r="J41" s="3">
-        <v>109700</v>
+        <v>108100</v>
       </c>
       <c r="K41" s="3">
         <v>104000</v>
@@ -1774,7 +1774,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>193600</v>
+        <v>190800</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -1783,16 +1783,16 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>18900</v>
+        <v>18600</v>
       </c>
       <c r="H42" s="3">
-        <v>76600</v>
+        <v>75400</v>
       </c>
       <c r="I42" s="3">
-        <v>120700</v>
+        <v>119000</v>
       </c>
       <c r="J42" s="3">
-        <v>147100</v>
+        <v>144900</v>
       </c>
       <c r="K42" s="3">
         <v>47400</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>284800</v>
+        <v>280600</v>
       </c>
       <c r="E43" s="3">
-        <v>292400</v>
+        <v>288200</v>
       </c>
       <c r="F43" s="3">
-        <v>244900</v>
+        <v>241300</v>
       </c>
       <c r="G43" s="3">
-        <v>260500</v>
+        <v>256700</v>
       </c>
       <c r="H43" s="3">
-        <v>261100</v>
+        <v>257400</v>
       </c>
       <c r="I43" s="3">
-        <v>251800</v>
+        <v>248100</v>
       </c>
       <c r="J43" s="3">
-        <v>283700</v>
+        <v>279600</v>
       </c>
       <c r="K43" s="3">
         <v>269000</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>176600</v>
+        <v>174000</v>
       </c>
       <c r="E44" s="3">
-        <v>203700</v>
+        <v>200800</v>
       </c>
       <c r="F44" s="3">
-        <v>208800</v>
+        <v>205800</v>
       </c>
       <c r="G44" s="3">
+        <v>178700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>196800</v>
+      </c>
+      <c r="I44" s="3">
         <v>181300</v>
       </c>
-      <c r="H44" s="3">
-        <v>199700</v>
-      </c>
-      <c r="I44" s="3">
-        <v>184000</v>
-      </c>
       <c r="J44" s="3">
-        <v>206600</v>
+        <v>203600</v>
       </c>
       <c r="K44" s="3">
         <v>163600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18100</v>
+        <v>17900</v>
       </c>
       <c r="E45" s="3">
-        <v>22500</v>
+        <v>22200</v>
       </c>
       <c r="F45" s="3">
-        <v>21100</v>
+        <v>20800</v>
       </c>
       <c r="G45" s="3">
-        <v>19300</v>
+        <v>19000</v>
       </c>
       <c r="H45" s="3">
-        <v>30400</v>
+        <v>30000</v>
       </c>
       <c r="I45" s="3">
-        <v>20700</v>
+        <v>20400</v>
       </c>
       <c r="J45" s="3">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="K45" s="3">
         <v>14800</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1100300</v>
+        <v>1084300</v>
       </c>
       <c r="E46" s="3">
-        <v>736200</v>
+        <v>725500</v>
       </c>
       <c r="F46" s="3">
-        <v>664600</v>
+        <v>655000</v>
       </c>
       <c r="G46" s="3">
-        <v>667900</v>
+        <v>658300</v>
       </c>
       <c r="H46" s="3">
-        <v>762800</v>
+        <v>751700</v>
       </c>
       <c r="I46" s="3">
-        <v>755400</v>
+        <v>744500</v>
       </c>
       <c r="J46" s="3">
-        <v>764200</v>
+        <v>753100</v>
       </c>
       <c r="K46" s="3">
         <v>598800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>228600</v>
+        <v>225300</v>
       </c>
       <c r="E47" s="3">
-        <v>283500</v>
+        <v>279400</v>
       </c>
       <c r="F47" s="3">
-        <v>161600</v>
+        <v>159200</v>
       </c>
       <c r="G47" s="3">
-        <v>126500</v>
+        <v>124600</v>
       </c>
       <c r="H47" s="3">
-        <v>115700</v>
+        <v>114000</v>
       </c>
       <c r="I47" s="3">
-        <v>87200</v>
+        <v>86000</v>
       </c>
       <c r="J47" s="3">
-        <v>171400</v>
+        <v>168900</v>
       </c>
       <c r="K47" s="3">
         <v>109500</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>835700</v>
+        <v>823600</v>
       </c>
       <c r="E48" s="3">
-        <v>997400</v>
+        <v>982900</v>
       </c>
       <c r="F48" s="3">
-        <v>980900</v>
+        <v>966600</v>
       </c>
       <c r="G48" s="3">
-        <v>910500</v>
+        <v>897300</v>
       </c>
       <c r="H48" s="3">
-        <v>919300</v>
+        <v>906000</v>
       </c>
       <c r="I48" s="3">
-        <v>883900</v>
+        <v>871100</v>
       </c>
       <c r="J48" s="3">
-        <v>984000</v>
+        <v>969800</v>
       </c>
       <c r="K48" s="3">
         <v>900800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>969900</v>
+        <v>955900</v>
       </c>
       <c r="E49" s="3">
-        <v>1098900</v>
+        <v>1083000</v>
       </c>
       <c r="F49" s="3">
-        <v>1084800</v>
+        <v>1069000</v>
       </c>
       <c r="G49" s="3">
-        <v>1044500</v>
+        <v>1029300</v>
       </c>
       <c r="H49" s="3">
-        <v>1081800</v>
+        <v>1066100</v>
       </c>
       <c r="I49" s="3">
-        <v>1050900</v>
+        <v>1035600</v>
       </c>
       <c r="J49" s="3">
-        <v>1166200</v>
+        <v>1149300</v>
       </c>
       <c r="K49" s="3">
         <v>1061300</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>243800</v>
+        <v>240300</v>
       </c>
       <c r="E52" s="3">
-        <v>183600</v>
+        <v>180900</v>
       </c>
       <c r="F52" s="3">
-        <v>164200</v>
+        <v>161900</v>
       </c>
       <c r="G52" s="3">
-        <v>169200</v>
+        <v>166700</v>
       </c>
       <c r="H52" s="3">
-        <v>155200</v>
+        <v>152900</v>
       </c>
       <c r="I52" s="3">
-        <v>271500</v>
+        <v>267500</v>
       </c>
       <c r="J52" s="3">
-        <v>45600</v>
+        <v>45000</v>
       </c>
       <c r="K52" s="3">
         <v>37400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3378300</v>
+        <v>3329400</v>
       </c>
       <c r="E54" s="3">
-        <v>3299500</v>
+        <v>3251700</v>
       </c>
       <c r="F54" s="3">
-        <v>3056000</v>
+        <v>3011700</v>
       </c>
       <c r="G54" s="3">
-        <v>2918500</v>
+        <v>2876200</v>
       </c>
       <c r="H54" s="3">
-        <v>3034800</v>
+        <v>2990800</v>
       </c>
       <c r="I54" s="3">
-        <v>3048900</v>
+        <v>3004700</v>
       </c>
       <c r="J54" s="3">
-        <v>3131500</v>
+        <v>3086100</v>
       </c>
       <c r="K54" s="3">
         <v>2707800</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>372600</v>
+        <v>367200</v>
       </c>
       <c r="E57" s="3">
-        <v>410300</v>
+        <v>404400</v>
       </c>
       <c r="F57" s="3">
-        <v>391800</v>
+        <v>386200</v>
       </c>
       <c r="G57" s="3">
-        <v>402200</v>
+        <v>396400</v>
       </c>
       <c r="H57" s="3">
-        <v>396000</v>
+        <v>390300</v>
       </c>
       <c r="I57" s="3">
-        <v>360400</v>
+        <v>355200</v>
       </c>
       <c r="J57" s="3">
-        <v>299100</v>
+        <v>294800</v>
       </c>
       <c r="K57" s="3">
         <v>268300</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>51500</v>
+        <v>50800</v>
       </c>
       <c r="E58" s="3">
-        <v>55500</v>
+        <v>54700</v>
       </c>
       <c r="F58" s="3">
-        <v>77300</v>
+        <v>76100</v>
       </c>
       <c r="G58" s="3">
-        <v>93200</v>
+        <v>91800</v>
       </c>
       <c r="H58" s="3">
-        <v>87700</v>
+        <v>86500</v>
       </c>
       <c r="I58" s="3">
-        <v>85700</v>
+        <v>84500</v>
       </c>
       <c r="J58" s="3">
-        <v>109000</v>
+        <v>107400</v>
       </c>
       <c r="K58" s="3">
         <v>137600</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>97600</v>
+        <v>96200</v>
       </c>
       <c r="E59" s="3">
-        <v>102300</v>
+        <v>100800</v>
       </c>
       <c r="F59" s="3">
-        <v>110300</v>
+        <v>108700</v>
       </c>
       <c r="G59" s="3">
-        <v>95600</v>
+        <v>94200</v>
       </c>
       <c r="H59" s="3">
-        <v>95200</v>
+        <v>93800</v>
       </c>
       <c r="I59" s="3">
-        <v>79100</v>
+        <v>77900</v>
       </c>
       <c r="J59" s="3">
-        <v>158000</v>
+        <v>155700</v>
       </c>
       <c r="K59" s="3">
         <v>116900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>521700</v>
+        <v>514200</v>
       </c>
       <c r="E60" s="3">
-        <v>568100</v>
+        <v>559900</v>
       </c>
       <c r="F60" s="3">
-        <v>579400</v>
+        <v>571000</v>
       </c>
       <c r="G60" s="3">
-        <v>591000</v>
+        <v>582500</v>
       </c>
       <c r="H60" s="3">
-        <v>579000</v>
+        <v>570600</v>
       </c>
       <c r="I60" s="3">
-        <v>525200</v>
+        <v>517600</v>
       </c>
       <c r="J60" s="3">
-        <v>566100</v>
+        <v>557900</v>
       </c>
       <c r="K60" s="3">
         <v>522800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1294800</v>
+        <v>1276000</v>
       </c>
       <c r="E61" s="3">
-        <v>1025800</v>
+        <v>1010900</v>
       </c>
       <c r="F61" s="3">
-        <v>988900</v>
+        <v>974500</v>
       </c>
       <c r="G61" s="3">
-        <v>932600</v>
+        <v>919000</v>
       </c>
       <c r="H61" s="3">
-        <v>995800</v>
+        <v>981300</v>
       </c>
       <c r="I61" s="3">
-        <v>1056100</v>
+        <v>1040800</v>
       </c>
       <c r="J61" s="3">
-        <v>1002700</v>
+        <v>988200</v>
       </c>
       <c r="K61" s="3">
         <v>785700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>414300</v>
+        <v>408300</v>
       </c>
       <c r="E62" s="3">
-        <v>368500</v>
+        <v>363200</v>
       </c>
       <c r="F62" s="3">
-        <v>295800</v>
+        <v>291500</v>
       </c>
       <c r="G62" s="3">
-        <v>272600</v>
+        <v>268700</v>
       </c>
       <c r="H62" s="3">
-        <v>297900</v>
+        <v>293500</v>
       </c>
       <c r="I62" s="3">
-        <v>292500</v>
+        <v>288300</v>
       </c>
       <c r="J62" s="3">
-        <v>294400</v>
+        <v>290200</v>
       </c>
       <c r="K62" s="3">
         <v>253500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2258900</v>
+        <v>2226200</v>
       </c>
       <c r="E66" s="3">
-        <v>1990400</v>
+        <v>1961500</v>
       </c>
       <c r="F66" s="3">
-        <v>1891600</v>
+        <v>1864100</v>
       </c>
       <c r="G66" s="3">
-        <v>1826500</v>
+        <v>1800000</v>
       </c>
       <c r="H66" s="3">
-        <v>1902300</v>
+        <v>1874800</v>
       </c>
       <c r="I66" s="3">
-        <v>1902900</v>
+        <v>1875300</v>
       </c>
       <c r="J66" s="3">
-        <v>1893200</v>
+        <v>1865800</v>
       </c>
       <c r="K66" s="3">
         <v>1589000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1500500</v>
+        <v>1478800</v>
       </c>
       <c r="E72" s="3">
-        <v>1427000</v>
+        <v>1406300</v>
       </c>
       <c r="F72" s="3">
-        <v>1235600</v>
+        <v>1217700</v>
       </c>
       <c r="G72" s="3">
-        <v>1052500</v>
+        <v>1037200</v>
       </c>
       <c r="H72" s="3">
-        <v>997500</v>
+        <v>983100</v>
       </c>
       <c r="I72" s="3">
-        <v>968600</v>
+        <v>954600</v>
       </c>
       <c r="J72" s="3">
-        <v>931400</v>
+        <v>917900</v>
       </c>
       <c r="K72" s="3">
         <v>871400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1119400</v>
+        <v>1103200</v>
       </c>
       <c r="E76" s="3">
-        <v>1309100</v>
+        <v>1290200</v>
       </c>
       <c r="F76" s="3">
-        <v>1164500</v>
+        <v>1147600</v>
       </c>
       <c r="G76" s="3">
-        <v>1092000</v>
+        <v>1076200</v>
       </c>
       <c r="H76" s="3">
-        <v>1132400</v>
+        <v>1116000</v>
       </c>
       <c r="I76" s="3">
-        <v>1146100</v>
+        <v>1129400</v>
       </c>
       <c r="J76" s="3">
-        <v>1238300</v>
+        <v>1220300</v>
       </c>
       <c r="K76" s="3">
         <v>1118900</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>168400</v>
+        <v>165900</v>
       </c>
       <c r="E81" s="3">
-        <v>239700</v>
+        <v>236300</v>
       </c>
       <c r="F81" s="3">
-        <v>133300</v>
+        <v>131400</v>
       </c>
       <c r="G81" s="3">
-        <v>162600</v>
+        <v>160300</v>
       </c>
       <c r="H81" s="3">
-        <v>124900</v>
+        <v>123100</v>
       </c>
       <c r="I81" s="3">
-        <v>121300</v>
+        <v>119500</v>
       </c>
       <c r="J81" s="3">
-        <v>104200</v>
+        <v>102700</v>
       </c>
       <c r="K81" s="3">
         <v>115700</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>381400</v>
+        <v>375900</v>
       </c>
       <c r="E89" s="3">
-        <v>349300</v>
+        <v>344300</v>
       </c>
       <c r="F89" s="3">
-        <v>318000</v>
+        <v>313400</v>
       </c>
       <c r="G89" s="3">
-        <v>342200</v>
+        <v>337200</v>
       </c>
       <c r="H89" s="3">
-        <v>308400</v>
+        <v>303900</v>
       </c>
       <c r="I89" s="3">
-        <v>365600</v>
+        <v>360300</v>
       </c>
       <c r="J89" s="3">
-        <v>297400</v>
+        <v>293100</v>
       </c>
       <c r="K89" s="3">
         <v>223700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-118500</v>
+        <v>-116800</v>
       </c>
       <c r="E91" s="3">
-        <v>-152700</v>
+        <v>-150500</v>
       </c>
       <c r="F91" s="3">
-        <v>-167100</v>
+        <v>-164600</v>
       </c>
       <c r="G91" s="3">
-        <v>-233000</v>
+        <v>-229600</v>
       </c>
       <c r="H91" s="3">
-        <v>-176900</v>
+        <v>-174400</v>
       </c>
       <c r="I91" s="3">
-        <v>-155100</v>
+        <v>-152900</v>
       </c>
       <c r="J91" s="3">
-        <v>-157600</v>
+        <v>-155300</v>
       </c>
       <c r="K91" s="3">
         <v>-238800</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-309000</v>
+        <v>-304500</v>
       </c>
       <c r="E94" s="3">
-        <v>-151900</v>
+        <v>-149700</v>
       </c>
       <c r="F94" s="3">
-        <v>-163000</v>
+        <v>-160600</v>
       </c>
       <c r="G94" s="3">
-        <v>-233000</v>
+        <v>-229600</v>
       </c>
       <c r="H94" s="3">
-        <v>-157200</v>
+        <v>-154900</v>
       </c>
       <c r="I94" s="3">
-        <v>-142300</v>
+        <v>-140300</v>
       </c>
       <c r="J94" s="3">
-        <v>-230200</v>
+        <v>-226800</v>
       </c>
       <c r="K94" s="3">
         <v>-581800</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-138000</v>
+        <v>-136000</v>
       </c>
       <c r="E96" s="3">
+        <v>-117300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-119000</v>
       </c>
-      <c r="F96" s="3">
-        <v>-120800</v>
-      </c>
       <c r="G96" s="3">
-        <v>-103500</v>
+        <v>-102000</v>
       </c>
       <c r="H96" s="3">
-        <v>-93300</v>
+        <v>-91900</v>
       </c>
       <c r="I96" s="3">
-        <v>-75000</v>
+        <v>-73900</v>
       </c>
       <c r="J96" s="3">
-        <v>-72100</v>
+        <v>-71100</v>
       </c>
       <c r="K96" s="3">
         <v>-95000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>156000</v>
+        <v>153700</v>
       </c>
       <c r="E100" s="3">
-        <v>-175400</v>
+        <v>-172900</v>
       </c>
       <c r="F100" s="3">
-        <v>-158200</v>
+        <v>-155900</v>
       </c>
       <c r="G100" s="3">
-        <v>-108100</v>
+        <v>-106600</v>
       </c>
       <c r="H100" s="3">
-        <v>-135500</v>
+        <v>-133600</v>
       </c>
       <c r="I100" s="3">
-        <v>-136000</v>
+        <v>-134000</v>
       </c>
       <c r="J100" s="3">
-        <v>-64700</v>
+        <v>-63800</v>
       </c>
       <c r="K100" s="3">
         <v>394000</v>
@@ -3711,22 +3711,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-18700</v>
+        <v>-18500</v>
       </c>
       <c r="E101" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="F101" s="3">
         <v>4900</v>
       </c>
       <c r="G101" s="3">
-        <v>-8000</v>
+        <v>-7900</v>
       </c>
       <c r="H101" s="3">
         <v>1100</v>
       </c>
       <c r="I101" s="3">
-        <v>-18700</v>
+        <v>-18500</v>
       </c>
       <c r="J101" s="3">
         <v>-3100</v>
@@ -3747,22 +3747,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>209700</v>
+        <v>206700</v>
       </c>
       <c r="E102" s="3">
-        <v>27600</v>
+        <v>27200</v>
       </c>
       <c r="F102" s="3">
         <v>1800</v>
       </c>
       <c r="G102" s="3">
-        <v>-6900</v>
+        <v>-6800</v>
       </c>
       <c r="H102" s="3">
-        <v>16700</v>
+        <v>16500</v>
       </c>
       <c r="I102" s="3">
-        <v>68500</v>
+        <v>67500</v>
       </c>
       <c r="J102" s="3">
         <v>-600</v>

--- a/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2309700</v>
+        <v>2156800</v>
       </c>
       <c r="E8" s="3">
-        <v>2419500</v>
+        <v>2259400</v>
       </c>
       <c r="F8" s="3">
-        <v>2275200</v>
+        <v>2124600</v>
       </c>
       <c r="G8" s="3">
-        <v>2514500</v>
+        <v>2348100</v>
       </c>
       <c r="H8" s="3">
-        <v>2417300</v>
+        <v>2257400</v>
       </c>
       <c r="I8" s="3">
-        <v>2553300</v>
+        <v>2384300</v>
       </c>
       <c r="J8" s="3">
-        <v>2444200</v>
+        <v>2282400</v>
       </c>
       <c r="K8" s="3">
         <v>1978200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1390600</v>
+        <v>1298600</v>
       </c>
       <c r="E9" s="3">
-        <v>1425700</v>
+        <v>1331400</v>
       </c>
       <c r="F9" s="3">
-        <v>1316500</v>
+        <v>1229400</v>
       </c>
       <c r="G9" s="3">
-        <v>1453900</v>
+        <v>1357700</v>
       </c>
       <c r="H9" s="3">
-        <v>1406100</v>
+        <v>1313100</v>
       </c>
       <c r="I9" s="3">
-        <v>1505100</v>
+        <v>1405500</v>
       </c>
       <c r="J9" s="3">
-        <v>1470500</v>
+        <v>1373200</v>
       </c>
       <c r="K9" s="3">
         <v>1189300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>919100</v>
+        <v>858200</v>
       </c>
       <c r="E10" s="3">
-        <v>993700</v>
+        <v>928000</v>
       </c>
       <c r="F10" s="3">
-        <v>958600</v>
+        <v>895200</v>
       </c>
       <c r="G10" s="3">
-        <v>1060600</v>
+        <v>990400</v>
       </c>
       <c r="H10" s="3">
-        <v>1011200</v>
+        <v>944300</v>
       </c>
       <c r="I10" s="3">
-        <v>1048100</v>
+        <v>978800</v>
       </c>
       <c r="J10" s="3">
-        <v>973700</v>
+        <v>909300</v>
       </c>
       <c r="K10" s="3">
         <v>788900</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10800</v>
+        <v>10100</v>
       </c>
       <c r="E14" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="F14" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G14" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="H14" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="I14" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="J14" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="K14" s="3">
         <v>9900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1996100</v>
+        <v>1864000</v>
       </c>
       <c r="E17" s="3">
-        <v>2076000</v>
+        <v>1938600</v>
       </c>
       <c r="F17" s="3">
-        <v>1990600</v>
+        <v>1858900</v>
       </c>
       <c r="G17" s="3">
-        <v>2215200</v>
+        <v>2068600</v>
       </c>
       <c r="H17" s="3">
-        <v>2159900</v>
+        <v>2017000</v>
       </c>
       <c r="I17" s="3">
-        <v>2297900</v>
+        <v>2145800</v>
       </c>
       <c r="J17" s="3">
-        <v>2212300</v>
+        <v>2065900</v>
       </c>
       <c r="K17" s="3">
         <v>1785800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>313500</v>
+        <v>292800</v>
       </c>
       <c r="E18" s="3">
-        <v>343500</v>
+        <v>320700</v>
       </c>
       <c r="F18" s="3">
-        <v>284500</v>
+        <v>265700</v>
       </c>
       <c r="G18" s="3">
-        <v>299300</v>
+        <v>279400</v>
       </c>
       <c r="H18" s="3">
-        <v>257400</v>
+        <v>240400</v>
       </c>
       <c r="I18" s="3">
-        <v>255400</v>
+        <v>238500</v>
       </c>
       <c r="J18" s="3">
-        <v>231900</v>
+        <v>216600</v>
       </c>
       <c r="K18" s="3">
         <v>192400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7300</v>
+        <v>-6900</v>
       </c>
       <c r="E20" s="3">
-        <v>31800</v>
+        <v>29700</v>
       </c>
       <c r="F20" s="3">
-        <v>-21500</v>
+        <v>-20100</v>
       </c>
       <c r="G20" s="3">
-        <v>-2100</v>
+        <v>-1900</v>
       </c>
       <c r="H20" s="3">
-        <v>-3800</v>
+        <v>-3500</v>
       </c>
       <c r="I20" s="3">
-        <v>-10700</v>
+        <v>-9900</v>
       </c>
       <c r="J20" s="3">
-        <v>-17400</v>
+        <v>-16200</v>
       </c>
       <c r="K20" s="3">
         <v>-10400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>306200</v>
+        <v>285900</v>
       </c>
       <c r="E21" s="3">
-        <v>375200</v>
+        <v>350400</v>
       </c>
       <c r="F21" s="3">
-        <v>263000</v>
+        <v>245600</v>
       </c>
       <c r="G21" s="3">
-        <v>297200</v>
+        <v>277500</v>
       </c>
       <c r="H21" s="3">
-        <v>253600</v>
+        <v>236900</v>
       </c>
       <c r="I21" s="3">
-        <v>244700</v>
+        <v>228500</v>
       </c>
       <c r="J21" s="3">
-        <v>214600</v>
+        <v>200400</v>
       </c>
       <c r="K21" s="3">
         <v>181900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>64100</v>
+        <v>59800</v>
       </c>
       <c r="E22" s="3">
-        <v>53700</v>
+        <v>50200</v>
       </c>
       <c r="F22" s="3">
-        <v>54900</v>
+        <v>51300</v>
       </c>
       <c r="G22" s="3">
-        <v>64900</v>
+        <v>60600</v>
       </c>
       <c r="H22" s="3">
-        <v>62100</v>
+        <v>58000</v>
       </c>
       <c r="I22" s="3">
-        <v>68300</v>
+        <v>63800</v>
       </c>
       <c r="J22" s="3">
-        <v>81500</v>
+        <v>76100</v>
       </c>
       <c r="K22" s="3">
         <v>34700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>242100</v>
+        <v>226100</v>
       </c>
       <c r="E23" s="3">
-        <v>321500</v>
+        <v>300200</v>
       </c>
       <c r="F23" s="3">
-        <v>208100</v>
+        <v>194300</v>
       </c>
       <c r="G23" s="3">
-        <v>232300</v>
+        <v>216900</v>
       </c>
       <c r="H23" s="3">
-        <v>191600</v>
+        <v>178900</v>
       </c>
       <c r="I23" s="3">
-        <v>176400</v>
+        <v>164800</v>
       </c>
       <c r="J23" s="3">
-        <v>133000</v>
+        <v>124200</v>
       </c>
       <c r="K23" s="3">
         <v>147200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>74700</v>
+        <v>69700</v>
       </c>
       <c r="E24" s="3">
-        <v>83200</v>
+        <v>77700</v>
       </c>
       <c r="F24" s="3">
-        <v>75600</v>
+        <v>70600</v>
       </c>
       <c r="G24" s="3">
-        <v>70400</v>
+        <v>65800</v>
       </c>
       <c r="H24" s="3">
-        <v>66400</v>
+        <v>62000</v>
       </c>
       <c r="I24" s="3">
-        <v>56600</v>
+        <v>52900</v>
       </c>
       <c r="J24" s="3">
-        <v>29900</v>
+        <v>28000</v>
       </c>
       <c r="K24" s="3">
         <v>29900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>167400</v>
+        <v>156400</v>
       </c>
       <c r="E26" s="3">
-        <v>238300</v>
+        <v>222600</v>
       </c>
       <c r="F26" s="3">
-        <v>132500</v>
+        <v>123800</v>
       </c>
       <c r="G26" s="3">
-        <v>161800</v>
+        <v>151100</v>
       </c>
       <c r="H26" s="3">
-        <v>125200</v>
+        <v>116900</v>
       </c>
       <c r="I26" s="3">
-        <v>119800</v>
+        <v>111900</v>
       </c>
       <c r="J26" s="3">
-        <v>103100</v>
+        <v>96300</v>
       </c>
       <c r="K26" s="3">
         <v>117300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>165900</v>
+        <v>154900</v>
       </c>
       <c r="E27" s="3">
-        <v>236300</v>
+        <v>220600</v>
       </c>
       <c r="F27" s="3">
-        <v>131400</v>
+        <v>122700</v>
       </c>
       <c r="G27" s="3">
-        <v>160300</v>
+        <v>149700</v>
       </c>
       <c r="H27" s="3">
-        <v>123100</v>
+        <v>115000</v>
       </c>
       <c r="I27" s="3">
-        <v>119500</v>
+        <v>111600</v>
       </c>
       <c r="J27" s="3">
-        <v>102700</v>
+        <v>95900</v>
       </c>
       <c r="K27" s="3">
         <v>115700</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7300</v>
+        <v>6900</v>
       </c>
       <c r="E32" s="3">
-        <v>-31800</v>
+        <v>-29700</v>
       </c>
       <c r="F32" s="3">
-        <v>21500</v>
+        <v>20100</v>
       </c>
       <c r="G32" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="H32" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="I32" s="3">
-        <v>10700</v>
+        <v>9900</v>
       </c>
       <c r="J32" s="3">
-        <v>17400</v>
+        <v>16200</v>
       </c>
       <c r="K32" s="3">
         <v>10400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>165900</v>
+        <v>154900</v>
       </c>
       <c r="E33" s="3">
-        <v>236300</v>
+        <v>220600</v>
       </c>
       <c r="F33" s="3">
-        <v>131400</v>
+        <v>122700</v>
       </c>
       <c r="G33" s="3">
-        <v>160300</v>
+        <v>149700</v>
       </c>
       <c r="H33" s="3">
-        <v>123100</v>
+        <v>115000</v>
       </c>
       <c r="I33" s="3">
-        <v>119500</v>
+        <v>111600</v>
       </c>
       <c r="J33" s="3">
-        <v>102700</v>
+        <v>95900</v>
       </c>
       <c r="K33" s="3">
         <v>115700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>165900</v>
+        <v>154900</v>
       </c>
       <c r="E35" s="3">
-        <v>236300</v>
+        <v>220600</v>
       </c>
       <c r="F35" s="3">
-        <v>131400</v>
+        <v>122700</v>
       </c>
       <c r="G35" s="3">
-        <v>160300</v>
+        <v>149700</v>
       </c>
       <c r="H35" s="3">
-        <v>123100</v>
+        <v>115000</v>
       </c>
       <c r="I35" s="3">
-        <v>119500</v>
+        <v>111600</v>
       </c>
       <c r="J35" s="3">
-        <v>102700</v>
+        <v>95900</v>
       </c>
       <c r="K35" s="3">
         <v>115700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>421000</v>
+        <v>393100</v>
       </c>
       <c r="E41" s="3">
-        <v>214300</v>
+        <v>200100</v>
       </c>
       <c r="F41" s="3">
-        <v>187100</v>
+        <v>174700</v>
       </c>
       <c r="G41" s="3">
-        <v>185300</v>
+        <v>173000</v>
       </c>
       <c r="H41" s="3">
-        <v>192100</v>
+        <v>179400</v>
       </c>
       <c r="I41" s="3">
-        <v>175700</v>
+        <v>164000</v>
       </c>
       <c r="J41" s="3">
-        <v>108100</v>
+        <v>101000</v>
       </c>
       <c r="K41" s="3">
         <v>104000</v>
@@ -1774,7 +1774,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>190800</v>
+        <v>178200</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -1783,16 +1783,16 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>18600</v>
+        <v>17400</v>
       </c>
       <c r="H42" s="3">
-        <v>75400</v>
+        <v>70500</v>
       </c>
       <c r="I42" s="3">
-        <v>119000</v>
+        <v>111100</v>
       </c>
       <c r="J42" s="3">
-        <v>144900</v>
+        <v>135400</v>
       </c>
       <c r="K42" s="3">
         <v>47400</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>280600</v>
+        <v>262100</v>
       </c>
       <c r="E43" s="3">
-        <v>288200</v>
+        <v>269100</v>
       </c>
       <c r="F43" s="3">
-        <v>241300</v>
+        <v>225300</v>
       </c>
       <c r="G43" s="3">
-        <v>256700</v>
+        <v>239700</v>
       </c>
       <c r="H43" s="3">
-        <v>257400</v>
+        <v>240300</v>
       </c>
       <c r="I43" s="3">
-        <v>248100</v>
+        <v>231700</v>
       </c>
       <c r="J43" s="3">
-        <v>279600</v>
+        <v>261100</v>
       </c>
       <c r="K43" s="3">
         <v>269000</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>174000</v>
+        <v>162500</v>
       </c>
       <c r="E44" s="3">
-        <v>200800</v>
+        <v>187500</v>
       </c>
       <c r="F44" s="3">
-        <v>205800</v>
+        <v>192200</v>
       </c>
       <c r="G44" s="3">
-        <v>178700</v>
+        <v>166800</v>
       </c>
       <c r="H44" s="3">
-        <v>196800</v>
+        <v>183800</v>
       </c>
       <c r="I44" s="3">
-        <v>181300</v>
+        <v>169300</v>
       </c>
       <c r="J44" s="3">
-        <v>203600</v>
+        <v>190200</v>
       </c>
       <c r="K44" s="3">
         <v>163600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17900</v>
+        <v>16700</v>
       </c>
       <c r="E45" s="3">
-        <v>22200</v>
+        <v>20700</v>
       </c>
       <c r="F45" s="3">
-        <v>20800</v>
+        <v>19400</v>
       </c>
       <c r="G45" s="3">
+        <v>17700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>28000</v>
+      </c>
+      <c r="I45" s="3">
         <v>19000</v>
       </c>
-      <c r="H45" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>20400</v>
-      </c>
       <c r="J45" s="3">
-        <v>16800</v>
+        <v>15700</v>
       </c>
       <c r="K45" s="3">
         <v>14800</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1084300</v>
+        <v>1012600</v>
       </c>
       <c r="E46" s="3">
-        <v>725500</v>
+        <v>677500</v>
       </c>
       <c r="F46" s="3">
-        <v>655000</v>
+        <v>611600</v>
       </c>
       <c r="G46" s="3">
-        <v>658300</v>
+        <v>614700</v>
       </c>
       <c r="H46" s="3">
-        <v>751700</v>
+        <v>702000</v>
       </c>
       <c r="I46" s="3">
-        <v>744500</v>
+        <v>695200</v>
       </c>
       <c r="J46" s="3">
-        <v>753100</v>
+        <v>703200</v>
       </c>
       <c r="K46" s="3">
         <v>598800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>225300</v>
+        <v>210400</v>
       </c>
       <c r="E47" s="3">
-        <v>279400</v>
+        <v>260900</v>
       </c>
       <c r="F47" s="3">
-        <v>159200</v>
+        <v>148700</v>
       </c>
       <c r="G47" s="3">
-        <v>124600</v>
+        <v>116400</v>
       </c>
       <c r="H47" s="3">
-        <v>114000</v>
+        <v>106500</v>
       </c>
       <c r="I47" s="3">
-        <v>86000</v>
+        <v>80300</v>
       </c>
       <c r="J47" s="3">
-        <v>168900</v>
+        <v>157700</v>
       </c>
       <c r="K47" s="3">
         <v>109500</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>823600</v>
+        <v>769100</v>
       </c>
       <c r="E48" s="3">
-        <v>982900</v>
+        <v>917900</v>
       </c>
       <c r="F48" s="3">
-        <v>966600</v>
+        <v>902700</v>
       </c>
       <c r="G48" s="3">
-        <v>897300</v>
+        <v>837900</v>
       </c>
       <c r="H48" s="3">
-        <v>906000</v>
+        <v>846000</v>
       </c>
       <c r="I48" s="3">
-        <v>871100</v>
+        <v>813500</v>
       </c>
       <c r="J48" s="3">
-        <v>969800</v>
+        <v>905600</v>
       </c>
       <c r="K48" s="3">
         <v>900800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>955900</v>
+        <v>892600</v>
       </c>
       <c r="E49" s="3">
-        <v>1083000</v>
+        <v>1011300</v>
       </c>
       <c r="F49" s="3">
-        <v>1069000</v>
+        <v>998300</v>
       </c>
       <c r="G49" s="3">
-        <v>1029300</v>
+        <v>961200</v>
       </c>
       <c r="H49" s="3">
-        <v>1066100</v>
+        <v>995600</v>
       </c>
       <c r="I49" s="3">
-        <v>1035600</v>
+        <v>967100</v>
       </c>
       <c r="J49" s="3">
-        <v>1149300</v>
+        <v>1073300</v>
       </c>
       <c r="K49" s="3">
         <v>1061300</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>240300</v>
+        <v>224400</v>
       </c>
       <c r="E52" s="3">
-        <v>180900</v>
+        <v>168900</v>
       </c>
       <c r="F52" s="3">
-        <v>161900</v>
+        <v>151200</v>
       </c>
       <c r="G52" s="3">
-        <v>166700</v>
+        <v>155700</v>
       </c>
       <c r="H52" s="3">
-        <v>152900</v>
+        <v>142800</v>
       </c>
       <c r="I52" s="3">
-        <v>267500</v>
+        <v>249800</v>
       </c>
       <c r="J52" s="3">
-        <v>45000</v>
+        <v>42000</v>
       </c>
       <c r="K52" s="3">
         <v>37400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3329400</v>
+        <v>3109000</v>
       </c>
       <c r="E54" s="3">
-        <v>3251700</v>
+        <v>3036500</v>
       </c>
       <c r="F54" s="3">
-        <v>3011700</v>
+        <v>2812400</v>
       </c>
       <c r="G54" s="3">
-        <v>2876200</v>
+        <v>2685900</v>
       </c>
       <c r="H54" s="3">
-        <v>2990800</v>
+        <v>2792900</v>
       </c>
       <c r="I54" s="3">
-        <v>3004700</v>
+        <v>2805900</v>
       </c>
       <c r="J54" s="3">
-        <v>3086100</v>
+        <v>2881900</v>
       </c>
       <c r="K54" s="3">
         <v>2707800</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>367200</v>
+        <v>342900</v>
       </c>
       <c r="E57" s="3">
-        <v>404400</v>
+        <v>377600</v>
       </c>
       <c r="F57" s="3">
-        <v>386200</v>
+        <v>360600</v>
       </c>
       <c r="G57" s="3">
-        <v>396400</v>
+        <v>370200</v>
       </c>
       <c r="H57" s="3">
-        <v>390300</v>
+        <v>364400</v>
       </c>
       <c r="I57" s="3">
-        <v>355200</v>
+        <v>331700</v>
       </c>
       <c r="J57" s="3">
-        <v>294800</v>
+        <v>275300</v>
       </c>
       <c r="K57" s="3">
         <v>268300</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>50800</v>
+        <v>47400</v>
       </c>
       <c r="E58" s="3">
-        <v>54700</v>
+        <v>51100</v>
       </c>
       <c r="F58" s="3">
-        <v>76100</v>
+        <v>71100</v>
       </c>
       <c r="G58" s="3">
-        <v>91800</v>
+        <v>85800</v>
       </c>
       <c r="H58" s="3">
-        <v>86500</v>
+        <v>80700</v>
       </c>
       <c r="I58" s="3">
-        <v>84500</v>
+        <v>78900</v>
       </c>
       <c r="J58" s="3">
-        <v>107400</v>
+        <v>100300</v>
       </c>
       <c r="K58" s="3">
         <v>137600</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>96200</v>
+        <v>89800</v>
       </c>
       <c r="E59" s="3">
-        <v>100800</v>
+        <v>94100</v>
       </c>
       <c r="F59" s="3">
-        <v>108700</v>
+        <v>101500</v>
       </c>
       <c r="G59" s="3">
-        <v>94200</v>
+        <v>88000</v>
       </c>
       <c r="H59" s="3">
-        <v>93800</v>
+        <v>87600</v>
       </c>
       <c r="I59" s="3">
-        <v>77900</v>
+        <v>72800</v>
       </c>
       <c r="J59" s="3">
-        <v>155700</v>
+        <v>145400</v>
       </c>
       <c r="K59" s="3">
         <v>116900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>514200</v>
+        <v>480100</v>
       </c>
       <c r="E60" s="3">
-        <v>559900</v>
+        <v>522800</v>
       </c>
       <c r="F60" s="3">
-        <v>571000</v>
+        <v>533200</v>
       </c>
       <c r="G60" s="3">
-        <v>582500</v>
+        <v>543900</v>
       </c>
       <c r="H60" s="3">
-        <v>570600</v>
+        <v>532800</v>
       </c>
       <c r="I60" s="3">
-        <v>517600</v>
+        <v>483300</v>
       </c>
       <c r="J60" s="3">
-        <v>557900</v>
+        <v>521000</v>
       </c>
       <c r="K60" s="3">
         <v>522800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1276000</v>
+        <v>1191600</v>
       </c>
       <c r="E61" s="3">
-        <v>1010900</v>
+        <v>944000</v>
       </c>
       <c r="F61" s="3">
-        <v>974500</v>
+        <v>910000</v>
       </c>
       <c r="G61" s="3">
-        <v>919000</v>
+        <v>858200</v>
       </c>
       <c r="H61" s="3">
-        <v>981300</v>
+        <v>916400</v>
       </c>
       <c r="I61" s="3">
-        <v>1040800</v>
+        <v>971900</v>
       </c>
       <c r="J61" s="3">
-        <v>988200</v>
+        <v>922800</v>
       </c>
       <c r="K61" s="3">
         <v>785700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>408300</v>
+        <v>381200</v>
       </c>
       <c r="E62" s="3">
-        <v>363200</v>
+        <v>339200</v>
       </c>
       <c r="F62" s="3">
-        <v>291500</v>
+        <v>272200</v>
       </c>
       <c r="G62" s="3">
-        <v>268700</v>
+        <v>250900</v>
       </c>
       <c r="H62" s="3">
-        <v>293500</v>
+        <v>274100</v>
       </c>
       <c r="I62" s="3">
-        <v>288300</v>
+        <v>269200</v>
       </c>
       <c r="J62" s="3">
-        <v>290200</v>
+        <v>271000</v>
       </c>
       <c r="K62" s="3">
         <v>253500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2226200</v>
+        <v>2078800</v>
       </c>
       <c r="E66" s="3">
-        <v>1961500</v>
+        <v>1831700</v>
       </c>
       <c r="F66" s="3">
-        <v>1864100</v>
+        <v>1740800</v>
       </c>
       <c r="G66" s="3">
-        <v>1800000</v>
+        <v>1680900</v>
       </c>
       <c r="H66" s="3">
-        <v>1874800</v>
+        <v>1750700</v>
       </c>
       <c r="I66" s="3">
-        <v>1875300</v>
+        <v>1751200</v>
       </c>
       <c r="J66" s="3">
-        <v>1865800</v>
+        <v>1742300</v>
       </c>
       <c r="K66" s="3">
         <v>1589000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1478800</v>
+        <v>1380900</v>
       </c>
       <c r="E72" s="3">
-        <v>1406300</v>
+        <v>1313300</v>
       </c>
       <c r="F72" s="3">
-        <v>1217700</v>
+        <v>1137100</v>
       </c>
       <c r="G72" s="3">
-        <v>1037200</v>
+        <v>968600</v>
       </c>
       <c r="H72" s="3">
-        <v>983100</v>
+        <v>918000</v>
       </c>
       <c r="I72" s="3">
-        <v>954600</v>
+        <v>891400</v>
       </c>
       <c r="J72" s="3">
-        <v>917900</v>
+        <v>857200</v>
       </c>
       <c r="K72" s="3">
         <v>871400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1103200</v>
+        <v>1030200</v>
       </c>
       <c r="E76" s="3">
-        <v>1290200</v>
+        <v>1204800</v>
       </c>
       <c r="F76" s="3">
-        <v>1147600</v>
+        <v>1071600</v>
       </c>
       <c r="G76" s="3">
-        <v>1076200</v>
+        <v>1005000</v>
       </c>
       <c r="H76" s="3">
-        <v>1116000</v>
+        <v>1042200</v>
       </c>
       <c r="I76" s="3">
-        <v>1129400</v>
+        <v>1054700</v>
       </c>
       <c r="J76" s="3">
-        <v>1220300</v>
+        <v>1139600</v>
       </c>
       <c r="K76" s="3">
         <v>1118900</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>165900</v>
+        <v>154900</v>
       </c>
       <c r="E81" s="3">
-        <v>236300</v>
+        <v>220600</v>
       </c>
       <c r="F81" s="3">
-        <v>131400</v>
+        <v>122700</v>
       </c>
       <c r="G81" s="3">
-        <v>160300</v>
+        <v>149700</v>
       </c>
       <c r="H81" s="3">
-        <v>123100</v>
+        <v>115000</v>
       </c>
       <c r="I81" s="3">
-        <v>119500</v>
+        <v>111600</v>
       </c>
       <c r="J81" s="3">
-        <v>102700</v>
+        <v>95900</v>
       </c>
       <c r="K81" s="3">
         <v>115700</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>375900</v>
+        <v>351000</v>
       </c>
       <c r="E89" s="3">
-        <v>344300</v>
+        <v>321500</v>
       </c>
       <c r="F89" s="3">
-        <v>313400</v>
+        <v>292700</v>
       </c>
       <c r="G89" s="3">
-        <v>337200</v>
+        <v>314900</v>
       </c>
       <c r="H89" s="3">
-        <v>303900</v>
+        <v>283800</v>
       </c>
       <c r="I89" s="3">
-        <v>360300</v>
+        <v>336400</v>
       </c>
       <c r="J89" s="3">
-        <v>293100</v>
+        <v>273700</v>
       </c>
       <c r="K89" s="3">
         <v>223700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-116800</v>
+        <v>-109100</v>
       </c>
       <c r="E91" s="3">
-        <v>-150500</v>
+        <v>-140600</v>
       </c>
       <c r="F91" s="3">
-        <v>-164600</v>
+        <v>-153800</v>
       </c>
       <c r="G91" s="3">
-        <v>-229600</v>
+        <v>-214400</v>
       </c>
       <c r="H91" s="3">
-        <v>-174400</v>
+        <v>-162800</v>
       </c>
       <c r="I91" s="3">
-        <v>-152900</v>
+        <v>-142700</v>
       </c>
       <c r="J91" s="3">
-        <v>-155300</v>
+        <v>-145100</v>
       </c>
       <c r="K91" s="3">
         <v>-238800</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-304500</v>
+        <v>-284300</v>
       </c>
       <c r="E94" s="3">
-        <v>-149700</v>
+        <v>-139800</v>
       </c>
       <c r="F94" s="3">
-        <v>-160600</v>
+        <v>-150000</v>
       </c>
       <c r="G94" s="3">
-        <v>-229600</v>
+        <v>-214400</v>
       </c>
       <c r="H94" s="3">
-        <v>-154900</v>
+        <v>-144700</v>
       </c>
       <c r="I94" s="3">
-        <v>-140300</v>
+        <v>-131000</v>
       </c>
       <c r="J94" s="3">
-        <v>-226800</v>
+        <v>-211800</v>
       </c>
       <c r="K94" s="3">
         <v>-581800</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-136000</v>
+        <v>-127000</v>
       </c>
       <c r="E96" s="3">
-        <v>-117300</v>
+        <v>-109600</v>
       </c>
       <c r="F96" s="3">
-        <v>-119000</v>
+        <v>-111200</v>
       </c>
       <c r="G96" s="3">
-        <v>-102000</v>
+        <v>-95200</v>
       </c>
       <c r="H96" s="3">
-        <v>-91900</v>
+        <v>-85800</v>
       </c>
       <c r="I96" s="3">
-        <v>-73900</v>
+        <v>-69000</v>
       </c>
       <c r="J96" s="3">
-        <v>-71100</v>
+        <v>-66400</v>
       </c>
       <c r="K96" s="3">
         <v>-95000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>153700</v>
+        <v>143600</v>
       </c>
       <c r="E100" s="3">
-        <v>-172900</v>
+        <v>-161400</v>
       </c>
       <c r="F100" s="3">
-        <v>-155900</v>
+        <v>-145600</v>
       </c>
       <c r="G100" s="3">
-        <v>-106600</v>
+        <v>-99500</v>
       </c>
       <c r="H100" s="3">
-        <v>-133600</v>
+        <v>-124700</v>
       </c>
       <c r="I100" s="3">
-        <v>-134000</v>
+        <v>-125200</v>
       </c>
       <c r="J100" s="3">
-        <v>-63800</v>
+        <v>-59600</v>
       </c>
       <c r="K100" s="3">
         <v>394000</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-18500</v>
+        <v>-17200</v>
       </c>
       <c r="E101" s="3">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="F101" s="3">
-        <v>4900</v>
+        <v>4500</v>
       </c>
       <c r="G101" s="3">
-        <v>-7900</v>
+        <v>-7400</v>
       </c>
       <c r="H101" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I101" s="3">
-        <v>-18500</v>
+        <v>-17200</v>
       </c>
       <c r="J101" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="K101" s="3">
         <v>-4100</v>
@@ -3747,22 +3747,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>206700</v>
+        <v>193000</v>
       </c>
       <c r="E102" s="3">
-        <v>27200</v>
+        <v>25400</v>
       </c>
       <c r="F102" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="G102" s="3">
-        <v>-6800</v>
+        <v>-6400</v>
       </c>
       <c r="H102" s="3">
-        <v>16500</v>
+        <v>15400</v>
       </c>
       <c r="I102" s="3">
-        <v>67500</v>
+        <v>63100</v>
       </c>
       <c r="J102" s="3">
         <v>-600</v>

--- a/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2156800</v>
+        <v>2021000</v>
       </c>
       <c r="E8" s="3">
-        <v>2259400</v>
+        <v>2117000</v>
       </c>
       <c r="F8" s="3">
-        <v>2124600</v>
+        <v>1990800</v>
       </c>
       <c r="G8" s="3">
-        <v>2348100</v>
+        <v>2200200</v>
       </c>
       <c r="H8" s="3">
-        <v>2257400</v>
+        <v>2115200</v>
       </c>
       <c r="I8" s="3">
-        <v>2384300</v>
+        <v>2234100</v>
       </c>
       <c r="J8" s="3">
-        <v>2282400</v>
+        <v>2138700</v>
       </c>
       <c r="K8" s="3">
         <v>1978200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1298600</v>
+        <v>1216800</v>
       </c>
       <c r="E9" s="3">
-        <v>1331400</v>
+        <v>1247500</v>
       </c>
       <c r="F9" s="3">
-        <v>1229400</v>
+        <v>1152000</v>
       </c>
       <c r="G9" s="3">
-        <v>1357700</v>
+        <v>1272100</v>
       </c>
       <c r="H9" s="3">
-        <v>1313100</v>
+        <v>1230400</v>
       </c>
       <c r="I9" s="3">
-        <v>1405500</v>
+        <v>1317000</v>
       </c>
       <c r="J9" s="3">
-        <v>1373200</v>
+        <v>1286700</v>
       </c>
       <c r="K9" s="3">
         <v>1189300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>858200</v>
+        <v>804200</v>
       </c>
       <c r="E10" s="3">
+        <v>869500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>838800</v>
+      </c>
+      <c r="G10" s="3">
         <v>928000</v>
       </c>
-      <c r="F10" s="3">
-        <v>895200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>990400</v>
-      </c>
       <c r="H10" s="3">
-        <v>944300</v>
+        <v>884800</v>
       </c>
       <c r="I10" s="3">
-        <v>978800</v>
+        <v>917100</v>
       </c>
       <c r="J10" s="3">
-        <v>909300</v>
+        <v>852000</v>
       </c>
       <c r="K10" s="3">
         <v>788900</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10100</v>
+        <v>9500</v>
       </c>
       <c r="E14" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="F14" s="3">
         <v>300</v>
       </c>
       <c r="G14" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="H14" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="I14" s="3">
-        <v>5100</v>
+        <v>4700</v>
       </c>
       <c r="J14" s="3">
-        <v>7400</v>
+        <v>6900</v>
       </c>
       <c r="K14" s="3">
         <v>9900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1864000</v>
+        <v>1746600</v>
       </c>
       <c r="E17" s="3">
-        <v>1938600</v>
+        <v>1816500</v>
       </c>
       <c r="F17" s="3">
-        <v>1858900</v>
+        <v>1741800</v>
       </c>
       <c r="G17" s="3">
-        <v>2068600</v>
+        <v>1938300</v>
       </c>
       <c r="H17" s="3">
-        <v>2017000</v>
+        <v>1889900</v>
       </c>
       <c r="I17" s="3">
-        <v>2145800</v>
+        <v>2010600</v>
       </c>
       <c r="J17" s="3">
-        <v>2065900</v>
+        <v>1935700</v>
       </c>
       <c r="K17" s="3">
         <v>1785800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>292800</v>
+        <v>274300</v>
       </c>
       <c r="E18" s="3">
-        <v>320700</v>
+        <v>300500</v>
       </c>
       <c r="F18" s="3">
-        <v>265700</v>
+        <v>249000</v>
       </c>
       <c r="G18" s="3">
-        <v>279400</v>
+        <v>261800</v>
       </c>
       <c r="H18" s="3">
-        <v>240400</v>
+        <v>225200</v>
       </c>
       <c r="I18" s="3">
-        <v>238500</v>
+        <v>223500</v>
       </c>
       <c r="J18" s="3">
-        <v>216600</v>
+        <v>202900</v>
       </c>
       <c r="K18" s="3">
         <v>192400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6900</v>
+        <v>-6400</v>
       </c>
       <c r="E20" s="3">
-        <v>29700</v>
+        <v>27800</v>
       </c>
       <c r="F20" s="3">
-        <v>-20100</v>
+        <v>-18800</v>
       </c>
       <c r="G20" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="H20" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="I20" s="3">
-        <v>-9900</v>
+        <v>-9300</v>
       </c>
       <c r="J20" s="3">
-        <v>-16200</v>
+        <v>-15200</v>
       </c>
       <c r="K20" s="3">
         <v>-10400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>285900</v>
+        <v>267900</v>
       </c>
       <c r="E21" s="3">
-        <v>350400</v>
+        <v>328300</v>
       </c>
       <c r="F21" s="3">
-        <v>245600</v>
+        <v>230100</v>
       </c>
       <c r="G21" s="3">
-        <v>277500</v>
+        <v>260100</v>
       </c>
       <c r="H21" s="3">
-        <v>236900</v>
+        <v>221900</v>
       </c>
       <c r="I21" s="3">
-        <v>228500</v>
+        <v>214100</v>
       </c>
       <c r="J21" s="3">
-        <v>200400</v>
+        <v>187800</v>
       </c>
       <c r="K21" s="3">
         <v>181900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>47000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>48000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>56800</v>
+      </c>
+      <c r="H22" s="3">
+        <v>54300</v>
+      </c>
+      <c r="I22" s="3">
         <v>59800</v>
       </c>
-      <c r="E22" s="3">
-        <v>50200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>51300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>60600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>58000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>63800</v>
-      </c>
       <c r="J22" s="3">
-        <v>76100</v>
+        <v>71300</v>
       </c>
       <c r="K22" s="3">
         <v>34700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>226100</v>
+        <v>211800</v>
       </c>
       <c r="E23" s="3">
-        <v>300200</v>
+        <v>281300</v>
       </c>
       <c r="F23" s="3">
-        <v>194300</v>
+        <v>182100</v>
       </c>
       <c r="G23" s="3">
-        <v>216900</v>
+        <v>203300</v>
       </c>
       <c r="H23" s="3">
-        <v>178900</v>
+        <v>167600</v>
       </c>
       <c r="I23" s="3">
-        <v>164800</v>
+        <v>154400</v>
       </c>
       <c r="J23" s="3">
-        <v>124200</v>
+        <v>116400</v>
       </c>
       <c r="K23" s="3">
         <v>147200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>69700</v>
+        <v>65300</v>
       </c>
       <c r="E24" s="3">
-        <v>77700</v>
+        <v>72800</v>
       </c>
       <c r="F24" s="3">
-        <v>70600</v>
+        <v>66100</v>
       </c>
       <c r="G24" s="3">
-        <v>65800</v>
+        <v>61600</v>
       </c>
       <c r="H24" s="3">
-        <v>62000</v>
+        <v>58100</v>
       </c>
       <c r="I24" s="3">
-        <v>52900</v>
+        <v>49600</v>
       </c>
       <c r="J24" s="3">
-        <v>28000</v>
+        <v>26200</v>
       </c>
       <c r="K24" s="3">
         <v>29900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>156400</v>
+        <v>146500</v>
       </c>
       <c r="E26" s="3">
-        <v>222600</v>
+        <v>208500</v>
       </c>
       <c r="F26" s="3">
-        <v>123800</v>
+        <v>116000</v>
       </c>
       <c r="G26" s="3">
-        <v>151100</v>
+        <v>141600</v>
       </c>
       <c r="H26" s="3">
-        <v>116900</v>
+        <v>109500</v>
       </c>
       <c r="I26" s="3">
-        <v>111900</v>
+        <v>104800</v>
       </c>
       <c r="J26" s="3">
-        <v>96300</v>
+        <v>90200</v>
       </c>
       <c r="K26" s="3">
         <v>117300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>154900</v>
+        <v>145200</v>
       </c>
       <c r="E27" s="3">
-        <v>220600</v>
+        <v>206700</v>
       </c>
       <c r="F27" s="3">
-        <v>122700</v>
+        <v>115000</v>
       </c>
       <c r="G27" s="3">
-        <v>149700</v>
+        <v>140200</v>
       </c>
       <c r="H27" s="3">
-        <v>115000</v>
+        <v>107700</v>
       </c>
       <c r="I27" s="3">
-        <v>111600</v>
+        <v>104600</v>
       </c>
       <c r="J27" s="3">
-        <v>95900</v>
+        <v>89800</v>
       </c>
       <c r="K27" s="3">
         <v>115700</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6900</v>
+        <v>6400</v>
       </c>
       <c r="E32" s="3">
-        <v>-29700</v>
+        <v>-27800</v>
       </c>
       <c r="F32" s="3">
-        <v>20100</v>
+        <v>18800</v>
       </c>
       <c r="G32" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H32" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="I32" s="3">
-        <v>9900</v>
+        <v>9300</v>
       </c>
       <c r="J32" s="3">
-        <v>16200</v>
+        <v>15200</v>
       </c>
       <c r="K32" s="3">
         <v>10400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>154900</v>
+        <v>145200</v>
       </c>
       <c r="E33" s="3">
-        <v>220600</v>
+        <v>206700</v>
       </c>
       <c r="F33" s="3">
-        <v>122700</v>
+        <v>115000</v>
       </c>
       <c r="G33" s="3">
-        <v>149700</v>
+        <v>140200</v>
       </c>
       <c r="H33" s="3">
-        <v>115000</v>
+        <v>107700</v>
       </c>
       <c r="I33" s="3">
-        <v>111600</v>
+        <v>104600</v>
       </c>
       <c r="J33" s="3">
-        <v>95900</v>
+        <v>89800</v>
       </c>
       <c r="K33" s="3">
         <v>115700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>154900</v>
+        <v>145200</v>
       </c>
       <c r="E35" s="3">
-        <v>220600</v>
+        <v>206700</v>
       </c>
       <c r="F35" s="3">
-        <v>122700</v>
+        <v>115000</v>
       </c>
       <c r="G35" s="3">
-        <v>149700</v>
+        <v>140200</v>
       </c>
       <c r="H35" s="3">
-        <v>115000</v>
+        <v>107700</v>
       </c>
       <c r="I35" s="3">
-        <v>111600</v>
+        <v>104600</v>
       </c>
       <c r="J35" s="3">
-        <v>95900</v>
+        <v>89800</v>
       </c>
       <c r="K35" s="3">
         <v>115700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>393100</v>
+        <v>368300</v>
       </c>
       <c r="E41" s="3">
-        <v>200100</v>
+        <v>187500</v>
       </c>
       <c r="F41" s="3">
-        <v>174700</v>
+        <v>163700</v>
       </c>
       <c r="G41" s="3">
-        <v>173000</v>
+        <v>162100</v>
       </c>
       <c r="H41" s="3">
-        <v>179400</v>
+        <v>168100</v>
       </c>
       <c r="I41" s="3">
-        <v>164000</v>
+        <v>153700</v>
       </c>
       <c r="J41" s="3">
-        <v>101000</v>
+        <v>94600</v>
       </c>
       <c r="K41" s="3">
         <v>104000</v>
@@ -1774,7 +1774,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>178200</v>
+        <v>167000</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -1783,16 +1783,16 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>17400</v>
+        <v>16300</v>
       </c>
       <c r="H42" s="3">
-        <v>70500</v>
+        <v>66000</v>
       </c>
       <c r="I42" s="3">
-        <v>111100</v>
+        <v>104100</v>
       </c>
       <c r="J42" s="3">
-        <v>135400</v>
+        <v>126800</v>
       </c>
       <c r="K42" s="3">
         <v>47400</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>262100</v>
+        <v>245600</v>
       </c>
       <c r="E43" s="3">
-        <v>269100</v>
+        <v>252200</v>
       </c>
       <c r="F43" s="3">
-        <v>225300</v>
+        <v>211200</v>
       </c>
       <c r="G43" s="3">
-        <v>239700</v>
+        <v>224600</v>
       </c>
       <c r="H43" s="3">
-        <v>240300</v>
+        <v>225200</v>
       </c>
       <c r="I43" s="3">
-        <v>231700</v>
+        <v>217100</v>
       </c>
       <c r="J43" s="3">
-        <v>261100</v>
+        <v>244600</v>
       </c>
       <c r="K43" s="3">
         <v>269000</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>162500</v>
+        <v>152300</v>
       </c>
       <c r="E44" s="3">
-        <v>187500</v>
+        <v>175700</v>
       </c>
       <c r="F44" s="3">
-        <v>192200</v>
+        <v>180100</v>
       </c>
       <c r="G44" s="3">
-        <v>166800</v>
+        <v>156300</v>
       </c>
       <c r="H44" s="3">
-        <v>183800</v>
+        <v>172200</v>
       </c>
       <c r="I44" s="3">
-        <v>169300</v>
+        <v>158700</v>
       </c>
       <c r="J44" s="3">
-        <v>190200</v>
+        <v>178200</v>
       </c>
       <c r="K44" s="3">
         <v>163600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16700</v>
+        <v>15600</v>
       </c>
       <c r="E45" s="3">
-        <v>20700</v>
+        <v>19400</v>
       </c>
       <c r="F45" s="3">
-        <v>19400</v>
+        <v>18200</v>
       </c>
       <c r="G45" s="3">
-        <v>17700</v>
+        <v>16600</v>
       </c>
       <c r="H45" s="3">
-        <v>28000</v>
+        <v>26200</v>
       </c>
       <c r="I45" s="3">
-        <v>19000</v>
+        <v>17800</v>
       </c>
       <c r="J45" s="3">
-        <v>15700</v>
+        <v>14700</v>
       </c>
       <c r="K45" s="3">
         <v>14800</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1012600</v>
+        <v>948800</v>
       </c>
       <c r="E46" s="3">
-        <v>677500</v>
+        <v>634800</v>
       </c>
       <c r="F46" s="3">
-        <v>611600</v>
+        <v>573100</v>
       </c>
       <c r="G46" s="3">
-        <v>614700</v>
+        <v>576000</v>
       </c>
       <c r="H46" s="3">
-        <v>702000</v>
+        <v>657800</v>
       </c>
       <c r="I46" s="3">
-        <v>695200</v>
+        <v>651400</v>
       </c>
       <c r="J46" s="3">
-        <v>703200</v>
+        <v>658900</v>
       </c>
       <c r="K46" s="3">
         <v>598800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>210400</v>
+        <v>197100</v>
       </c>
       <c r="E47" s="3">
-        <v>260900</v>
+        <v>244500</v>
       </c>
       <c r="F47" s="3">
-        <v>148700</v>
+        <v>139300</v>
       </c>
       <c r="G47" s="3">
-        <v>116400</v>
+        <v>109100</v>
       </c>
       <c r="H47" s="3">
-        <v>106500</v>
+        <v>99800</v>
       </c>
       <c r="I47" s="3">
-        <v>80300</v>
+        <v>75200</v>
       </c>
       <c r="J47" s="3">
-        <v>157700</v>
+        <v>147800</v>
       </c>
       <c r="K47" s="3">
         <v>109500</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>769100</v>
+        <v>720600</v>
       </c>
       <c r="E48" s="3">
-        <v>917900</v>
+        <v>860000</v>
       </c>
       <c r="F48" s="3">
-        <v>902700</v>
+        <v>845800</v>
       </c>
       <c r="G48" s="3">
-        <v>837900</v>
+        <v>785100</v>
       </c>
       <c r="H48" s="3">
-        <v>846000</v>
+        <v>792700</v>
       </c>
       <c r="I48" s="3">
-        <v>813500</v>
+        <v>762200</v>
       </c>
       <c r="J48" s="3">
-        <v>905600</v>
+        <v>848600</v>
       </c>
       <c r="K48" s="3">
         <v>900800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>892600</v>
+        <v>836400</v>
       </c>
       <c r="E49" s="3">
-        <v>1011300</v>
+        <v>947600</v>
       </c>
       <c r="F49" s="3">
-        <v>998300</v>
+        <v>935400</v>
       </c>
       <c r="G49" s="3">
-        <v>961200</v>
+        <v>900700</v>
       </c>
       <c r="H49" s="3">
-        <v>995600</v>
+        <v>932900</v>
       </c>
       <c r="I49" s="3">
-        <v>967100</v>
+        <v>906200</v>
       </c>
       <c r="J49" s="3">
-        <v>1073300</v>
+        <v>1005700</v>
       </c>
       <c r="K49" s="3">
         <v>1061300</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>224400</v>
+        <v>210300</v>
       </c>
       <c r="E52" s="3">
-        <v>168900</v>
+        <v>158300</v>
       </c>
       <c r="F52" s="3">
-        <v>151200</v>
+        <v>141600</v>
       </c>
       <c r="G52" s="3">
-        <v>155700</v>
+        <v>145900</v>
       </c>
       <c r="H52" s="3">
-        <v>142800</v>
+        <v>133800</v>
       </c>
       <c r="I52" s="3">
-        <v>249800</v>
+        <v>234100</v>
       </c>
       <c r="J52" s="3">
-        <v>42000</v>
+        <v>39300</v>
       </c>
       <c r="K52" s="3">
         <v>37400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3109000</v>
+        <v>2913200</v>
       </c>
       <c r="E54" s="3">
-        <v>3036500</v>
+        <v>2845200</v>
       </c>
       <c r="F54" s="3">
-        <v>2812400</v>
+        <v>2635300</v>
       </c>
       <c r="G54" s="3">
-        <v>2685900</v>
+        <v>2516700</v>
       </c>
       <c r="H54" s="3">
-        <v>2792900</v>
+        <v>2616900</v>
       </c>
       <c r="I54" s="3">
-        <v>2805900</v>
+        <v>2629100</v>
       </c>
       <c r="J54" s="3">
-        <v>2881900</v>
+        <v>2700300</v>
       </c>
       <c r="K54" s="3">
         <v>2707800</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>342900</v>
+        <v>321300</v>
       </c>
       <c r="E57" s="3">
-        <v>377600</v>
+        <v>353800</v>
       </c>
       <c r="F57" s="3">
-        <v>360600</v>
+        <v>337900</v>
       </c>
       <c r="G57" s="3">
-        <v>370200</v>
+        <v>346900</v>
       </c>
       <c r="H57" s="3">
-        <v>364400</v>
+        <v>341500</v>
       </c>
       <c r="I57" s="3">
-        <v>331700</v>
+        <v>310800</v>
       </c>
       <c r="J57" s="3">
-        <v>275300</v>
+        <v>257900</v>
       </c>
       <c r="K57" s="3">
         <v>268300</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>47400</v>
+        <v>44400</v>
       </c>
       <c r="E58" s="3">
-        <v>51100</v>
+        <v>47900</v>
       </c>
       <c r="F58" s="3">
-        <v>71100</v>
+        <v>66600</v>
       </c>
       <c r="G58" s="3">
-        <v>85800</v>
+        <v>80400</v>
       </c>
       <c r="H58" s="3">
-        <v>80700</v>
+        <v>75600</v>
       </c>
       <c r="I58" s="3">
-        <v>78900</v>
+        <v>73900</v>
       </c>
       <c r="J58" s="3">
-        <v>100300</v>
+        <v>94000</v>
       </c>
       <c r="K58" s="3">
         <v>137600</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>89800</v>
+        <v>84200</v>
       </c>
       <c r="E59" s="3">
-        <v>94100</v>
+        <v>88200</v>
       </c>
       <c r="F59" s="3">
-        <v>101500</v>
+        <v>95100</v>
       </c>
       <c r="G59" s="3">
-        <v>88000</v>
+        <v>82400</v>
       </c>
       <c r="H59" s="3">
-        <v>87600</v>
+        <v>82100</v>
       </c>
       <c r="I59" s="3">
-        <v>72800</v>
+        <v>68200</v>
       </c>
       <c r="J59" s="3">
-        <v>145400</v>
+        <v>136200</v>
       </c>
       <c r="K59" s="3">
         <v>116900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>480100</v>
+        <v>449900</v>
       </c>
       <c r="E60" s="3">
-        <v>522800</v>
+        <v>489900</v>
       </c>
       <c r="F60" s="3">
-        <v>533200</v>
+        <v>499600</v>
       </c>
       <c r="G60" s="3">
-        <v>543900</v>
+        <v>509700</v>
       </c>
       <c r="H60" s="3">
-        <v>532800</v>
+        <v>499200</v>
       </c>
       <c r="I60" s="3">
-        <v>483300</v>
+        <v>452900</v>
       </c>
       <c r="J60" s="3">
-        <v>521000</v>
+        <v>488200</v>
       </c>
       <c r="K60" s="3">
         <v>522800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1191600</v>
+        <v>1116500</v>
       </c>
       <c r="E61" s="3">
-        <v>944000</v>
+        <v>884600</v>
       </c>
       <c r="F61" s="3">
-        <v>910000</v>
+        <v>852700</v>
       </c>
       <c r="G61" s="3">
-        <v>858200</v>
+        <v>804200</v>
       </c>
       <c r="H61" s="3">
-        <v>916400</v>
+        <v>858700</v>
       </c>
       <c r="I61" s="3">
-        <v>971900</v>
+        <v>910700</v>
       </c>
       <c r="J61" s="3">
-        <v>922800</v>
+        <v>864700</v>
       </c>
       <c r="K61" s="3">
         <v>785700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>381200</v>
+        <v>357200</v>
       </c>
       <c r="E62" s="3">
-        <v>339200</v>
+        <v>317800</v>
       </c>
       <c r="F62" s="3">
-        <v>272200</v>
+        <v>255100</v>
       </c>
       <c r="G62" s="3">
-        <v>250900</v>
+        <v>235100</v>
       </c>
       <c r="H62" s="3">
-        <v>274100</v>
+        <v>256800</v>
       </c>
       <c r="I62" s="3">
-        <v>269200</v>
+        <v>252200</v>
       </c>
       <c r="J62" s="3">
-        <v>271000</v>
+        <v>253900</v>
       </c>
       <c r="K62" s="3">
         <v>253500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2078800</v>
+        <v>1947900</v>
       </c>
       <c r="E66" s="3">
-        <v>1831700</v>
+        <v>1716300</v>
       </c>
       <c r="F66" s="3">
-        <v>1740800</v>
+        <v>1631100</v>
       </c>
       <c r="G66" s="3">
-        <v>1680900</v>
+        <v>1575000</v>
       </c>
       <c r="H66" s="3">
-        <v>1750700</v>
+        <v>1640400</v>
       </c>
       <c r="I66" s="3">
-        <v>1751200</v>
+        <v>1640900</v>
       </c>
       <c r="J66" s="3">
-        <v>1742300</v>
+        <v>1632500</v>
       </c>
       <c r="K66" s="3">
         <v>1589000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1380900</v>
+        <v>1293900</v>
       </c>
       <c r="E72" s="3">
-        <v>1313300</v>
+        <v>1230500</v>
       </c>
       <c r="F72" s="3">
-        <v>1137100</v>
+        <v>1065500</v>
       </c>
       <c r="G72" s="3">
-        <v>968600</v>
+        <v>907600</v>
       </c>
       <c r="H72" s="3">
-        <v>918000</v>
+        <v>860200</v>
       </c>
       <c r="I72" s="3">
-        <v>891400</v>
+        <v>835300</v>
       </c>
       <c r="J72" s="3">
-        <v>857200</v>
+        <v>803200</v>
       </c>
       <c r="K72" s="3">
         <v>871400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1030200</v>
+        <v>965300</v>
       </c>
       <c r="E76" s="3">
-        <v>1204800</v>
+        <v>1128900</v>
       </c>
       <c r="F76" s="3">
-        <v>1071600</v>
+        <v>1004100</v>
       </c>
       <c r="G76" s="3">
-        <v>1005000</v>
+        <v>941700</v>
       </c>
       <c r="H76" s="3">
-        <v>1042200</v>
+        <v>976500</v>
       </c>
       <c r="I76" s="3">
-        <v>1054700</v>
+        <v>988300</v>
       </c>
       <c r="J76" s="3">
-        <v>1139600</v>
+        <v>1067800</v>
       </c>
       <c r="K76" s="3">
         <v>1118900</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>154900</v>
+        <v>145200</v>
       </c>
       <c r="E81" s="3">
-        <v>220600</v>
+        <v>206700</v>
       </c>
       <c r="F81" s="3">
-        <v>122700</v>
+        <v>115000</v>
       </c>
       <c r="G81" s="3">
-        <v>149700</v>
+        <v>140200</v>
       </c>
       <c r="H81" s="3">
-        <v>115000</v>
+        <v>107700</v>
       </c>
       <c r="I81" s="3">
-        <v>111600</v>
+        <v>104600</v>
       </c>
       <c r="J81" s="3">
-        <v>95900</v>
+        <v>89800</v>
       </c>
       <c r="K81" s="3">
         <v>115700</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>351000</v>
+        <v>328900</v>
       </c>
       <c r="E89" s="3">
-        <v>321500</v>
+        <v>301200</v>
       </c>
       <c r="F89" s="3">
-        <v>292700</v>
+        <v>274200</v>
       </c>
       <c r="G89" s="3">
-        <v>314900</v>
+        <v>295100</v>
       </c>
       <c r="H89" s="3">
-        <v>283800</v>
+        <v>265900</v>
       </c>
       <c r="I89" s="3">
-        <v>336400</v>
+        <v>315200</v>
       </c>
       <c r="J89" s="3">
-        <v>273700</v>
+        <v>256500</v>
       </c>
       <c r="K89" s="3">
         <v>223700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-109100</v>
+        <v>-102200</v>
       </c>
       <c r="E91" s="3">
-        <v>-140600</v>
+        <v>-131700</v>
       </c>
       <c r="F91" s="3">
-        <v>-153800</v>
+        <v>-144100</v>
       </c>
       <c r="G91" s="3">
-        <v>-214400</v>
+        <v>-200900</v>
       </c>
       <c r="H91" s="3">
-        <v>-162800</v>
+        <v>-152600</v>
       </c>
       <c r="I91" s="3">
-        <v>-142700</v>
+        <v>-133800</v>
       </c>
       <c r="J91" s="3">
-        <v>-145100</v>
+        <v>-135900</v>
       </c>
       <c r="K91" s="3">
         <v>-238800</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-284300</v>
+        <v>-266400</v>
       </c>
       <c r="E94" s="3">
-        <v>-139800</v>
+        <v>-131000</v>
       </c>
       <c r="F94" s="3">
-        <v>-150000</v>
+        <v>-140500</v>
       </c>
       <c r="G94" s="3">
-        <v>-214400</v>
+        <v>-200900</v>
       </c>
       <c r="H94" s="3">
-        <v>-144700</v>
+        <v>-135600</v>
       </c>
       <c r="I94" s="3">
-        <v>-131000</v>
+        <v>-122700</v>
       </c>
       <c r="J94" s="3">
-        <v>-211800</v>
+        <v>-198500</v>
       </c>
       <c r="K94" s="3">
         <v>-581800</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-127000</v>
+        <v>-119000</v>
       </c>
       <c r="E96" s="3">
-        <v>-109600</v>
+        <v>-102700</v>
       </c>
       <c r="F96" s="3">
-        <v>-111200</v>
+        <v>-104200</v>
       </c>
       <c r="G96" s="3">
-        <v>-95200</v>
+        <v>-89200</v>
       </c>
       <c r="H96" s="3">
-        <v>-85800</v>
+        <v>-80400</v>
       </c>
       <c r="I96" s="3">
-        <v>-69000</v>
+        <v>-64600</v>
       </c>
       <c r="J96" s="3">
-        <v>-66400</v>
+        <v>-62200</v>
       </c>
       <c r="K96" s="3">
         <v>-95000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>143600</v>
+        <v>134500</v>
       </c>
       <c r="E100" s="3">
-        <v>-161400</v>
+        <v>-151300</v>
       </c>
       <c r="F100" s="3">
-        <v>-145600</v>
+        <v>-136400</v>
       </c>
       <c r="G100" s="3">
-        <v>-99500</v>
+        <v>-93200</v>
       </c>
       <c r="H100" s="3">
-        <v>-124700</v>
+        <v>-116900</v>
       </c>
       <c r="I100" s="3">
-        <v>-125200</v>
+        <v>-117300</v>
       </c>
       <c r="J100" s="3">
-        <v>-59600</v>
+        <v>-55800</v>
       </c>
       <c r="K100" s="3">
         <v>394000</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17200</v>
+        <v>-16200</v>
       </c>
       <c r="E101" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="F101" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="G101" s="3">
-        <v>-7400</v>
+        <v>-6900</v>
       </c>
       <c r="H101" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I101" s="3">
-        <v>-17200</v>
+        <v>-16100</v>
       </c>
       <c r="J101" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="K101" s="3">
         <v>-4100</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>193000</v>
+        <v>180800</v>
       </c>
       <c r="E102" s="3">
-        <v>25400</v>
+        <v>23800</v>
       </c>
       <c r="F102" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G102" s="3">
-        <v>-6400</v>
+        <v>-6000</v>
       </c>
       <c r="H102" s="3">
-        <v>15400</v>
+        <v>14400</v>
       </c>
       <c r="I102" s="3">
-        <v>63100</v>
+        <v>59100</v>
       </c>
       <c r="J102" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K102" s="3">
         <v>31800</v>

--- a/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>AKO.B</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2021000</v>
+        <v>2748700</v>
       </c>
       <c r="E8" s="3">
-        <v>2117000</v>
+        <v>2105900</v>
       </c>
       <c r="F8" s="3">
-        <v>1990800</v>
+        <v>2206000</v>
       </c>
       <c r="G8" s="3">
-        <v>2200200</v>
+        <v>2074400</v>
       </c>
       <c r="H8" s="3">
-        <v>2115200</v>
+        <v>2292600</v>
       </c>
       <c r="I8" s="3">
-        <v>2234100</v>
+        <v>2204000</v>
       </c>
       <c r="J8" s="3">
+        <v>2328000</v>
+      </c>
+      <c r="K8" s="3">
         <v>2138700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1978200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1500500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1484100</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1216800</v>
+        <v>1705500</v>
       </c>
       <c r="E9" s="3">
-        <v>1247500</v>
+        <v>1267900</v>
       </c>
       <c r="F9" s="3">
-        <v>1152000</v>
+        <v>1299900</v>
       </c>
       <c r="G9" s="3">
-        <v>1272100</v>
+        <v>1200400</v>
       </c>
       <c r="H9" s="3">
-        <v>1230400</v>
+        <v>1325600</v>
       </c>
       <c r="I9" s="3">
-        <v>1317000</v>
+        <v>1282000</v>
       </c>
       <c r="J9" s="3">
+        <v>1372300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1286700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1189300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>894700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>873700</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>804200</v>
+        <v>1043300</v>
       </c>
       <c r="E10" s="3">
-        <v>869500</v>
+        <v>838000</v>
       </c>
       <c r="F10" s="3">
-        <v>838800</v>
+        <v>906000</v>
       </c>
       <c r="G10" s="3">
-        <v>928000</v>
+        <v>874100</v>
       </c>
       <c r="H10" s="3">
-        <v>884800</v>
+        <v>967000</v>
       </c>
       <c r="I10" s="3">
-        <v>917100</v>
+        <v>922000</v>
       </c>
       <c r="J10" s="3">
+        <v>955700</v>
+      </c>
+      <c r="K10" s="3">
         <v>852000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>788900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>605900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>610500</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,45 +925,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9500</v>
+        <v>500</v>
       </c>
       <c r="E14" s="3">
-        <v>3500</v>
+        <v>9900</v>
       </c>
       <c r="F14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
-        <v>3600</v>
-      </c>
       <c r="H14" s="3">
-        <v>5700</v>
+        <v>3800</v>
       </c>
       <c r="I14" s="3">
-        <v>4700</v>
+        <v>6000</v>
       </c>
       <c r="J14" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K14" s="3">
         <v>6900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3700</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1746600</v>
+        <v>2403300</v>
       </c>
       <c r="E17" s="3">
-        <v>1816500</v>
+        <v>1820000</v>
       </c>
       <c r="F17" s="3">
-        <v>1741800</v>
+        <v>1892800</v>
       </c>
       <c r="G17" s="3">
-        <v>1938300</v>
+        <v>1815000</v>
       </c>
       <c r="H17" s="3">
-        <v>1889900</v>
+        <v>2019800</v>
       </c>
       <c r="I17" s="3">
-        <v>2010600</v>
+        <v>1969300</v>
       </c>
       <c r="J17" s="3">
+        <v>2095100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1935700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1785800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1320300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1282700</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>274300</v>
+        <v>345400</v>
       </c>
       <c r="E18" s="3">
-        <v>300500</v>
+        <v>285900</v>
       </c>
       <c r="F18" s="3">
-        <v>249000</v>
+        <v>313200</v>
       </c>
       <c r="G18" s="3">
-        <v>261800</v>
+        <v>259400</v>
       </c>
       <c r="H18" s="3">
-        <v>225200</v>
+        <v>272800</v>
       </c>
       <c r="I18" s="3">
-        <v>223500</v>
+        <v>234700</v>
       </c>
       <c r="J18" s="3">
+        <v>232900</v>
+      </c>
+      <c r="K18" s="3">
         <v>202900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>192400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>180200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>201500</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6400</v>
+        <v>-30600</v>
       </c>
       <c r="E20" s="3">
-        <v>27800</v>
+        <v>-6700</v>
       </c>
       <c r="F20" s="3">
-        <v>-18800</v>
+        <v>29000</v>
       </c>
       <c r="G20" s="3">
-        <v>-1800</v>
+        <v>-19600</v>
       </c>
       <c r="H20" s="3">
-        <v>-3300</v>
+        <v>-1900</v>
       </c>
       <c r="I20" s="3">
-        <v>-9300</v>
+        <v>-3400</v>
       </c>
       <c r="J20" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-15200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-10400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8300</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>267900</v>
+        <v>314900</v>
       </c>
       <c r="E21" s="3">
-        <v>328300</v>
+        <v>279200</v>
       </c>
       <c r="F21" s="3">
-        <v>230100</v>
+        <v>342100</v>
       </c>
       <c r="G21" s="3">
-        <v>260100</v>
+        <v>239800</v>
       </c>
       <c r="H21" s="3">
-        <v>221900</v>
+        <v>271000</v>
       </c>
       <c r="I21" s="3">
-        <v>214100</v>
+        <v>231300</v>
       </c>
       <c r="J21" s="3">
+        <v>223100</v>
+      </c>
+      <c r="K21" s="3">
         <v>187800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>181900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>246000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>268700</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>56100</v>
+        <v>62900</v>
       </c>
       <c r="E22" s="3">
-        <v>47000</v>
+        <v>58400</v>
       </c>
       <c r="F22" s="3">
-        <v>48000</v>
+        <v>49000</v>
       </c>
       <c r="G22" s="3">
-        <v>56800</v>
+        <v>50100</v>
       </c>
       <c r="H22" s="3">
-        <v>54300</v>
+        <v>59200</v>
       </c>
       <c r="I22" s="3">
-        <v>59800</v>
+        <v>56600</v>
       </c>
       <c r="J22" s="3">
+        <v>62300</v>
+      </c>
+      <c r="K22" s="3">
         <v>71300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>34700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>14300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10900</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>220700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>293200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>189700</v>
+      </c>
+      <c r="H23" s="3">
         <v>211800</v>
       </c>
-      <c r="E23" s="3">
-        <v>281300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>182100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>203300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>167600</v>
-      </c>
       <c r="I23" s="3">
-        <v>154400</v>
+        <v>174700</v>
       </c>
       <c r="J23" s="3">
+        <v>160900</v>
+      </c>
+      <c r="K23" s="3">
         <v>116400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>147200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>162300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>198900</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>65300</v>
+        <v>57300</v>
       </c>
       <c r="E24" s="3">
-        <v>72800</v>
+        <v>68100</v>
       </c>
       <c r="F24" s="3">
-        <v>66100</v>
+        <v>75800</v>
       </c>
       <c r="G24" s="3">
-        <v>61600</v>
+        <v>68900</v>
       </c>
       <c r="H24" s="3">
-        <v>58100</v>
+        <v>64200</v>
       </c>
       <c r="I24" s="3">
-        <v>49600</v>
+        <v>60500</v>
       </c>
       <c r="J24" s="3">
+        <v>51600</v>
+      </c>
+      <c r="K24" s="3">
         <v>26200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>29900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>49300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>52400</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>194700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>152700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>217300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>120800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>147600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>114100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>109200</v>
+      </c>
+      <c r="K26" s="3">
+        <v>90200</v>
+      </c>
+      <c r="L26" s="3">
+        <v>117300</v>
+      </c>
+      <c r="M26" s="3">
+        <v>113000</v>
+      </c>
+      <c r="N26" s="3">
         <v>146500</v>
       </c>
-      <c r="E26" s="3">
-        <v>208500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>116000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>141600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>109500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>104800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>90200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>117300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>113000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>146500</v>
-      </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>145200</v>
+        <v>191800</v>
       </c>
       <c r="E27" s="3">
-        <v>206700</v>
+        <v>151300</v>
       </c>
       <c r="F27" s="3">
-        <v>115000</v>
+        <v>215400</v>
       </c>
       <c r="G27" s="3">
-        <v>140200</v>
+        <v>119800</v>
       </c>
       <c r="H27" s="3">
-        <v>107700</v>
+        <v>146100</v>
       </c>
       <c r="I27" s="3">
-        <v>104600</v>
+        <v>112300</v>
       </c>
       <c r="J27" s="3">
+        <v>109000</v>
+      </c>
+      <c r="K27" s="3">
         <v>89800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>115700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>112200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>146500</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6400</v>
+        <v>30600</v>
       </c>
       <c r="E32" s="3">
-        <v>-27800</v>
+        <v>6700</v>
       </c>
       <c r="F32" s="3">
-        <v>18800</v>
+        <v>-29000</v>
       </c>
       <c r="G32" s="3">
-        <v>1800</v>
+        <v>19600</v>
       </c>
       <c r="H32" s="3">
-        <v>3300</v>
+        <v>1900</v>
       </c>
       <c r="I32" s="3">
-        <v>9300</v>
+        <v>3400</v>
       </c>
       <c r="J32" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K32" s="3">
         <v>15200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>10400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8300</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>145200</v>
+        <v>191800</v>
       </c>
       <c r="E33" s="3">
-        <v>206700</v>
+        <v>151300</v>
       </c>
       <c r="F33" s="3">
-        <v>115000</v>
+        <v>215400</v>
       </c>
       <c r="G33" s="3">
-        <v>140200</v>
+        <v>119800</v>
       </c>
       <c r="H33" s="3">
-        <v>107700</v>
+        <v>146100</v>
       </c>
       <c r="I33" s="3">
-        <v>104600</v>
+        <v>112300</v>
       </c>
       <c r="J33" s="3">
+        <v>109000</v>
+      </c>
+      <c r="K33" s="3">
         <v>89800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>115700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>112200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>146500</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>145200</v>
+        <v>191800</v>
       </c>
       <c r="E35" s="3">
-        <v>206700</v>
+        <v>151300</v>
       </c>
       <c r="F35" s="3">
-        <v>115000</v>
+        <v>215400</v>
       </c>
       <c r="G35" s="3">
-        <v>140200</v>
+        <v>119800</v>
       </c>
       <c r="H35" s="3">
-        <v>107700</v>
+        <v>146100</v>
       </c>
       <c r="I35" s="3">
-        <v>104600</v>
+        <v>112300</v>
       </c>
       <c r="J35" s="3">
+        <v>109000</v>
+      </c>
+      <c r="K35" s="3">
         <v>89800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>115700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>112200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>146500</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>368300</v>
+        <v>117800</v>
       </c>
       <c r="E41" s="3">
-        <v>187500</v>
+        <v>103300</v>
       </c>
       <c r="F41" s="3">
-        <v>163700</v>
+        <v>66400</v>
       </c>
       <c r="G41" s="3">
-        <v>162100</v>
+        <v>63000</v>
       </c>
       <c r="H41" s="3">
-        <v>168100</v>
+        <v>49600</v>
       </c>
       <c r="I41" s="3">
-        <v>153700</v>
+        <v>34600</v>
       </c>
       <c r="J41" s="3">
+        <v>50200</v>
+      </c>
+      <c r="K41" s="3">
         <v>94600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>104000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>32100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24900</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>167000</v>
+        <v>500800</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>454500</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>129100</v>
       </c>
       <c r="G42" s="3">
-        <v>16300</v>
+        <v>107500</v>
       </c>
       <c r="H42" s="3">
-        <v>66000</v>
+        <v>136300</v>
       </c>
       <c r="I42" s="3">
-        <v>104100</v>
+        <v>209400</v>
       </c>
       <c r="J42" s="3">
+        <v>218500</v>
+      </c>
+      <c r="K42" s="3">
         <v>126800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>47400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>39000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>22400</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>245600</v>
+        <v>356100</v>
       </c>
       <c r="E43" s="3">
-        <v>252200</v>
+        <v>255900</v>
       </c>
       <c r="F43" s="3">
-        <v>211200</v>
+        <v>262800</v>
       </c>
       <c r="G43" s="3">
-        <v>224600</v>
+        <v>220000</v>
       </c>
       <c r="H43" s="3">
-        <v>225200</v>
+        <v>234100</v>
       </c>
       <c r="I43" s="3">
-        <v>217100</v>
+        <v>234700</v>
       </c>
       <c r="J43" s="3">
+        <v>226200</v>
+      </c>
+      <c r="K43" s="3">
         <v>244600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>269000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>202400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>228100</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>152300</v>
+        <v>237300</v>
       </c>
       <c r="E44" s="3">
-        <v>175700</v>
+        <v>158700</v>
       </c>
       <c r="F44" s="3">
-        <v>180100</v>
+        <v>183100</v>
       </c>
       <c r="G44" s="3">
-        <v>156300</v>
+        <v>187600</v>
       </c>
       <c r="H44" s="3">
-        <v>172200</v>
+        <v>162900</v>
       </c>
       <c r="I44" s="3">
-        <v>158700</v>
+        <v>179400</v>
       </c>
       <c r="J44" s="3">
+        <v>165300</v>
+      </c>
+      <c r="K44" s="3">
         <v>178200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>163600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>114300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>86800</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15600</v>
+        <v>16900</v>
       </c>
       <c r="E45" s="3">
-        <v>19400</v>
+        <v>16300</v>
       </c>
       <c r="F45" s="3">
-        <v>18200</v>
+        <v>20200</v>
       </c>
       <c r="G45" s="3">
-        <v>16600</v>
+        <v>18900</v>
       </c>
       <c r="H45" s="3">
-        <v>26200</v>
+        <v>17300</v>
       </c>
       <c r="I45" s="3">
-        <v>17800</v>
+        <v>27300</v>
       </c>
       <c r="J45" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K45" s="3">
         <v>14700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>31000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>49700</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>948800</v>
+        <v>1228800</v>
       </c>
       <c r="E46" s="3">
-        <v>634800</v>
+        <v>988600</v>
       </c>
       <c r="F46" s="3">
-        <v>573100</v>
+        <v>661500</v>
       </c>
       <c r="G46" s="3">
-        <v>576000</v>
+        <v>597200</v>
       </c>
       <c r="H46" s="3">
-        <v>657800</v>
+        <v>600200</v>
       </c>
       <c r="I46" s="3">
-        <v>651400</v>
+        <v>685400</v>
       </c>
       <c r="J46" s="3">
+        <v>678800</v>
+      </c>
+      <c r="K46" s="3">
         <v>658900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>598800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>418800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>355700</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>197100</v>
+        <v>180600</v>
       </c>
       <c r="E47" s="3">
-        <v>244500</v>
+        <v>205400</v>
       </c>
       <c r="F47" s="3">
-        <v>139300</v>
+        <v>254700</v>
       </c>
       <c r="G47" s="3">
-        <v>109100</v>
+        <v>145200</v>
       </c>
       <c r="H47" s="3">
-        <v>99800</v>
+        <v>113600</v>
       </c>
       <c r="I47" s="3">
-        <v>75200</v>
+        <v>104000</v>
       </c>
       <c r="J47" s="3">
+        <v>78400</v>
+      </c>
+      <c r="K47" s="3">
         <v>147800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>109500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>102200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>101900</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>720600</v>
+        <v>888300</v>
       </c>
       <c r="E48" s="3">
-        <v>860000</v>
+        <v>750900</v>
       </c>
       <c r="F48" s="3">
-        <v>845800</v>
+        <v>896200</v>
       </c>
       <c r="G48" s="3">
-        <v>785100</v>
+        <v>881400</v>
       </c>
       <c r="H48" s="3">
-        <v>792700</v>
+        <v>818100</v>
       </c>
       <c r="I48" s="3">
-        <v>762200</v>
+        <v>826000</v>
       </c>
       <c r="J48" s="3">
+        <v>794300</v>
+      </c>
+      <c r="K48" s="3">
         <v>848600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>900800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>738000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>528600</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>836400</v>
+        <v>964300</v>
       </c>
       <c r="E49" s="3">
-        <v>947600</v>
+        <v>871500</v>
       </c>
       <c r="F49" s="3">
-        <v>935400</v>
+        <v>987400</v>
       </c>
       <c r="G49" s="3">
-        <v>900700</v>
+        <v>974700</v>
       </c>
       <c r="H49" s="3">
-        <v>932900</v>
+        <v>938500</v>
       </c>
       <c r="I49" s="3">
-        <v>906200</v>
+        <v>972100</v>
       </c>
       <c r="J49" s="3">
+        <v>944300</v>
+      </c>
+      <c r="K49" s="3">
         <v>1005700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1061300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>677600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>88600</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>210300</v>
+        <v>391100</v>
       </c>
       <c r="E52" s="3">
-        <v>158300</v>
+        <v>219100</v>
       </c>
       <c r="F52" s="3">
-        <v>141600</v>
+        <v>165000</v>
       </c>
       <c r="G52" s="3">
-        <v>145900</v>
+        <v>147600</v>
       </c>
       <c r="H52" s="3">
-        <v>133800</v>
+        <v>152000</v>
       </c>
       <c r="I52" s="3">
-        <v>234100</v>
+        <v>139400</v>
       </c>
       <c r="J52" s="3">
+        <v>243900</v>
+      </c>
+      <c r="K52" s="3">
         <v>39300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>37400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>34500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>45600</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2913200</v>
+        <v>3653200</v>
       </c>
       <c r="E54" s="3">
-        <v>2845200</v>
+        <v>3035600</v>
       </c>
       <c r="F54" s="3">
-        <v>2635300</v>
+        <v>2964800</v>
       </c>
       <c r="G54" s="3">
-        <v>2516700</v>
+        <v>2746000</v>
       </c>
       <c r="H54" s="3">
-        <v>2616900</v>
+        <v>2622400</v>
       </c>
       <c r="I54" s="3">
-        <v>2629100</v>
+        <v>2726900</v>
       </c>
       <c r="J54" s="3">
+        <v>2739600</v>
+      </c>
+      <c r="K54" s="3">
         <v>2700300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2707800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1971000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1120400</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>321300</v>
+        <v>475600</v>
       </c>
       <c r="E57" s="3">
-        <v>353800</v>
+        <v>334800</v>
       </c>
       <c r="F57" s="3">
-        <v>337900</v>
+        <v>368700</v>
       </c>
       <c r="G57" s="3">
-        <v>346900</v>
+        <v>352100</v>
       </c>
       <c r="H57" s="3">
-        <v>341500</v>
+        <v>361400</v>
       </c>
       <c r="I57" s="3">
-        <v>310800</v>
+        <v>355800</v>
       </c>
       <c r="J57" s="3">
+        <v>323900</v>
+      </c>
+      <c r="K57" s="3">
         <v>257900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>268300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>245700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>187700</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>44400</v>
+        <v>41700</v>
       </c>
       <c r="E58" s="3">
-        <v>47900</v>
+        <v>31300</v>
       </c>
       <c r="F58" s="3">
+        <v>36000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>54200</v>
+      </c>
+      <c r="H58" s="3">
         <v>66600</v>
       </c>
-      <c r="G58" s="3">
-        <v>80400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>75600</v>
-      </c>
       <c r="I58" s="3">
-        <v>73900</v>
+        <v>62200</v>
       </c>
       <c r="J58" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K58" s="3">
         <v>94000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>137600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>136000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>34900</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>84200</v>
+        <v>139400</v>
       </c>
       <c r="E59" s="3">
-        <v>88200</v>
+        <v>102700</v>
       </c>
       <c r="F59" s="3">
-        <v>95100</v>
+        <v>105700</v>
       </c>
       <c r="G59" s="3">
-        <v>82400</v>
+        <v>114300</v>
       </c>
       <c r="H59" s="3">
-        <v>82100</v>
+        <v>103100</v>
       </c>
       <c r="I59" s="3">
-        <v>68200</v>
+        <v>102200</v>
       </c>
       <c r="J59" s="3">
+        <v>91200</v>
+      </c>
+      <c r="K59" s="3">
         <v>136200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>116900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>60400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>74300</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>449900</v>
+        <v>656700</v>
       </c>
       <c r="E60" s="3">
-        <v>489900</v>
+        <v>468800</v>
       </c>
       <c r="F60" s="3">
-        <v>499600</v>
+        <v>510500</v>
       </c>
       <c r="G60" s="3">
-        <v>509700</v>
+        <v>520600</v>
       </c>
       <c r="H60" s="3">
-        <v>499200</v>
+        <v>531100</v>
       </c>
       <c r="I60" s="3">
-        <v>452900</v>
+        <v>520200</v>
       </c>
       <c r="J60" s="3">
+        <v>471900</v>
+      </c>
+      <c r="K60" s="3">
         <v>488200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>522800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>442100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>296900</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1116500</v>
+        <v>1290900</v>
       </c>
       <c r="E61" s="3">
-        <v>884600</v>
+        <v>1163400</v>
       </c>
       <c r="F61" s="3">
-        <v>852700</v>
+        <v>921700</v>
       </c>
       <c r="G61" s="3">
-        <v>804200</v>
+        <v>888500</v>
       </c>
       <c r="H61" s="3">
-        <v>858700</v>
+        <v>838000</v>
       </c>
       <c r="I61" s="3">
-        <v>910700</v>
+        <v>894700</v>
       </c>
       <c r="J61" s="3">
+        <v>949000</v>
+      </c>
+      <c r="K61" s="3">
         <v>864700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>785700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>222600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>112700</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>357200</v>
+        <v>339900</v>
       </c>
       <c r="E62" s="3">
-        <v>317800</v>
+        <v>372200</v>
       </c>
       <c r="F62" s="3">
-        <v>255100</v>
+        <v>331200</v>
       </c>
       <c r="G62" s="3">
-        <v>235100</v>
+        <v>265800</v>
       </c>
       <c r="H62" s="3">
-        <v>256800</v>
+        <v>245000</v>
       </c>
       <c r="I62" s="3">
-        <v>252200</v>
+        <v>267600</v>
       </c>
       <c r="J62" s="3">
+        <v>262800</v>
+      </c>
+      <c r="K62" s="3">
         <v>253900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>253500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>162500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>73500</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1947900</v>
+        <v>2318800</v>
       </c>
       <c r="E66" s="3">
-        <v>1716300</v>
+        <v>2029700</v>
       </c>
       <c r="F66" s="3">
-        <v>1631100</v>
+        <v>1788500</v>
       </c>
       <c r="G66" s="3">
-        <v>1575000</v>
+        <v>1699700</v>
       </c>
       <c r="H66" s="3">
-        <v>1640400</v>
+        <v>1641200</v>
       </c>
       <c r="I66" s="3">
-        <v>1640900</v>
+        <v>1709300</v>
       </c>
       <c r="J66" s="3">
+        <v>1709800</v>
+      </c>
+      <c r="K66" s="3">
         <v>1632500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1589000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>852100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>483200</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1293900</v>
+        <v>1489600</v>
       </c>
       <c r="E72" s="3">
-        <v>1230500</v>
+        <v>1348300</v>
       </c>
       <c r="F72" s="3">
-        <v>1065500</v>
+        <v>1282200</v>
       </c>
       <c r="G72" s="3">
-        <v>907600</v>
+        <v>1110300</v>
       </c>
       <c r="H72" s="3">
-        <v>860200</v>
+        <v>945700</v>
       </c>
       <c r="I72" s="3">
-        <v>835300</v>
+        <v>896300</v>
       </c>
       <c r="J72" s="3">
+        <v>870300</v>
+      </c>
+      <c r="K72" s="3">
         <v>803200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>871400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>853700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>322400</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>965300</v>
+        <v>1334400</v>
       </c>
       <c r="E76" s="3">
-        <v>1128900</v>
+        <v>1005900</v>
       </c>
       <c r="F76" s="3">
-        <v>1004100</v>
+        <v>1176300</v>
       </c>
       <c r="G76" s="3">
-        <v>941700</v>
+        <v>1046300</v>
       </c>
       <c r="H76" s="3">
-        <v>976500</v>
+        <v>981200</v>
       </c>
       <c r="I76" s="3">
-        <v>988300</v>
+        <v>1017600</v>
       </c>
       <c r="J76" s="3">
+        <v>1029800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1067800</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1118900</v>
       </c>
       <c r="L76" s="3">
         <v>1118900</v>
       </c>
       <c r="M76" s="3">
+        <v>1118900</v>
+      </c>
+      <c r="N76" s="3">
         <v>637200</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>145200</v>
+        <v>191800</v>
       </c>
       <c r="E81" s="3">
-        <v>206700</v>
+        <v>151300</v>
       </c>
       <c r="F81" s="3">
-        <v>115000</v>
+        <v>215400</v>
       </c>
       <c r="G81" s="3">
-        <v>140200</v>
+        <v>119800</v>
       </c>
       <c r="H81" s="3">
-        <v>107700</v>
+        <v>146100</v>
       </c>
       <c r="I81" s="3">
-        <v>104600</v>
+        <v>112300</v>
       </c>
       <c r="J81" s="3">
+        <v>109000</v>
+      </c>
+      <c r="K81" s="3">
         <v>89800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>115700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>112200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>146500</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,8 +3294,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3127,14 +3325,17 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>68900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>59700</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>328900</v>
+        <v>370600</v>
       </c>
       <c r="E89" s="3">
-        <v>301200</v>
+        <v>342700</v>
       </c>
       <c r="F89" s="3">
-        <v>274200</v>
+        <v>313900</v>
       </c>
       <c r="G89" s="3">
-        <v>295100</v>
+        <v>285700</v>
       </c>
       <c r="H89" s="3">
-        <v>265900</v>
+        <v>307500</v>
       </c>
       <c r="I89" s="3">
-        <v>315200</v>
+        <v>277100</v>
       </c>
       <c r="J89" s="3">
+        <v>328500</v>
+      </c>
+      <c r="K89" s="3">
         <v>256500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>223700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>241700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>209800</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-102200</v>
+        <v>-172200</v>
       </c>
       <c r="E91" s="3">
-        <v>-131700</v>
+        <v>-106500</v>
       </c>
       <c r="F91" s="3">
-        <v>-144100</v>
+        <v>-137200</v>
       </c>
       <c r="G91" s="3">
-        <v>-200900</v>
+        <v>-150100</v>
       </c>
       <c r="H91" s="3">
-        <v>-152600</v>
+        <v>-209400</v>
       </c>
       <c r="I91" s="3">
-        <v>-133800</v>
+        <v>-159000</v>
       </c>
       <c r="J91" s="3">
+        <v>-139400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-135900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-238800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-184000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-191700</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-266400</v>
+        <v>-245800</v>
       </c>
       <c r="E94" s="3">
-        <v>-131000</v>
+        <v>-277600</v>
       </c>
       <c r="F94" s="3">
-        <v>-140500</v>
+        <v>-136500</v>
       </c>
       <c r="G94" s="3">
-        <v>-200900</v>
+        <v>-146400</v>
       </c>
       <c r="H94" s="3">
-        <v>-135600</v>
+        <v>-209400</v>
       </c>
       <c r="I94" s="3">
-        <v>-122700</v>
+        <v>-141300</v>
       </c>
       <c r="J94" s="3">
+        <v>-127900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-198500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-581800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-199900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-135300</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-119000</v>
+        <v>-131900</v>
       </c>
       <c r="E96" s="3">
-        <v>-102700</v>
+        <v>-124000</v>
       </c>
       <c r="F96" s="3">
-        <v>-104200</v>
+        <v>-107000</v>
       </c>
       <c r="G96" s="3">
-        <v>-89200</v>
+        <v>-108500</v>
       </c>
       <c r="H96" s="3">
-        <v>-80400</v>
+        <v>-93000</v>
       </c>
       <c r="I96" s="3">
-        <v>-64600</v>
+        <v>-83800</v>
       </c>
       <c r="J96" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-62200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-95000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-89300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-107100</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>134500</v>
+        <v>-143000</v>
       </c>
       <c r="E100" s="3">
-        <v>-151300</v>
+        <v>140200</v>
       </c>
       <c r="F100" s="3">
-        <v>-136400</v>
+        <v>-157600</v>
       </c>
       <c r="G100" s="3">
-        <v>-93200</v>
+        <v>-142100</v>
       </c>
       <c r="H100" s="3">
-        <v>-116900</v>
+        <v>-97100</v>
       </c>
       <c r="I100" s="3">
-        <v>-117300</v>
+        <v>-121800</v>
       </c>
       <c r="J100" s="3">
+        <v>-122200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-55800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>394000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-101400</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-16200</v>
+        <v>11800</v>
       </c>
       <c r="E101" s="3">
-        <v>4800</v>
+        <v>-16800</v>
       </c>
       <c r="F101" s="3">
-        <v>4300</v>
+        <v>5000</v>
       </c>
       <c r="G101" s="3">
-        <v>-6900</v>
+        <v>4400</v>
       </c>
       <c r="H101" s="3">
-        <v>900</v>
+        <v>-7200</v>
       </c>
       <c r="I101" s="3">
-        <v>-16100</v>
+        <v>1000</v>
       </c>
       <c r="J101" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1300</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>180800</v>
+        <v>-6500</v>
       </c>
       <c r="E102" s="3">
-        <v>23800</v>
+        <v>188400</v>
       </c>
       <c r="F102" s="3">
-        <v>1500</v>
+        <v>24800</v>
       </c>
       <c r="G102" s="3">
-        <v>-6000</v>
+        <v>1600</v>
       </c>
       <c r="H102" s="3">
-        <v>14400</v>
+        <v>-6200</v>
       </c>
       <c r="I102" s="3">
-        <v>59100</v>
+        <v>15000</v>
       </c>
       <c r="J102" s="3">
+        <v>61600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>31800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>31000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-25600</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2748700</v>
+        <v>2571400</v>
       </c>
       <c r="E8" s="3">
-        <v>2105900</v>
+        <v>1970000</v>
       </c>
       <c r="F8" s="3">
-        <v>2206000</v>
+        <v>2063700</v>
       </c>
       <c r="G8" s="3">
-        <v>2074400</v>
+        <v>1940600</v>
       </c>
       <c r="H8" s="3">
-        <v>2292600</v>
+        <v>2144700</v>
       </c>
       <c r="I8" s="3">
-        <v>2204000</v>
+        <v>2061900</v>
       </c>
       <c r="J8" s="3">
-        <v>2328000</v>
+        <v>2177800</v>
       </c>
       <c r="K8" s="3">
         <v>2138700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1705500</v>
+        <v>1595500</v>
       </c>
       <c r="E9" s="3">
-        <v>1267900</v>
+        <v>1186100</v>
       </c>
       <c r="F9" s="3">
-        <v>1299900</v>
+        <v>1216100</v>
       </c>
       <c r="G9" s="3">
-        <v>1200400</v>
+        <v>1122900</v>
       </c>
       <c r="H9" s="3">
-        <v>1325600</v>
+        <v>1240100</v>
       </c>
       <c r="I9" s="3">
-        <v>1282000</v>
+        <v>1199300</v>
       </c>
       <c r="J9" s="3">
-        <v>1372300</v>
+        <v>1283800</v>
       </c>
       <c r="K9" s="3">
         <v>1286700</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1043300</v>
+        <v>976000</v>
       </c>
       <c r="E10" s="3">
-        <v>838000</v>
+        <v>783900</v>
       </c>
       <c r="F10" s="3">
-        <v>906000</v>
+        <v>847600</v>
       </c>
       <c r="G10" s="3">
-        <v>874100</v>
+        <v>817700</v>
       </c>
       <c r="H10" s="3">
-        <v>967000</v>
+        <v>904600</v>
       </c>
       <c r="I10" s="3">
-        <v>922000</v>
+        <v>862500</v>
       </c>
       <c r="J10" s="3">
-        <v>955700</v>
+        <v>894000</v>
       </c>
       <c r="K10" s="3">
         <v>852000</v>
@@ -938,22 +938,22 @@
         <v>500</v>
       </c>
       <c r="E14" s="3">
-        <v>9900</v>
+        <v>9200</v>
       </c>
       <c r="F14" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="G14" s="3">
         <v>300</v>
       </c>
       <c r="H14" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="I14" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="J14" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="K14" s="3">
         <v>6900</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2403300</v>
+        <v>2248300</v>
       </c>
       <c r="E17" s="3">
-        <v>1820000</v>
+        <v>1702600</v>
       </c>
       <c r="F17" s="3">
-        <v>1892800</v>
+        <v>1770700</v>
       </c>
       <c r="G17" s="3">
-        <v>1815000</v>
+        <v>1697900</v>
       </c>
       <c r="H17" s="3">
-        <v>2019800</v>
+        <v>1889500</v>
       </c>
       <c r="I17" s="3">
-        <v>1969300</v>
+        <v>1842300</v>
       </c>
       <c r="J17" s="3">
-        <v>2095100</v>
+        <v>1959900</v>
       </c>
       <c r="K17" s="3">
         <v>1935700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>345400</v>
+        <v>323100</v>
       </c>
       <c r="E18" s="3">
-        <v>285900</v>
+        <v>267400</v>
       </c>
       <c r="F18" s="3">
-        <v>313200</v>
+        <v>293000</v>
       </c>
       <c r="G18" s="3">
-        <v>259400</v>
+        <v>242700</v>
       </c>
       <c r="H18" s="3">
-        <v>272800</v>
+        <v>255200</v>
       </c>
       <c r="I18" s="3">
-        <v>234700</v>
+        <v>219600</v>
       </c>
       <c r="J18" s="3">
-        <v>232900</v>
+        <v>217800</v>
       </c>
       <c r="K18" s="3">
         <v>202900</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-30600</v>
+        <v>-28600</v>
       </c>
       <c r="E20" s="3">
-        <v>-6700</v>
+        <v>-6300</v>
       </c>
       <c r="F20" s="3">
-        <v>29000</v>
+        <v>27100</v>
       </c>
       <c r="G20" s="3">
-        <v>-19600</v>
+        <v>-18400</v>
       </c>
       <c r="H20" s="3">
-        <v>-1900</v>
+        <v>-1700</v>
       </c>
       <c r="I20" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="J20" s="3">
-        <v>-9700</v>
+        <v>-9100</v>
       </c>
       <c r="K20" s="3">
         <v>-15200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>314900</v>
+        <v>294500</v>
       </c>
       <c r="E21" s="3">
-        <v>279200</v>
+        <v>261200</v>
       </c>
       <c r="F21" s="3">
-        <v>342100</v>
+        <v>320000</v>
       </c>
       <c r="G21" s="3">
-        <v>239800</v>
+        <v>224300</v>
       </c>
       <c r="H21" s="3">
-        <v>271000</v>
+        <v>253500</v>
       </c>
       <c r="I21" s="3">
-        <v>231300</v>
+        <v>216300</v>
       </c>
       <c r="J21" s="3">
-        <v>223100</v>
+        <v>208700</v>
       </c>
       <c r="K21" s="3">
         <v>187800</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>62900</v>
+        <v>58800</v>
       </c>
       <c r="E22" s="3">
-        <v>58400</v>
+        <v>54700</v>
       </c>
       <c r="F22" s="3">
-        <v>49000</v>
+        <v>45800</v>
       </c>
       <c r="G22" s="3">
-        <v>50100</v>
+        <v>46800</v>
       </c>
       <c r="H22" s="3">
-        <v>59200</v>
+        <v>55400</v>
       </c>
       <c r="I22" s="3">
-        <v>56600</v>
+        <v>52900</v>
       </c>
       <c r="J22" s="3">
-        <v>62300</v>
+        <v>58200</v>
       </c>
       <c r="K22" s="3">
         <v>71300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>252000</v>
+        <v>235700</v>
       </c>
       <c r="E23" s="3">
-        <v>220700</v>
+        <v>206500</v>
       </c>
       <c r="F23" s="3">
-        <v>293200</v>
+        <v>274200</v>
       </c>
       <c r="G23" s="3">
-        <v>189700</v>
+        <v>177500</v>
       </c>
       <c r="H23" s="3">
-        <v>211800</v>
+        <v>198100</v>
       </c>
       <c r="I23" s="3">
-        <v>174700</v>
+        <v>163400</v>
       </c>
       <c r="J23" s="3">
-        <v>160900</v>
+        <v>150500</v>
       </c>
       <c r="K23" s="3">
         <v>116400</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>57300</v>
+        <v>53600</v>
       </c>
       <c r="E24" s="3">
-        <v>68100</v>
+        <v>63700</v>
       </c>
       <c r="F24" s="3">
-        <v>75800</v>
+        <v>71000</v>
       </c>
       <c r="G24" s="3">
-        <v>68900</v>
+        <v>64500</v>
       </c>
       <c r="H24" s="3">
-        <v>64200</v>
+        <v>60100</v>
       </c>
       <c r="I24" s="3">
-        <v>60500</v>
+        <v>56600</v>
       </c>
       <c r="J24" s="3">
-        <v>51600</v>
+        <v>48300</v>
       </c>
       <c r="K24" s="3">
         <v>26200</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>194700</v>
+        <v>182200</v>
       </c>
       <c r="E26" s="3">
-        <v>152700</v>
+        <v>142800</v>
       </c>
       <c r="F26" s="3">
-        <v>217300</v>
+        <v>203300</v>
       </c>
       <c r="G26" s="3">
-        <v>120800</v>
+        <v>113000</v>
       </c>
       <c r="H26" s="3">
-        <v>147600</v>
+        <v>138000</v>
       </c>
       <c r="I26" s="3">
-        <v>114100</v>
+        <v>106800</v>
       </c>
       <c r="J26" s="3">
-        <v>109200</v>
+        <v>102200</v>
       </c>
       <c r="K26" s="3">
         <v>90200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>191800</v>
+        <v>179400</v>
       </c>
       <c r="E27" s="3">
-        <v>151300</v>
+        <v>141500</v>
       </c>
       <c r="F27" s="3">
-        <v>215400</v>
+        <v>201500</v>
       </c>
       <c r="G27" s="3">
-        <v>119800</v>
+        <v>112100</v>
       </c>
       <c r="H27" s="3">
-        <v>146100</v>
+        <v>136700</v>
       </c>
       <c r="I27" s="3">
-        <v>112300</v>
+        <v>105000</v>
       </c>
       <c r="J27" s="3">
-        <v>109000</v>
+        <v>101900</v>
       </c>
       <c r="K27" s="3">
         <v>89800</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>30600</v>
+        <v>28600</v>
       </c>
       <c r="E32" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="F32" s="3">
-        <v>-29000</v>
+        <v>-27100</v>
       </c>
       <c r="G32" s="3">
-        <v>19600</v>
+        <v>18400</v>
       </c>
       <c r="H32" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="I32" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="J32" s="3">
-        <v>9700</v>
+        <v>9100</v>
       </c>
       <c r="K32" s="3">
         <v>15200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>191800</v>
+        <v>179400</v>
       </c>
       <c r="E33" s="3">
-        <v>151300</v>
+        <v>141500</v>
       </c>
       <c r="F33" s="3">
-        <v>215400</v>
+        <v>201500</v>
       </c>
       <c r="G33" s="3">
-        <v>119800</v>
+        <v>112100</v>
       </c>
       <c r="H33" s="3">
-        <v>146100</v>
+        <v>136700</v>
       </c>
       <c r="I33" s="3">
-        <v>112300</v>
+        <v>105000</v>
       </c>
       <c r="J33" s="3">
-        <v>109000</v>
+        <v>101900</v>
       </c>
       <c r="K33" s="3">
         <v>89800</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>191800</v>
+        <v>179400</v>
       </c>
       <c r="E35" s="3">
-        <v>151300</v>
+        <v>141500</v>
       </c>
       <c r="F35" s="3">
-        <v>215400</v>
+        <v>201500</v>
       </c>
       <c r="G35" s="3">
-        <v>119800</v>
+        <v>112100</v>
       </c>
       <c r="H35" s="3">
-        <v>146100</v>
+        <v>136700</v>
       </c>
       <c r="I35" s="3">
-        <v>112300</v>
+        <v>105000</v>
       </c>
       <c r="J35" s="3">
-        <v>109000</v>
+        <v>101900</v>
       </c>
       <c r="K35" s="3">
         <v>89800</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>117800</v>
+        <v>110200</v>
       </c>
       <c r="E41" s="3">
-        <v>103300</v>
+        <v>96700</v>
       </c>
       <c r="F41" s="3">
-        <v>66400</v>
+        <v>62100</v>
       </c>
       <c r="G41" s="3">
-        <v>63000</v>
+        <v>59000</v>
       </c>
       <c r="H41" s="3">
-        <v>49600</v>
+        <v>46400</v>
       </c>
       <c r="I41" s="3">
-        <v>34600</v>
+        <v>32400</v>
       </c>
       <c r="J41" s="3">
-        <v>50200</v>
+        <v>46900</v>
       </c>
       <c r="K41" s="3">
         <v>94600</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>500800</v>
+        <v>468500</v>
       </c>
       <c r="E42" s="3">
-        <v>454500</v>
+        <v>425100</v>
       </c>
       <c r="F42" s="3">
-        <v>129100</v>
+        <v>120700</v>
       </c>
       <c r="G42" s="3">
-        <v>107500</v>
+        <v>100600</v>
       </c>
       <c r="H42" s="3">
-        <v>136300</v>
+        <v>127500</v>
       </c>
       <c r="I42" s="3">
-        <v>209400</v>
+        <v>195900</v>
       </c>
       <c r="J42" s="3">
-        <v>218500</v>
+        <v>204400</v>
       </c>
       <c r="K42" s="3">
         <v>126800</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>356100</v>
+        <v>333100</v>
       </c>
       <c r="E43" s="3">
-        <v>255900</v>
+        <v>239400</v>
       </c>
       <c r="F43" s="3">
-        <v>262800</v>
+        <v>245800</v>
       </c>
       <c r="G43" s="3">
-        <v>220000</v>
+        <v>205800</v>
       </c>
       <c r="H43" s="3">
-        <v>234100</v>
+        <v>219000</v>
       </c>
       <c r="I43" s="3">
-        <v>234700</v>
+        <v>219500</v>
       </c>
       <c r="J43" s="3">
-        <v>226200</v>
+        <v>211600</v>
       </c>
       <c r="K43" s="3">
         <v>244600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>237300</v>
+        <v>222000</v>
       </c>
       <c r="E44" s="3">
-        <v>158700</v>
+        <v>148400</v>
       </c>
       <c r="F44" s="3">
-        <v>183100</v>
+        <v>171300</v>
       </c>
       <c r="G44" s="3">
-        <v>187600</v>
+        <v>175500</v>
       </c>
       <c r="H44" s="3">
-        <v>162900</v>
+        <v>152400</v>
       </c>
       <c r="I44" s="3">
-        <v>179400</v>
+        <v>167900</v>
       </c>
       <c r="J44" s="3">
-        <v>165300</v>
+        <v>154700</v>
       </c>
       <c r="K44" s="3">
         <v>178200</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16900</v>
+        <v>15800</v>
       </c>
       <c r="E45" s="3">
-        <v>16300</v>
+        <v>15200</v>
       </c>
       <c r="F45" s="3">
-        <v>20200</v>
+        <v>18900</v>
       </c>
       <c r="G45" s="3">
-        <v>18900</v>
+        <v>17700</v>
       </c>
       <c r="H45" s="3">
-        <v>17300</v>
+        <v>16200</v>
       </c>
       <c r="I45" s="3">
-        <v>27300</v>
+        <v>25600</v>
       </c>
       <c r="J45" s="3">
-        <v>18600</v>
+        <v>17400</v>
       </c>
       <c r="K45" s="3">
         <v>14700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1228800</v>
+        <v>1149500</v>
       </c>
       <c r="E46" s="3">
-        <v>988600</v>
+        <v>924900</v>
       </c>
       <c r="F46" s="3">
-        <v>661500</v>
+        <v>618800</v>
       </c>
       <c r="G46" s="3">
-        <v>597200</v>
+        <v>558600</v>
       </c>
       <c r="H46" s="3">
-        <v>600200</v>
+        <v>561500</v>
       </c>
       <c r="I46" s="3">
-        <v>685400</v>
+        <v>641200</v>
       </c>
       <c r="J46" s="3">
-        <v>678800</v>
+        <v>635000</v>
       </c>
       <c r="K46" s="3">
         <v>658900</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>180600</v>
+        <v>169000</v>
       </c>
       <c r="E47" s="3">
-        <v>205400</v>
+        <v>192200</v>
       </c>
       <c r="F47" s="3">
-        <v>254700</v>
+        <v>238300</v>
       </c>
       <c r="G47" s="3">
-        <v>145200</v>
+        <v>135800</v>
       </c>
       <c r="H47" s="3">
-        <v>113600</v>
+        <v>106300</v>
       </c>
       <c r="I47" s="3">
-        <v>104000</v>
+        <v>97300</v>
       </c>
       <c r="J47" s="3">
-        <v>78400</v>
+        <v>73300</v>
       </c>
       <c r="K47" s="3">
         <v>147800</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>888300</v>
+        <v>831000</v>
       </c>
       <c r="E48" s="3">
-        <v>750900</v>
+        <v>702500</v>
       </c>
       <c r="F48" s="3">
-        <v>896200</v>
+        <v>838400</v>
       </c>
       <c r="G48" s="3">
-        <v>881400</v>
+        <v>824500</v>
       </c>
       <c r="H48" s="3">
-        <v>818100</v>
+        <v>765300</v>
       </c>
       <c r="I48" s="3">
-        <v>826000</v>
+        <v>772700</v>
       </c>
       <c r="J48" s="3">
-        <v>794300</v>
+        <v>743000</v>
       </c>
       <c r="K48" s="3">
         <v>848600</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>964300</v>
+        <v>902100</v>
       </c>
       <c r="E49" s="3">
-        <v>871500</v>
+        <v>815300</v>
       </c>
       <c r="F49" s="3">
-        <v>987400</v>
+        <v>923700</v>
       </c>
       <c r="G49" s="3">
-        <v>974700</v>
+        <v>911800</v>
       </c>
       <c r="H49" s="3">
-        <v>938500</v>
+        <v>878000</v>
       </c>
       <c r="I49" s="3">
-        <v>972100</v>
+        <v>909300</v>
       </c>
       <c r="J49" s="3">
-        <v>944300</v>
+        <v>883300</v>
       </c>
       <c r="K49" s="3">
         <v>1005700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>391100</v>
+        <v>365900</v>
       </c>
       <c r="E52" s="3">
-        <v>219100</v>
+        <v>205000</v>
       </c>
       <c r="F52" s="3">
-        <v>165000</v>
+        <v>154300</v>
       </c>
       <c r="G52" s="3">
-        <v>147600</v>
+        <v>138100</v>
       </c>
       <c r="H52" s="3">
-        <v>152000</v>
+        <v>142200</v>
       </c>
       <c r="I52" s="3">
-        <v>139400</v>
+        <v>130400</v>
       </c>
       <c r="J52" s="3">
-        <v>243900</v>
+        <v>228200</v>
       </c>
       <c r="K52" s="3">
         <v>39300</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3653200</v>
+        <v>3417500</v>
       </c>
       <c r="E54" s="3">
-        <v>3035600</v>
+        <v>2839800</v>
       </c>
       <c r="F54" s="3">
-        <v>2964800</v>
+        <v>2773500</v>
       </c>
       <c r="G54" s="3">
-        <v>2746000</v>
+        <v>2568800</v>
       </c>
       <c r="H54" s="3">
-        <v>2622400</v>
+        <v>2453200</v>
       </c>
       <c r="I54" s="3">
-        <v>2726900</v>
+        <v>2551000</v>
       </c>
       <c r="J54" s="3">
-        <v>2739600</v>
+        <v>2562900</v>
       </c>
       <c r="K54" s="3">
         <v>2700300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>475600</v>
+        <v>444900</v>
       </c>
       <c r="E57" s="3">
-        <v>334800</v>
+        <v>313200</v>
       </c>
       <c r="F57" s="3">
-        <v>368700</v>
+        <v>344900</v>
       </c>
       <c r="G57" s="3">
-        <v>352100</v>
+        <v>329400</v>
       </c>
       <c r="H57" s="3">
-        <v>361400</v>
+        <v>338100</v>
       </c>
       <c r="I57" s="3">
-        <v>355800</v>
+        <v>332900</v>
       </c>
       <c r="J57" s="3">
-        <v>323900</v>
+        <v>303000</v>
       </c>
       <c r="K57" s="3">
         <v>257900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>41700</v>
+        <v>39000</v>
       </c>
       <c r="E58" s="3">
-        <v>31300</v>
+        <v>29300</v>
       </c>
       <c r="F58" s="3">
-        <v>36000</v>
+        <v>33700</v>
       </c>
       <c r="G58" s="3">
-        <v>54200</v>
+        <v>50700</v>
       </c>
       <c r="H58" s="3">
-        <v>66600</v>
+        <v>62300</v>
       </c>
       <c r="I58" s="3">
-        <v>62200</v>
+        <v>58100</v>
       </c>
       <c r="J58" s="3">
-        <v>56900</v>
+        <v>53200</v>
       </c>
       <c r="K58" s="3">
         <v>94000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>139400</v>
+        <v>130400</v>
       </c>
       <c r="E59" s="3">
-        <v>102700</v>
+        <v>96100</v>
       </c>
       <c r="F59" s="3">
-        <v>105700</v>
+        <v>98900</v>
       </c>
       <c r="G59" s="3">
-        <v>114300</v>
+        <v>106900</v>
       </c>
       <c r="H59" s="3">
-        <v>103100</v>
+        <v>96400</v>
       </c>
       <c r="I59" s="3">
-        <v>102200</v>
+        <v>95600</v>
       </c>
       <c r="J59" s="3">
-        <v>91200</v>
+        <v>85300</v>
       </c>
       <c r="K59" s="3">
         <v>136200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>656700</v>
+        <v>614300</v>
       </c>
       <c r="E60" s="3">
-        <v>468800</v>
+        <v>438500</v>
       </c>
       <c r="F60" s="3">
-        <v>510500</v>
+        <v>477500</v>
       </c>
       <c r="G60" s="3">
-        <v>520600</v>
+        <v>487000</v>
       </c>
       <c r="H60" s="3">
-        <v>531100</v>
+        <v>496800</v>
       </c>
       <c r="I60" s="3">
-        <v>520200</v>
+        <v>486700</v>
       </c>
       <c r="J60" s="3">
-        <v>471900</v>
+        <v>441500</v>
       </c>
       <c r="K60" s="3">
         <v>488200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1290900</v>
+        <v>1207600</v>
       </c>
       <c r="E61" s="3">
-        <v>1163400</v>
+        <v>1088400</v>
       </c>
       <c r="F61" s="3">
-        <v>921700</v>
+        <v>862300</v>
       </c>
       <c r="G61" s="3">
-        <v>888500</v>
+        <v>831200</v>
       </c>
       <c r="H61" s="3">
-        <v>838000</v>
+        <v>783900</v>
       </c>
       <c r="I61" s="3">
-        <v>894700</v>
+        <v>837000</v>
       </c>
       <c r="J61" s="3">
-        <v>949000</v>
+        <v>887700</v>
       </c>
       <c r="K61" s="3">
         <v>864700</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>339900</v>
+        <v>317900</v>
       </c>
       <c r="E62" s="3">
-        <v>372200</v>
+        <v>348200</v>
       </c>
       <c r="F62" s="3">
-        <v>331200</v>
+        <v>309800</v>
       </c>
       <c r="G62" s="3">
-        <v>265800</v>
+        <v>248700</v>
       </c>
       <c r="H62" s="3">
-        <v>245000</v>
+        <v>229200</v>
       </c>
       <c r="I62" s="3">
-        <v>267600</v>
+        <v>250400</v>
       </c>
       <c r="J62" s="3">
-        <v>262800</v>
+        <v>245900</v>
       </c>
       <c r="K62" s="3">
         <v>253900</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2318800</v>
+        <v>2169200</v>
       </c>
       <c r="E66" s="3">
-        <v>2029700</v>
+        <v>1898800</v>
       </c>
       <c r="F66" s="3">
-        <v>1788500</v>
+        <v>1673100</v>
       </c>
       <c r="G66" s="3">
-        <v>1699700</v>
+        <v>1590000</v>
       </c>
       <c r="H66" s="3">
-        <v>1641200</v>
+        <v>1535300</v>
       </c>
       <c r="I66" s="3">
-        <v>1709300</v>
+        <v>1599100</v>
       </c>
       <c r="J66" s="3">
-        <v>1709800</v>
+        <v>1599500</v>
       </c>
       <c r="K66" s="3">
         <v>1632500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1489600</v>
+        <v>1393500</v>
       </c>
       <c r="E72" s="3">
-        <v>1348300</v>
+        <v>1261300</v>
       </c>
       <c r="F72" s="3">
-        <v>1282200</v>
+        <v>1199500</v>
       </c>
       <c r="G72" s="3">
-        <v>1110300</v>
+        <v>1038600</v>
       </c>
       <c r="H72" s="3">
-        <v>945700</v>
+        <v>884700</v>
       </c>
       <c r="I72" s="3">
-        <v>896300</v>
+        <v>838500</v>
       </c>
       <c r="J72" s="3">
-        <v>870300</v>
+        <v>814200</v>
       </c>
       <c r="K72" s="3">
         <v>803200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1334400</v>
+        <v>1248300</v>
       </c>
       <c r="E76" s="3">
-        <v>1005900</v>
+        <v>941000</v>
       </c>
       <c r="F76" s="3">
-        <v>1176300</v>
+        <v>1100400</v>
       </c>
       <c r="G76" s="3">
-        <v>1046300</v>
+        <v>978800</v>
       </c>
       <c r="H76" s="3">
-        <v>981200</v>
+        <v>917900</v>
       </c>
       <c r="I76" s="3">
-        <v>1017600</v>
+        <v>951900</v>
       </c>
       <c r="J76" s="3">
-        <v>1029800</v>
+        <v>963300</v>
       </c>
       <c r="K76" s="3">
         <v>1067800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>191800</v>
+        <v>179400</v>
       </c>
       <c r="E81" s="3">
-        <v>151300</v>
+        <v>141500</v>
       </c>
       <c r="F81" s="3">
-        <v>215400</v>
+        <v>201500</v>
       </c>
       <c r="G81" s="3">
-        <v>119800</v>
+        <v>112100</v>
       </c>
       <c r="H81" s="3">
-        <v>146100</v>
+        <v>136700</v>
       </c>
       <c r="I81" s="3">
-        <v>112300</v>
+        <v>105000</v>
       </c>
       <c r="J81" s="3">
-        <v>109000</v>
+        <v>101900</v>
       </c>
       <c r="K81" s="3">
         <v>89800</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>370600</v>
+        <v>346700</v>
       </c>
       <c r="E89" s="3">
-        <v>342700</v>
+        <v>320600</v>
       </c>
       <c r="F89" s="3">
-        <v>313900</v>
+        <v>293600</v>
       </c>
       <c r="G89" s="3">
-        <v>285700</v>
+        <v>267300</v>
       </c>
       <c r="H89" s="3">
-        <v>307500</v>
+        <v>287600</v>
       </c>
       <c r="I89" s="3">
-        <v>277100</v>
+        <v>259200</v>
       </c>
       <c r="J89" s="3">
-        <v>328500</v>
+        <v>307300</v>
       </c>
       <c r="K89" s="3">
         <v>256500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-172200</v>
+        <v>-161100</v>
       </c>
       <c r="E91" s="3">
-        <v>-106500</v>
+        <v>-99600</v>
       </c>
       <c r="F91" s="3">
-        <v>-137200</v>
+        <v>-128400</v>
       </c>
       <c r="G91" s="3">
-        <v>-150100</v>
+        <v>-140400</v>
       </c>
       <c r="H91" s="3">
-        <v>-209400</v>
+        <v>-195900</v>
       </c>
       <c r="I91" s="3">
-        <v>-159000</v>
+        <v>-148700</v>
       </c>
       <c r="J91" s="3">
-        <v>-139400</v>
+        <v>-130400</v>
       </c>
       <c r="K91" s="3">
         <v>-135900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-245800</v>
+        <v>-230000</v>
       </c>
       <c r="E94" s="3">
-        <v>-277600</v>
+        <v>-259700</v>
       </c>
       <c r="F94" s="3">
-        <v>-136500</v>
+        <v>-127700</v>
       </c>
       <c r="G94" s="3">
-        <v>-146400</v>
+        <v>-137000</v>
       </c>
       <c r="H94" s="3">
-        <v>-209400</v>
+        <v>-195800</v>
       </c>
       <c r="I94" s="3">
-        <v>-141300</v>
+        <v>-132100</v>
       </c>
       <c r="J94" s="3">
-        <v>-127900</v>
+        <v>-119600</v>
       </c>
       <c r="K94" s="3">
         <v>-198500</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-131900</v>
+        <v>-123400</v>
       </c>
       <c r="E96" s="3">
-        <v>-124000</v>
+        <v>-116000</v>
       </c>
       <c r="F96" s="3">
-        <v>-107000</v>
+        <v>-100100</v>
       </c>
       <c r="G96" s="3">
-        <v>-108500</v>
+        <v>-101500</v>
       </c>
       <c r="H96" s="3">
-        <v>-93000</v>
+        <v>-87000</v>
       </c>
       <c r="I96" s="3">
-        <v>-83800</v>
+        <v>-78400</v>
       </c>
       <c r="J96" s="3">
-        <v>-67400</v>
+        <v>-63000</v>
       </c>
       <c r="K96" s="3">
         <v>-62200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-143000</v>
+        <v>-133800</v>
       </c>
       <c r="E100" s="3">
-        <v>140200</v>
+        <v>131100</v>
       </c>
       <c r="F100" s="3">
-        <v>-157600</v>
+        <v>-147500</v>
       </c>
       <c r="G100" s="3">
-        <v>-142100</v>
+        <v>-133000</v>
       </c>
       <c r="H100" s="3">
-        <v>-97100</v>
+        <v>-90900</v>
       </c>
       <c r="I100" s="3">
-        <v>-121800</v>
+        <v>-113900</v>
       </c>
       <c r="J100" s="3">
-        <v>-122200</v>
+        <v>-114300</v>
       </c>
       <c r="K100" s="3">
         <v>-55800</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="E101" s="3">
-        <v>-16800</v>
+        <v>-15700</v>
       </c>
       <c r="F101" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="G101" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="H101" s="3">
-        <v>-7200</v>
+        <v>-6700</v>
       </c>
       <c r="I101" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J101" s="3">
-        <v>-16800</v>
+        <v>-15700</v>
       </c>
       <c r="K101" s="3">
         <v>-2700</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6500</v>
+        <v>-6100</v>
       </c>
       <c r="E102" s="3">
-        <v>188400</v>
+        <v>176300</v>
       </c>
       <c r="F102" s="3">
-        <v>24800</v>
+        <v>23200</v>
       </c>
       <c r="G102" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H102" s="3">
-        <v>-6200</v>
+        <v>-5800</v>
       </c>
       <c r="I102" s="3">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="J102" s="3">
-        <v>61600</v>
+        <v>57600</v>
       </c>
       <c r="K102" s="3">
         <v>-500</v>

--- a/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2571400</v>
+        <v>2460600</v>
       </c>
       <c r="E8" s="3">
-        <v>1970000</v>
+        <v>1885100</v>
       </c>
       <c r="F8" s="3">
-        <v>2063700</v>
+        <v>1974700</v>
       </c>
       <c r="G8" s="3">
-        <v>1940600</v>
+        <v>1856900</v>
       </c>
       <c r="H8" s="3">
-        <v>2144700</v>
+        <v>2052300</v>
       </c>
       <c r="I8" s="3">
-        <v>2061900</v>
+        <v>1973000</v>
       </c>
       <c r="J8" s="3">
-        <v>2177800</v>
+        <v>2083900</v>
       </c>
       <c r="K8" s="3">
         <v>2138700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1595500</v>
+        <v>1526700</v>
       </c>
       <c r="E9" s="3">
-        <v>1186100</v>
+        <v>1135000</v>
       </c>
       <c r="F9" s="3">
-        <v>1216100</v>
+        <v>1163700</v>
       </c>
       <c r="G9" s="3">
-        <v>1122900</v>
+        <v>1074500</v>
       </c>
       <c r="H9" s="3">
-        <v>1240100</v>
+        <v>1186600</v>
       </c>
       <c r="I9" s="3">
-        <v>1199300</v>
+        <v>1147600</v>
       </c>
       <c r="J9" s="3">
-        <v>1283800</v>
+        <v>1228400</v>
       </c>
       <c r="K9" s="3">
         <v>1286700</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>976000</v>
+        <v>933900</v>
       </c>
       <c r="E10" s="3">
-        <v>783900</v>
+        <v>750100</v>
       </c>
       <c r="F10" s="3">
-        <v>847600</v>
+        <v>811100</v>
       </c>
       <c r="G10" s="3">
-        <v>817700</v>
+        <v>782400</v>
       </c>
       <c r="H10" s="3">
-        <v>904600</v>
+        <v>865600</v>
       </c>
       <c r="I10" s="3">
-        <v>862500</v>
+        <v>825300</v>
       </c>
       <c r="J10" s="3">
-        <v>894000</v>
+        <v>855500</v>
       </c>
       <c r="K10" s="3">
         <v>852000</v>
@@ -938,22 +938,22 @@
         <v>500</v>
       </c>
       <c r="E14" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="F14" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="G14" s="3">
         <v>300</v>
       </c>
       <c r="H14" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="I14" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="J14" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="K14" s="3">
         <v>6900</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2248300</v>
+        <v>2151400</v>
       </c>
       <c r="E17" s="3">
-        <v>1702600</v>
+        <v>1629200</v>
       </c>
       <c r="F17" s="3">
-        <v>1770700</v>
+        <v>1694400</v>
       </c>
       <c r="G17" s="3">
-        <v>1697900</v>
+        <v>1624700</v>
       </c>
       <c r="H17" s="3">
-        <v>1889500</v>
+        <v>1808000</v>
       </c>
       <c r="I17" s="3">
-        <v>1842300</v>
+        <v>1762900</v>
       </c>
       <c r="J17" s="3">
-        <v>1959900</v>
+        <v>1875500</v>
       </c>
       <c r="K17" s="3">
         <v>1935700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>323100</v>
+        <v>309200</v>
       </c>
       <c r="E18" s="3">
-        <v>267400</v>
+        <v>255900</v>
       </c>
       <c r="F18" s="3">
-        <v>293000</v>
+        <v>280300</v>
       </c>
       <c r="G18" s="3">
-        <v>242700</v>
+        <v>232200</v>
       </c>
       <c r="H18" s="3">
-        <v>255200</v>
+        <v>244200</v>
       </c>
       <c r="I18" s="3">
-        <v>219600</v>
+        <v>210100</v>
       </c>
       <c r="J18" s="3">
-        <v>217800</v>
+        <v>208400</v>
       </c>
       <c r="K18" s="3">
         <v>202900</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-28600</v>
+        <v>-27400</v>
       </c>
       <c r="E20" s="3">
-        <v>-6300</v>
+        <v>-6000</v>
       </c>
       <c r="F20" s="3">
-        <v>27100</v>
+        <v>25900</v>
       </c>
       <c r="G20" s="3">
-        <v>-18400</v>
+        <v>-17600</v>
       </c>
       <c r="H20" s="3">
         <v>-1700</v>
       </c>
       <c r="I20" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="J20" s="3">
-        <v>-9100</v>
+        <v>-8700</v>
       </c>
       <c r="K20" s="3">
         <v>-15200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>294500</v>
+        <v>281800</v>
       </c>
       <c r="E21" s="3">
-        <v>261200</v>
+        <v>249900</v>
       </c>
       <c r="F21" s="3">
-        <v>320000</v>
+        <v>306300</v>
       </c>
       <c r="G21" s="3">
-        <v>224300</v>
+        <v>214700</v>
       </c>
       <c r="H21" s="3">
-        <v>253500</v>
+        <v>242600</v>
       </c>
       <c r="I21" s="3">
-        <v>216300</v>
+        <v>207000</v>
       </c>
       <c r="J21" s="3">
-        <v>208700</v>
+        <v>199700</v>
       </c>
       <c r="K21" s="3">
         <v>187800</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>58800</v>
+        <v>56300</v>
       </c>
       <c r="E22" s="3">
-        <v>54700</v>
+        <v>52300</v>
       </c>
       <c r="F22" s="3">
-        <v>45800</v>
+        <v>43800</v>
       </c>
       <c r="G22" s="3">
-        <v>46800</v>
+        <v>44800</v>
       </c>
       <c r="H22" s="3">
-        <v>55400</v>
+        <v>53000</v>
       </c>
       <c r="I22" s="3">
-        <v>52900</v>
+        <v>50700</v>
       </c>
       <c r="J22" s="3">
-        <v>58200</v>
+        <v>55700</v>
       </c>
       <c r="K22" s="3">
         <v>71300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>235700</v>
+        <v>225600</v>
       </c>
       <c r="E23" s="3">
-        <v>206500</v>
+        <v>197600</v>
       </c>
       <c r="F23" s="3">
-        <v>274200</v>
+        <v>262400</v>
       </c>
       <c r="G23" s="3">
-        <v>177500</v>
+        <v>169800</v>
       </c>
       <c r="H23" s="3">
-        <v>198100</v>
+        <v>189600</v>
       </c>
       <c r="I23" s="3">
-        <v>163400</v>
+        <v>156400</v>
       </c>
       <c r="J23" s="3">
-        <v>150500</v>
+        <v>144000</v>
       </c>
       <c r="K23" s="3">
         <v>116400</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>53600</v>
+        <v>51300</v>
       </c>
       <c r="E24" s="3">
-        <v>63700</v>
+        <v>60900</v>
       </c>
       <c r="F24" s="3">
-        <v>71000</v>
+        <v>67900</v>
       </c>
       <c r="G24" s="3">
-        <v>64500</v>
+        <v>61700</v>
       </c>
       <c r="H24" s="3">
-        <v>60100</v>
+        <v>57500</v>
       </c>
       <c r="I24" s="3">
-        <v>56600</v>
+        <v>54200</v>
       </c>
       <c r="J24" s="3">
-        <v>48300</v>
+        <v>46200</v>
       </c>
       <c r="K24" s="3">
         <v>26200</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>182200</v>
+        <v>174300</v>
       </c>
       <c r="E26" s="3">
-        <v>142800</v>
+        <v>136700</v>
       </c>
       <c r="F26" s="3">
-        <v>203300</v>
+        <v>194500</v>
       </c>
       <c r="G26" s="3">
-        <v>113000</v>
+        <v>108200</v>
       </c>
       <c r="H26" s="3">
-        <v>138000</v>
+        <v>132100</v>
       </c>
       <c r="I26" s="3">
-        <v>106800</v>
+        <v>102200</v>
       </c>
       <c r="J26" s="3">
-        <v>102200</v>
+        <v>97800</v>
       </c>
       <c r="K26" s="3">
         <v>90200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>179400</v>
+        <v>171700</v>
       </c>
       <c r="E27" s="3">
-        <v>141500</v>
+        <v>135400</v>
       </c>
       <c r="F27" s="3">
-        <v>201500</v>
+        <v>192800</v>
       </c>
       <c r="G27" s="3">
-        <v>112100</v>
+        <v>107200</v>
       </c>
       <c r="H27" s="3">
-        <v>136700</v>
+        <v>130800</v>
       </c>
       <c r="I27" s="3">
-        <v>105000</v>
+        <v>100500</v>
       </c>
       <c r="J27" s="3">
-        <v>101900</v>
+        <v>97500</v>
       </c>
       <c r="K27" s="3">
         <v>89800</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>28600</v>
+        <v>27400</v>
       </c>
       <c r="E32" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="F32" s="3">
-        <v>-27100</v>
+        <v>-25900</v>
       </c>
       <c r="G32" s="3">
-        <v>18400</v>
+        <v>17600</v>
       </c>
       <c r="H32" s="3">
         <v>1700</v>
       </c>
       <c r="I32" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="J32" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="K32" s="3">
         <v>15200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>179400</v>
+        <v>171700</v>
       </c>
       <c r="E33" s="3">
-        <v>141500</v>
+        <v>135400</v>
       </c>
       <c r="F33" s="3">
-        <v>201500</v>
+        <v>192800</v>
       </c>
       <c r="G33" s="3">
-        <v>112100</v>
+        <v>107200</v>
       </c>
       <c r="H33" s="3">
-        <v>136700</v>
+        <v>130800</v>
       </c>
       <c r="I33" s="3">
-        <v>105000</v>
+        <v>100500</v>
       </c>
       <c r="J33" s="3">
-        <v>101900</v>
+        <v>97500</v>
       </c>
       <c r="K33" s="3">
         <v>89800</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>179400</v>
+        <v>171700</v>
       </c>
       <c r="E35" s="3">
-        <v>141500</v>
+        <v>135400</v>
       </c>
       <c r="F35" s="3">
-        <v>201500</v>
+        <v>192800</v>
       </c>
       <c r="G35" s="3">
-        <v>112100</v>
+        <v>107200</v>
       </c>
       <c r="H35" s="3">
-        <v>136700</v>
+        <v>130800</v>
       </c>
       <c r="I35" s="3">
-        <v>105000</v>
+        <v>100500</v>
       </c>
       <c r="J35" s="3">
-        <v>101900</v>
+        <v>97500</v>
       </c>
       <c r="K35" s="3">
         <v>89800</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>110200</v>
+        <v>105400</v>
       </c>
       <c r="E41" s="3">
-        <v>96700</v>
+        <v>92500</v>
       </c>
       <c r="F41" s="3">
-        <v>62100</v>
+        <v>59400</v>
       </c>
       <c r="G41" s="3">
-        <v>59000</v>
+        <v>56400</v>
       </c>
       <c r="H41" s="3">
-        <v>46400</v>
+        <v>44400</v>
       </c>
       <c r="I41" s="3">
-        <v>32400</v>
+        <v>31000</v>
       </c>
       <c r="J41" s="3">
-        <v>46900</v>
+        <v>44900</v>
       </c>
       <c r="K41" s="3">
         <v>94600</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>468500</v>
+        <v>448300</v>
       </c>
       <c r="E42" s="3">
-        <v>425100</v>
+        <v>406800</v>
       </c>
       <c r="F42" s="3">
-        <v>120700</v>
+        <v>115500</v>
       </c>
       <c r="G42" s="3">
-        <v>100600</v>
+        <v>96300</v>
       </c>
       <c r="H42" s="3">
-        <v>127500</v>
+        <v>122000</v>
       </c>
       <c r="I42" s="3">
-        <v>195900</v>
+        <v>187400</v>
       </c>
       <c r="J42" s="3">
-        <v>204400</v>
+        <v>195600</v>
       </c>
       <c r="K42" s="3">
         <v>126800</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>333100</v>
+        <v>318700</v>
       </c>
       <c r="E43" s="3">
-        <v>239400</v>
+        <v>229000</v>
       </c>
       <c r="F43" s="3">
-        <v>245800</v>
+        <v>235200</v>
       </c>
       <c r="G43" s="3">
-        <v>205800</v>
+        <v>197000</v>
       </c>
       <c r="H43" s="3">
-        <v>219000</v>
+        <v>209500</v>
       </c>
       <c r="I43" s="3">
-        <v>219500</v>
+        <v>210100</v>
       </c>
       <c r="J43" s="3">
-        <v>211600</v>
+        <v>202500</v>
       </c>
       <c r="K43" s="3">
         <v>244600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>222000</v>
+        <v>212400</v>
       </c>
       <c r="E44" s="3">
-        <v>148400</v>
+        <v>142000</v>
       </c>
       <c r="F44" s="3">
-        <v>171300</v>
+        <v>163900</v>
       </c>
       <c r="G44" s="3">
-        <v>175500</v>
+        <v>168000</v>
       </c>
       <c r="H44" s="3">
-        <v>152400</v>
+        <v>145800</v>
       </c>
       <c r="I44" s="3">
-        <v>167900</v>
+        <v>160600</v>
       </c>
       <c r="J44" s="3">
-        <v>154700</v>
+        <v>148000</v>
       </c>
       <c r="K44" s="3">
         <v>178200</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15800</v>
+        <v>15200</v>
       </c>
       <c r="E45" s="3">
-        <v>15200</v>
+        <v>14600</v>
       </c>
       <c r="F45" s="3">
-        <v>18900</v>
+        <v>18100</v>
       </c>
       <c r="G45" s="3">
-        <v>17700</v>
+        <v>17000</v>
       </c>
       <c r="H45" s="3">
-        <v>16200</v>
+        <v>15500</v>
       </c>
       <c r="I45" s="3">
-        <v>25600</v>
+        <v>24500</v>
       </c>
       <c r="J45" s="3">
-        <v>17400</v>
+        <v>16600</v>
       </c>
       <c r="K45" s="3">
         <v>14700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1149500</v>
+        <v>1100000</v>
       </c>
       <c r="E46" s="3">
-        <v>924900</v>
+        <v>885000</v>
       </c>
       <c r="F46" s="3">
-        <v>618800</v>
+        <v>592200</v>
       </c>
       <c r="G46" s="3">
-        <v>558600</v>
+        <v>534600</v>
       </c>
       <c r="H46" s="3">
-        <v>561500</v>
+        <v>537300</v>
       </c>
       <c r="I46" s="3">
-        <v>641200</v>
+        <v>613500</v>
       </c>
       <c r="J46" s="3">
-        <v>635000</v>
+        <v>607600</v>
       </c>
       <c r="K46" s="3">
         <v>658900</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>169000</v>
+        <v>161700</v>
       </c>
       <c r="E47" s="3">
-        <v>192200</v>
+        <v>183900</v>
       </c>
       <c r="F47" s="3">
-        <v>238300</v>
+        <v>228000</v>
       </c>
       <c r="G47" s="3">
-        <v>135800</v>
+        <v>130000</v>
       </c>
       <c r="H47" s="3">
-        <v>106300</v>
+        <v>101700</v>
       </c>
       <c r="I47" s="3">
-        <v>97300</v>
+        <v>93100</v>
       </c>
       <c r="J47" s="3">
-        <v>73300</v>
+        <v>70200</v>
       </c>
       <c r="K47" s="3">
         <v>147800</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>831000</v>
+        <v>795200</v>
       </c>
       <c r="E48" s="3">
-        <v>702500</v>
+        <v>672200</v>
       </c>
       <c r="F48" s="3">
-        <v>838400</v>
+        <v>802200</v>
       </c>
       <c r="G48" s="3">
-        <v>824500</v>
+        <v>789000</v>
       </c>
       <c r="H48" s="3">
-        <v>765300</v>
+        <v>732300</v>
       </c>
       <c r="I48" s="3">
-        <v>772700</v>
+        <v>739400</v>
       </c>
       <c r="J48" s="3">
-        <v>743000</v>
+        <v>711000</v>
       </c>
       <c r="K48" s="3">
         <v>848600</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>902100</v>
+        <v>863200</v>
       </c>
       <c r="E49" s="3">
-        <v>815300</v>
+        <v>780200</v>
       </c>
       <c r="F49" s="3">
-        <v>923700</v>
+        <v>883900</v>
       </c>
       <c r="G49" s="3">
-        <v>911800</v>
+        <v>872500</v>
       </c>
       <c r="H49" s="3">
-        <v>878000</v>
+        <v>840100</v>
       </c>
       <c r="I49" s="3">
-        <v>909300</v>
+        <v>870100</v>
       </c>
       <c r="J49" s="3">
-        <v>883300</v>
+        <v>845300</v>
       </c>
       <c r="K49" s="3">
         <v>1005700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>365900</v>
+        <v>350100</v>
       </c>
       <c r="E52" s="3">
-        <v>205000</v>
+        <v>196100</v>
       </c>
       <c r="F52" s="3">
-        <v>154300</v>
+        <v>147700</v>
       </c>
       <c r="G52" s="3">
-        <v>138100</v>
+        <v>132100</v>
       </c>
       <c r="H52" s="3">
-        <v>142200</v>
+        <v>136100</v>
       </c>
       <c r="I52" s="3">
-        <v>130400</v>
+        <v>124800</v>
       </c>
       <c r="J52" s="3">
-        <v>228200</v>
+        <v>218300</v>
       </c>
       <c r="K52" s="3">
         <v>39300</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3417500</v>
+        <v>3270200</v>
       </c>
       <c r="E54" s="3">
-        <v>2839800</v>
+        <v>2717400</v>
       </c>
       <c r="F54" s="3">
-        <v>2773500</v>
+        <v>2654000</v>
       </c>
       <c r="G54" s="3">
-        <v>2568800</v>
+        <v>2458100</v>
       </c>
       <c r="H54" s="3">
-        <v>2453200</v>
+        <v>2347500</v>
       </c>
       <c r="I54" s="3">
-        <v>2551000</v>
+        <v>2441000</v>
       </c>
       <c r="J54" s="3">
-        <v>2562900</v>
+        <v>2452400</v>
       </c>
       <c r="K54" s="3">
         <v>2700300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>444900</v>
+        <v>425700</v>
       </c>
       <c r="E57" s="3">
-        <v>313200</v>
+        <v>299700</v>
       </c>
       <c r="F57" s="3">
-        <v>344900</v>
+        <v>330000</v>
       </c>
       <c r="G57" s="3">
-        <v>329400</v>
+        <v>315200</v>
       </c>
       <c r="H57" s="3">
-        <v>338100</v>
+        <v>323500</v>
       </c>
       <c r="I57" s="3">
-        <v>332900</v>
+        <v>318500</v>
       </c>
       <c r="J57" s="3">
-        <v>303000</v>
+        <v>289900</v>
       </c>
       <c r="K57" s="3">
         <v>257900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>39000</v>
+        <v>37300</v>
       </c>
       <c r="E58" s="3">
-        <v>29300</v>
+        <v>28000</v>
       </c>
       <c r="F58" s="3">
-        <v>33700</v>
+        <v>32300</v>
       </c>
       <c r="G58" s="3">
-        <v>50700</v>
+        <v>48600</v>
       </c>
       <c r="H58" s="3">
-        <v>62300</v>
+        <v>59600</v>
       </c>
       <c r="I58" s="3">
-        <v>58100</v>
+        <v>55600</v>
       </c>
       <c r="J58" s="3">
-        <v>53200</v>
+        <v>50900</v>
       </c>
       <c r="K58" s="3">
         <v>94000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>130400</v>
+        <v>124800</v>
       </c>
       <c r="E59" s="3">
-        <v>96100</v>
+        <v>92000</v>
       </c>
       <c r="F59" s="3">
-        <v>98900</v>
+        <v>94600</v>
       </c>
       <c r="G59" s="3">
-        <v>106900</v>
+        <v>102300</v>
       </c>
       <c r="H59" s="3">
-        <v>96400</v>
+        <v>92300</v>
       </c>
       <c r="I59" s="3">
-        <v>95600</v>
+        <v>91500</v>
       </c>
       <c r="J59" s="3">
-        <v>85300</v>
+        <v>81600</v>
       </c>
       <c r="K59" s="3">
         <v>136200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>614300</v>
+        <v>587800</v>
       </c>
       <c r="E60" s="3">
-        <v>438500</v>
+        <v>419600</v>
       </c>
       <c r="F60" s="3">
-        <v>477500</v>
+        <v>456900</v>
       </c>
       <c r="G60" s="3">
-        <v>487000</v>
+        <v>466000</v>
       </c>
       <c r="H60" s="3">
-        <v>496800</v>
+        <v>475400</v>
       </c>
       <c r="I60" s="3">
-        <v>486700</v>
+        <v>465700</v>
       </c>
       <c r="J60" s="3">
-        <v>441500</v>
+        <v>422400</v>
       </c>
       <c r="K60" s="3">
         <v>488200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1207600</v>
+        <v>1155600</v>
       </c>
       <c r="E61" s="3">
-        <v>1088400</v>
+        <v>1041500</v>
       </c>
       <c r="F61" s="3">
-        <v>862300</v>
+        <v>825100</v>
       </c>
       <c r="G61" s="3">
-        <v>831200</v>
+        <v>795400</v>
       </c>
       <c r="H61" s="3">
-        <v>783900</v>
+        <v>750100</v>
       </c>
       <c r="I61" s="3">
-        <v>837000</v>
+        <v>800900</v>
       </c>
       <c r="J61" s="3">
-        <v>887700</v>
+        <v>849500</v>
       </c>
       <c r="K61" s="3">
         <v>864700</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>317900</v>
+        <v>304200</v>
       </c>
       <c r="E62" s="3">
-        <v>348200</v>
+        <v>333200</v>
       </c>
       <c r="F62" s="3">
-        <v>309800</v>
+        <v>296400</v>
       </c>
       <c r="G62" s="3">
-        <v>248700</v>
+        <v>237900</v>
       </c>
       <c r="H62" s="3">
-        <v>229200</v>
+        <v>219300</v>
       </c>
       <c r="I62" s="3">
-        <v>250400</v>
+        <v>239600</v>
       </c>
       <c r="J62" s="3">
-        <v>245900</v>
+        <v>235300</v>
       </c>
       <c r="K62" s="3">
         <v>253900</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2169200</v>
+        <v>2075700</v>
       </c>
       <c r="E66" s="3">
-        <v>1898800</v>
+        <v>1816900</v>
       </c>
       <c r="F66" s="3">
-        <v>1673100</v>
+        <v>1601000</v>
       </c>
       <c r="G66" s="3">
-        <v>1590000</v>
+        <v>1521500</v>
       </c>
       <c r="H66" s="3">
-        <v>1535300</v>
+        <v>1469100</v>
       </c>
       <c r="I66" s="3">
-        <v>1599100</v>
+        <v>1530100</v>
       </c>
       <c r="J66" s="3">
-        <v>1599500</v>
+        <v>1530600</v>
       </c>
       <c r="K66" s="3">
         <v>1632500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1393500</v>
+        <v>1333400</v>
       </c>
       <c r="E72" s="3">
-        <v>1261300</v>
+        <v>1206900</v>
       </c>
       <c r="F72" s="3">
-        <v>1199500</v>
+        <v>1147800</v>
       </c>
       <c r="G72" s="3">
-        <v>1038600</v>
+        <v>993900</v>
       </c>
       <c r="H72" s="3">
-        <v>884700</v>
+        <v>846600</v>
       </c>
       <c r="I72" s="3">
-        <v>838500</v>
+        <v>802400</v>
       </c>
       <c r="J72" s="3">
-        <v>814200</v>
+        <v>779100</v>
       </c>
       <c r="K72" s="3">
         <v>803200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1248300</v>
+        <v>1194500</v>
       </c>
       <c r="E76" s="3">
-        <v>941000</v>
+        <v>900400</v>
       </c>
       <c r="F76" s="3">
-        <v>1100400</v>
+        <v>1053000</v>
       </c>
       <c r="G76" s="3">
-        <v>978800</v>
+        <v>936600</v>
       </c>
       <c r="H76" s="3">
-        <v>917900</v>
+        <v>878400</v>
       </c>
       <c r="I76" s="3">
-        <v>951900</v>
+        <v>910900</v>
       </c>
       <c r="J76" s="3">
-        <v>963300</v>
+        <v>921800</v>
       </c>
       <c r="K76" s="3">
         <v>1067800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>179400</v>
+        <v>171700</v>
       </c>
       <c r="E81" s="3">
-        <v>141500</v>
+        <v>135400</v>
       </c>
       <c r="F81" s="3">
-        <v>201500</v>
+        <v>192800</v>
       </c>
       <c r="G81" s="3">
-        <v>112100</v>
+        <v>107200</v>
       </c>
       <c r="H81" s="3">
-        <v>136700</v>
+        <v>130800</v>
       </c>
       <c r="I81" s="3">
-        <v>105000</v>
+        <v>100500</v>
       </c>
       <c r="J81" s="3">
-        <v>101900</v>
+        <v>97500</v>
       </c>
       <c r="K81" s="3">
         <v>89800</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>346700</v>
+        <v>331700</v>
       </c>
       <c r="E89" s="3">
-        <v>320600</v>
+        <v>306800</v>
       </c>
       <c r="F89" s="3">
-        <v>293600</v>
+        <v>281000</v>
       </c>
       <c r="G89" s="3">
-        <v>267300</v>
+        <v>255800</v>
       </c>
       <c r="H89" s="3">
-        <v>287600</v>
+        <v>275200</v>
       </c>
       <c r="I89" s="3">
-        <v>259200</v>
+        <v>248000</v>
       </c>
       <c r="J89" s="3">
-        <v>307300</v>
+        <v>294000</v>
       </c>
       <c r="K89" s="3">
         <v>256500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-161100</v>
+        <v>-154100</v>
       </c>
       <c r="E91" s="3">
-        <v>-99600</v>
+        <v>-95300</v>
       </c>
       <c r="F91" s="3">
-        <v>-128400</v>
+        <v>-122900</v>
       </c>
       <c r="G91" s="3">
-        <v>-140400</v>
+        <v>-134400</v>
       </c>
       <c r="H91" s="3">
-        <v>-195900</v>
+        <v>-187400</v>
       </c>
       <c r="I91" s="3">
-        <v>-148700</v>
+        <v>-142300</v>
       </c>
       <c r="J91" s="3">
-        <v>-130400</v>
+        <v>-124800</v>
       </c>
       <c r="K91" s="3">
         <v>-135900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-230000</v>
+        <v>-220100</v>
       </c>
       <c r="E94" s="3">
-        <v>-259700</v>
+        <v>-248500</v>
       </c>
       <c r="F94" s="3">
-        <v>-127700</v>
+        <v>-122200</v>
       </c>
       <c r="G94" s="3">
-        <v>-137000</v>
+        <v>-131100</v>
       </c>
       <c r="H94" s="3">
-        <v>-195800</v>
+        <v>-187400</v>
       </c>
       <c r="I94" s="3">
-        <v>-132100</v>
+        <v>-126400</v>
       </c>
       <c r="J94" s="3">
-        <v>-119600</v>
+        <v>-114500</v>
       </c>
       <c r="K94" s="3">
         <v>-198500</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-123400</v>
+        <v>-118000</v>
       </c>
       <c r="E96" s="3">
-        <v>-116000</v>
+        <v>-111000</v>
       </c>
       <c r="F96" s="3">
-        <v>-100100</v>
+        <v>-95800</v>
       </c>
       <c r="G96" s="3">
-        <v>-101500</v>
+        <v>-97200</v>
       </c>
       <c r="H96" s="3">
-        <v>-87000</v>
+        <v>-83200</v>
       </c>
       <c r="I96" s="3">
-        <v>-78400</v>
+        <v>-75000</v>
       </c>
       <c r="J96" s="3">
-        <v>-63000</v>
+        <v>-60300</v>
       </c>
       <c r="K96" s="3">
         <v>-62200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-133800</v>
+        <v>-128000</v>
       </c>
       <c r="E100" s="3">
-        <v>131100</v>
+        <v>125500</v>
       </c>
       <c r="F100" s="3">
-        <v>-147500</v>
+        <v>-141100</v>
       </c>
       <c r="G100" s="3">
-        <v>-133000</v>
+        <v>-127200</v>
       </c>
       <c r="H100" s="3">
-        <v>-90900</v>
+        <v>-87000</v>
       </c>
       <c r="I100" s="3">
-        <v>-113900</v>
+        <v>-109000</v>
       </c>
       <c r="J100" s="3">
-        <v>-114300</v>
+        <v>-109400</v>
       </c>
       <c r="K100" s="3">
         <v>-55800</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="E101" s="3">
-        <v>-15700</v>
+        <v>-15100</v>
       </c>
       <c r="F101" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="G101" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="H101" s="3">
-        <v>-6700</v>
+        <v>-6400</v>
       </c>
       <c r="I101" s="3">
         <v>900</v>
       </c>
       <c r="J101" s="3">
-        <v>-15700</v>
+        <v>-15100</v>
       </c>
       <c r="K101" s="3">
         <v>-2700</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6100</v>
+        <v>-5800</v>
       </c>
       <c r="E102" s="3">
-        <v>176300</v>
+        <v>168700</v>
       </c>
       <c r="F102" s="3">
-        <v>23200</v>
+        <v>22200</v>
       </c>
       <c r="G102" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H102" s="3">
-        <v>-5800</v>
+        <v>-5600</v>
       </c>
       <c r="I102" s="3">
-        <v>14000</v>
+        <v>13400</v>
       </c>
       <c r="J102" s="3">
-        <v>57600</v>
+        <v>55100</v>
       </c>
       <c r="K102" s="3">
         <v>-500</v>

--- a/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2460600</v>
+        <v>2482700</v>
       </c>
       <c r="E8" s="3">
-        <v>1885100</v>
+        <v>1902100</v>
       </c>
       <c r="F8" s="3">
-        <v>1974700</v>
+        <v>1992500</v>
       </c>
       <c r="G8" s="3">
-        <v>1856900</v>
+        <v>1873700</v>
       </c>
       <c r="H8" s="3">
-        <v>2052300</v>
+        <v>2070700</v>
       </c>
       <c r="I8" s="3">
-        <v>1973000</v>
+        <v>1990800</v>
       </c>
       <c r="J8" s="3">
-        <v>2083900</v>
+        <v>2102700</v>
       </c>
       <c r="K8" s="3">
         <v>2138700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1526700</v>
+        <v>1540400</v>
       </c>
       <c r="E9" s="3">
-        <v>1135000</v>
+        <v>1145200</v>
       </c>
       <c r="F9" s="3">
-        <v>1163700</v>
+        <v>1174100</v>
       </c>
       <c r="G9" s="3">
-        <v>1074500</v>
+        <v>1084200</v>
       </c>
       <c r="H9" s="3">
-        <v>1186600</v>
+        <v>1197300</v>
       </c>
       <c r="I9" s="3">
-        <v>1147600</v>
+        <v>1158000</v>
       </c>
       <c r="J9" s="3">
-        <v>1228400</v>
+        <v>1239500</v>
       </c>
       <c r="K9" s="3">
         <v>1286700</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>933900</v>
+        <v>942300</v>
       </c>
       <c r="E10" s="3">
-        <v>750100</v>
+        <v>756900</v>
       </c>
       <c r="F10" s="3">
-        <v>811100</v>
+        <v>818400</v>
       </c>
       <c r="G10" s="3">
-        <v>782400</v>
+        <v>789500</v>
       </c>
       <c r="H10" s="3">
-        <v>865600</v>
+        <v>873400</v>
       </c>
       <c r="I10" s="3">
-        <v>825300</v>
+        <v>832800</v>
       </c>
       <c r="J10" s="3">
-        <v>855500</v>
+        <v>863200</v>
       </c>
       <c r="K10" s="3">
         <v>852000</v>
@@ -950,10 +950,10 @@
         <v>3400</v>
       </c>
       <c r="I14" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="J14" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K14" s="3">
         <v>6900</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2151400</v>
+        <v>2170700</v>
       </c>
       <c r="E17" s="3">
-        <v>1629200</v>
+        <v>1643900</v>
       </c>
       <c r="F17" s="3">
-        <v>1694400</v>
+        <v>1709700</v>
       </c>
       <c r="G17" s="3">
-        <v>1624700</v>
+        <v>1639300</v>
       </c>
       <c r="H17" s="3">
-        <v>1808000</v>
+        <v>1824300</v>
       </c>
       <c r="I17" s="3">
-        <v>1762900</v>
+        <v>1778800</v>
       </c>
       <c r="J17" s="3">
-        <v>1875500</v>
+        <v>1892400</v>
       </c>
       <c r="K17" s="3">
         <v>1935700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>309200</v>
+        <v>312000</v>
       </c>
       <c r="E18" s="3">
-        <v>255900</v>
+        <v>258200</v>
       </c>
       <c r="F18" s="3">
-        <v>280300</v>
+        <v>282900</v>
       </c>
       <c r="G18" s="3">
-        <v>232200</v>
+        <v>234300</v>
       </c>
       <c r="H18" s="3">
-        <v>244200</v>
+        <v>246400</v>
       </c>
       <c r="I18" s="3">
-        <v>210100</v>
+        <v>212000</v>
       </c>
       <c r="J18" s="3">
-        <v>208400</v>
+        <v>210300</v>
       </c>
       <c r="K18" s="3">
         <v>202900</v>
@@ -1122,16 +1122,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-27400</v>
+        <v>-27600</v>
       </c>
       <c r="E20" s="3">
         <v>-6000</v>
       </c>
       <c r="F20" s="3">
-        <v>25900</v>
+        <v>26200</v>
       </c>
       <c r="G20" s="3">
-        <v>-17600</v>
+        <v>-17700</v>
       </c>
       <c r="H20" s="3">
         <v>-1700</v>
@@ -1140,7 +1140,7 @@
         <v>-3100</v>
       </c>
       <c r="J20" s="3">
-        <v>-8700</v>
+        <v>-8800</v>
       </c>
       <c r="K20" s="3">
         <v>-15200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>281800</v>
+        <v>284400</v>
       </c>
       <c r="E21" s="3">
-        <v>249900</v>
+        <v>252200</v>
       </c>
       <c r="F21" s="3">
-        <v>306300</v>
+        <v>309000</v>
       </c>
       <c r="G21" s="3">
-        <v>214700</v>
+        <v>216600</v>
       </c>
       <c r="H21" s="3">
-        <v>242600</v>
+        <v>244800</v>
       </c>
       <c r="I21" s="3">
-        <v>207000</v>
+        <v>208900</v>
       </c>
       <c r="J21" s="3">
-        <v>199700</v>
+        <v>201500</v>
       </c>
       <c r="K21" s="3">
         <v>187800</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>56300</v>
+        <v>56800</v>
       </c>
       <c r="E22" s="3">
-        <v>52300</v>
+        <v>52800</v>
       </c>
       <c r="F22" s="3">
-        <v>43800</v>
+        <v>44200</v>
       </c>
       <c r="G22" s="3">
-        <v>44800</v>
+        <v>45200</v>
       </c>
       <c r="H22" s="3">
-        <v>53000</v>
+        <v>53500</v>
       </c>
       <c r="I22" s="3">
-        <v>50700</v>
+        <v>51100</v>
       </c>
       <c r="J22" s="3">
-        <v>55700</v>
+        <v>56200</v>
       </c>
       <c r="K22" s="3">
         <v>71300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>225600</v>
+        <v>227600</v>
       </c>
       <c r="E23" s="3">
-        <v>197600</v>
+        <v>199400</v>
       </c>
       <c r="F23" s="3">
-        <v>262400</v>
+        <v>264800</v>
       </c>
       <c r="G23" s="3">
-        <v>169800</v>
+        <v>171400</v>
       </c>
       <c r="H23" s="3">
-        <v>189600</v>
+        <v>191300</v>
       </c>
       <c r="I23" s="3">
-        <v>156400</v>
+        <v>157800</v>
       </c>
       <c r="J23" s="3">
-        <v>144000</v>
+        <v>145300</v>
       </c>
       <c r="K23" s="3">
         <v>116400</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>51300</v>
+        <v>51700</v>
       </c>
       <c r="E24" s="3">
-        <v>60900</v>
+        <v>61500</v>
       </c>
       <c r="F24" s="3">
-        <v>67900</v>
+        <v>68500</v>
       </c>
       <c r="G24" s="3">
-        <v>61700</v>
+        <v>62200</v>
       </c>
       <c r="H24" s="3">
-        <v>57500</v>
+        <v>58000</v>
       </c>
       <c r="I24" s="3">
-        <v>54200</v>
+        <v>54700</v>
       </c>
       <c r="J24" s="3">
-        <v>46200</v>
+        <v>46600</v>
       </c>
       <c r="K24" s="3">
         <v>26200</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>174300</v>
+        <v>175900</v>
       </c>
       <c r="E26" s="3">
-        <v>136700</v>
+        <v>137900</v>
       </c>
       <c r="F26" s="3">
-        <v>194500</v>
+        <v>196300</v>
       </c>
       <c r="G26" s="3">
-        <v>108200</v>
+        <v>109100</v>
       </c>
       <c r="H26" s="3">
-        <v>132100</v>
+        <v>133300</v>
       </c>
       <c r="I26" s="3">
-        <v>102200</v>
+        <v>103100</v>
       </c>
       <c r="J26" s="3">
-        <v>97800</v>
+        <v>98700</v>
       </c>
       <c r="K26" s="3">
         <v>90200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>171700</v>
+        <v>173300</v>
       </c>
       <c r="E27" s="3">
-        <v>135400</v>
+        <v>136600</v>
       </c>
       <c r="F27" s="3">
-        <v>192800</v>
+        <v>194600</v>
       </c>
       <c r="G27" s="3">
-        <v>107200</v>
+        <v>108200</v>
       </c>
       <c r="H27" s="3">
-        <v>130800</v>
+        <v>132000</v>
       </c>
       <c r="I27" s="3">
-        <v>100500</v>
+        <v>101400</v>
       </c>
       <c r="J27" s="3">
-        <v>97500</v>
+        <v>98400</v>
       </c>
       <c r="K27" s="3">
         <v>89800</v>
@@ -1590,16 +1590,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>27400</v>
+        <v>27600</v>
       </c>
       <c r="E32" s="3">
         <v>6000</v>
       </c>
       <c r="F32" s="3">
-        <v>-25900</v>
+        <v>-26200</v>
       </c>
       <c r="G32" s="3">
-        <v>17600</v>
+        <v>17700</v>
       </c>
       <c r="H32" s="3">
         <v>1700</v>
@@ -1608,7 +1608,7 @@
         <v>3100</v>
       </c>
       <c r="J32" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="K32" s="3">
         <v>15200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>171700</v>
+        <v>173300</v>
       </c>
       <c r="E33" s="3">
-        <v>135400</v>
+        <v>136600</v>
       </c>
       <c r="F33" s="3">
-        <v>192800</v>
+        <v>194600</v>
       </c>
       <c r="G33" s="3">
-        <v>107200</v>
+        <v>108200</v>
       </c>
       <c r="H33" s="3">
-        <v>130800</v>
+        <v>132000</v>
       </c>
       <c r="I33" s="3">
-        <v>100500</v>
+        <v>101400</v>
       </c>
       <c r="J33" s="3">
-        <v>97500</v>
+        <v>98400</v>
       </c>
       <c r="K33" s="3">
         <v>89800</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>171700</v>
+        <v>173300</v>
       </c>
       <c r="E35" s="3">
-        <v>135400</v>
+        <v>136600</v>
       </c>
       <c r="F35" s="3">
-        <v>192800</v>
+        <v>194600</v>
       </c>
       <c r="G35" s="3">
-        <v>107200</v>
+        <v>108200</v>
       </c>
       <c r="H35" s="3">
-        <v>130800</v>
+        <v>132000</v>
       </c>
       <c r="I35" s="3">
-        <v>100500</v>
+        <v>101400</v>
       </c>
       <c r="J35" s="3">
-        <v>97500</v>
+        <v>98400</v>
       </c>
       <c r="K35" s="3">
         <v>89800</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>105400</v>
+        <v>106400</v>
       </c>
       <c r="E41" s="3">
-        <v>92500</v>
+        <v>93300</v>
       </c>
       <c r="F41" s="3">
-        <v>59400</v>
+        <v>59900</v>
       </c>
       <c r="G41" s="3">
-        <v>56400</v>
+        <v>56900</v>
       </c>
       <c r="H41" s="3">
-        <v>44400</v>
+        <v>44800</v>
       </c>
       <c r="I41" s="3">
-        <v>31000</v>
+        <v>31200</v>
       </c>
       <c r="J41" s="3">
-        <v>44900</v>
+        <v>45300</v>
       </c>
       <c r="K41" s="3">
         <v>94600</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>448300</v>
+        <v>452300</v>
       </c>
       <c r="E42" s="3">
-        <v>406800</v>
+        <v>410500</v>
       </c>
       <c r="F42" s="3">
-        <v>115500</v>
+        <v>116600</v>
       </c>
       <c r="G42" s="3">
-        <v>96300</v>
+        <v>97100</v>
       </c>
       <c r="H42" s="3">
-        <v>122000</v>
+        <v>123100</v>
       </c>
       <c r="I42" s="3">
-        <v>187400</v>
+        <v>189100</v>
       </c>
       <c r="J42" s="3">
-        <v>195600</v>
+        <v>197300</v>
       </c>
       <c r="K42" s="3">
         <v>126800</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>318700</v>
+        <v>321600</v>
       </c>
       <c r="E43" s="3">
-        <v>229000</v>
+        <v>231100</v>
       </c>
       <c r="F43" s="3">
-        <v>235200</v>
+        <v>237300</v>
       </c>
       <c r="G43" s="3">
-        <v>197000</v>
+        <v>198700</v>
       </c>
       <c r="H43" s="3">
-        <v>209500</v>
+        <v>211400</v>
       </c>
       <c r="I43" s="3">
-        <v>210100</v>
+        <v>211900</v>
       </c>
       <c r="J43" s="3">
-        <v>202500</v>
+        <v>204300</v>
       </c>
       <c r="K43" s="3">
         <v>244600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>212400</v>
+        <v>214300</v>
       </c>
       <c r="E44" s="3">
-        <v>142000</v>
+        <v>143300</v>
       </c>
       <c r="F44" s="3">
-        <v>163900</v>
+        <v>165400</v>
       </c>
       <c r="G44" s="3">
-        <v>168000</v>
+        <v>169500</v>
       </c>
       <c r="H44" s="3">
-        <v>145800</v>
+        <v>147100</v>
       </c>
       <c r="I44" s="3">
-        <v>160600</v>
+        <v>162100</v>
       </c>
       <c r="J44" s="3">
-        <v>148000</v>
+        <v>149300</v>
       </c>
       <c r="K44" s="3">
         <v>178200</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="E45" s="3">
-        <v>14600</v>
+        <v>14700</v>
       </c>
       <c r="F45" s="3">
-        <v>18100</v>
+        <v>18300</v>
       </c>
       <c r="G45" s="3">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="H45" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="I45" s="3">
-        <v>24500</v>
+        <v>24700</v>
       </c>
       <c r="J45" s="3">
-        <v>16600</v>
+        <v>16800</v>
       </c>
       <c r="K45" s="3">
         <v>14700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1100000</v>
+        <v>1109900</v>
       </c>
       <c r="E46" s="3">
-        <v>885000</v>
+        <v>893000</v>
       </c>
       <c r="F46" s="3">
-        <v>592200</v>
+        <v>597500</v>
       </c>
       <c r="G46" s="3">
-        <v>534600</v>
+        <v>539400</v>
       </c>
       <c r="H46" s="3">
-        <v>537300</v>
+        <v>542100</v>
       </c>
       <c r="I46" s="3">
-        <v>613500</v>
+        <v>619100</v>
       </c>
       <c r="J46" s="3">
-        <v>607600</v>
+        <v>613100</v>
       </c>
       <c r="K46" s="3">
         <v>658900</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>161700</v>
+        <v>163200</v>
       </c>
       <c r="E47" s="3">
-        <v>183900</v>
+        <v>185500</v>
       </c>
       <c r="F47" s="3">
-        <v>228000</v>
+        <v>230100</v>
       </c>
       <c r="G47" s="3">
-        <v>130000</v>
+        <v>131100</v>
       </c>
       <c r="H47" s="3">
-        <v>101700</v>
+        <v>102600</v>
       </c>
       <c r="I47" s="3">
-        <v>93100</v>
+        <v>93900</v>
       </c>
       <c r="J47" s="3">
-        <v>70200</v>
+        <v>70800</v>
       </c>
       <c r="K47" s="3">
         <v>147800</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>795200</v>
+        <v>802300</v>
       </c>
       <c r="E48" s="3">
-        <v>672200</v>
+        <v>678200</v>
       </c>
       <c r="F48" s="3">
-        <v>802200</v>
+        <v>809400</v>
       </c>
       <c r="G48" s="3">
-        <v>789000</v>
+        <v>796100</v>
       </c>
       <c r="H48" s="3">
-        <v>732300</v>
+        <v>738900</v>
       </c>
       <c r="I48" s="3">
-        <v>739400</v>
+        <v>746100</v>
       </c>
       <c r="J48" s="3">
-        <v>711000</v>
+        <v>717400</v>
       </c>
       <c r="K48" s="3">
         <v>848600</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>863200</v>
+        <v>871000</v>
       </c>
       <c r="E49" s="3">
-        <v>780200</v>
+        <v>787200</v>
       </c>
       <c r="F49" s="3">
-        <v>883900</v>
+        <v>891900</v>
       </c>
       <c r="G49" s="3">
-        <v>872500</v>
+        <v>880400</v>
       </c>
       <c r="H49" s="3">
-        <v>840100</v>
+        <v>847700</v>
       </c>
       <c r="I49" s="3">
-        <v>870100</v>
+        <v>878000</v>
       </c>
       <c r="J49" s="3">
-        <v>845300</v>
+        <v>852900</v>
       </c>
       <c r="K49" s="3">
         <v>1005700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>350100</v>
+        <v>353200</v>
       </c>
       <c r="E52" s="3">
-        <v>196100</v>
+        <v>197900</v>
       </c>
       <c r="F52" s="3">
-        <v>147700</v>
+        <v>149000</v>
       </c>
       <c r="G52" s="3">
-        <v>132100</v>
+        <v>133300</v>
       </c>
       <c r="H52" s="3">
-        <v>136100</v>
+        <v>137300</v>
       </c>
       <c r="I52" s="3">
-        <v>124800</v>
+        <v>125900</v>
       </c>
       <c r="J52" s="3">
-        <v>218300</v>
+        <v>220300</v>
       </c>
       <c r="K52" s="3">
         <v>39300</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3270200</v>
+        <v>3299600</v>
       </c>
       <c r="E54" s="3">
-        <v>2717400</v>
+        <v>2741800</v>
       </c>
       <c r="F54" s="3">
-        <v>2654000</v>
+        <v>2677900</v>
       </c>
       <c r="G54" s="3">
-        <v>2458100</v>
+        <v>2480200</v>
       </c>
       <c r="H54" s="3">
-        <v>2347500</v>
+        <v>2368600</v>
       </c>
       <c r="I54" s="3">
-        <v>2441000</v>
+        <v>2463000</v>
       </c>
       <c r="J54" s="3">
-        <v>2452400</v>
+        <v>2474500</v>
       </c>
       <c r="K54" s="3">
         <v>2700300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>425700</v>
+        <v>429500</v>
       </c>
       <c r="E57" s="3">
-        <v>299700</v>
+        <v>302400</v>
       </c>
       <c r="F57" s="3">
-        <v>330000</v>
+        <v>333000</v>
       </c>
       <c r="G57" s="3">
-        <v>315200</v>
+        <v>318000</v>
       </c>
       <c r="H57" s="3">
-        <v>323500</v>
+        <v>326500</v>
       </c>
       <c r="I57" s="3">
-        <v>318500</v>
+        <v>321400</v>
       </c>
       <c r="J57" s="3">
-        <v>289900</v>
+        <v>292500</v>
       </c>
       <c r="K57" s="3">
         <v>257900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>37300</v>
+        <v>37600</v>
       </c>
       <c r="E58" s="3">
-        <v>28000</v>
+        <v>28200</v>
       </c>
       <c r="F58" s="3">
-        <v>32300</v>
+        <v>32500</v>
       </c>
       <c r="G58" s="3">
-        <v>48600</v>
+        <v>49000</v>
       </c>
       <c r="H58" s="3">
-        <v>59600</v>
+        <v>60100</v>
       </c>
       <c r="I58" s="3">
-        <v>55600</v>
+        <v>56100</v>
       </c>
       <c r="J58" s="3">
-        <v>50900</v>
+        <v>51400</v>
       </c>
       <c r="K58" s="3">
         <v>94000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>124800</v>
+        <v>125900</v>
       </c>
       <c r="E59" s="3">
-        <v>92000</v>
+        <v>92800</v>
       </c>
       <c r="F59" s="3">
-        <v>94600</v>
+        <v>95500</v>
       </c>
       <c r="G59" s="3">
-        <v>102300</v>
+        <v>103200</v>
       </c>
       <c r="H59" s="3">
+        <v>93100</v>
+      </c>
+      <c r="I59" s="3">
         <v>92300</v>
       </c>
-      <c r="I59" s="3">
-        <v>91500</v>
-      </c>
       <c r="J59" s="3">
-        <v>81600</v>
+        <v>82400</v>
       </c>
       <c r="K59" s="3">
         <v>136200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>587800</v>
+        <v>593100</v>
       </c>
       <c r="E60" s="3">
-        <v>419600</v>
+        <v>423400</v>
       </c>
       <c r="F60" s="3">
-        <v>456900</v>
+        <v>461100</v>
       </c>
       <c r="G60" s="3">
-        <v>466000</v>
+        <v>470200</v>
       </c>
       <c r="H60" s="3">
-        <v>475400</v>
+        <v>479700</v>
       </c>
       <c r="I60" s="3">
-        <v>465700</v>
+        <v>469900</v>
       </c>
       <c r="J60" s="3">
-        <v>422400</v>
+        <v>426200</v>
       </c>
       <c r="K60" s="3">
         <v>488200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1155600</v>
+        <v>1166000</v>
       </c>
       <c r="E61" s="3">
-        <v>1041500</v>
+        <v>1050900</v>
       </c>
       <c r="F61" s="3">
-        <v>825100</v>
+        <v>832500</v>
       </c>
       <c r="G61" s="3">
-        <v>795400</v>
+        <v>802600</v>
       </c>
       <c r="H61" s="3">
-        <v>750100</v>
+        <v>756900</v>
       </c>
       <c r="I61" s="3">
-        <v>800900</v>
+        <v>808200</v>
       </c>
       <c r="J61" s="3">
-        <v>849500</v>
+        <v>857100</v>
       </c>
       <c r="K61" s="3">
         <v>864700</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>304200</v>
+        <v>307000</v>
       </c>
       <c r="E62" s="3">
-        <v>333200</v>
+        <v>336200</v>
       </c>
       <c r="F62" s="3">
-        <v>296400</v>
+        <v>299100</v>
       </c>
       <c r="G62" s="3">
-        <v>237900</v>
+        <v>240100</v>
       </c>
       <c r="H62" s="3">
-        <v>219300</v>
+        <v>221300</v>
       </c>
       <c r="I62" s="3">
-        <v>239600</v>
+        <v>241700</v>
       </c>
       <c r="J62" s="3">
-        <v>235300</v>
+        <v>237400</v>
       </c>
       <c r="K62" s="3">
         <v>253900</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2075700</v>
+        <v>2094400</v>
       </c>
       <c r="E66" s="3">
-        <v>1816900</v>
+        <v>1833300</v>
       </c>
       <c r="F66" s="3">
-        <v>1601000</v>
+        <v>1615400</v>
       </c>
       <c r="G66" s="3">
-        <v>1521500</v>
+        <v>1535200</v>
       </c>
       <c r="H66" s="3">
-        <v>1469100</v>
+        <v>1482400</v>
       </c>
       <c r="I66" s="3">
-        <v>1530100</v>
+        <v>1543900</v>
       </c>
       <c r="J66" s="3">
-        <v>1530600</v>
+        <v>1544400</v>
       </c>
       <c r="K66" s="3">
         <v>1632500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1333400</v>
+        <v>1345400</v>
       </c>
       <c r="E72" s="3">
-        <v>1206900</v>
+        <v>1217800</v>
       </c>
       <c r="F72" s="3">
-        <v>1147800</v>
+        <v>1158200</v>
       </c>
       <c r="G72" s="3">
-        <v>993900</v>
+        <v>1002800</v>
       </c>
       <c r="H72" s="3">
-        <v>846600</v>
+        <v>854200</v>
       </c>
       <c r="I72" s="3">
-        <v>802400</v>
+        <v>809600</v>
       </c>
       <c r="J72" s="3">
-        <v>779100</v>
+        <v>786100</v>
       </c>
       <c r="K72" s="3">
         <v>803200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1194500</v>
+        <v>1205300</v>
       </c>
       <c r="E76" s="3">
-        <v>900400</v>
+        <v>908500</v>
       </c>
       <c r="F76" s="3">
-        <v>1053000</v>
+        <v>1062500</v>
       </c>
       <c r="G76" s="3">
-        <v>936600</v>
+        <v>945100</v>
       </c>
       <c r="H76" s="3">
-        <v>878400</v>
+        <v>886300</v>
       </c>
       <c r="I76" s="3">
-        <v>910900</v>
+        <v>919100</v>
       </c>
       <c r="J76" s="3">
-        <v>921800</v>
+        <v>930100</v>
       </c>
       <c r="K76" s="3">
         <v>1067800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>171700</v>
+        <v>173300</v>
       </c>
       <c r="E81" s="3">
-        <v>135400</v>
+        <v>136600</v>
       </c>
       <c r="F81" s="3">
-        <v>192800</v>
+        <v>194600</v>
       </c>
       <c r="G81" s="3">
-        <v>107200</v>
+        <v>108200</v>
       </c>
       <c r="H81" s="3">
-        <v>130800</v>
+        <v>132000</v>
       </c>
       <c r="I81" s="3">
-        <v>100500</v>
+        <v>101400</v>
       </c>
       <c r="J81" s="3">
-        <v>97500</v>
+        <v>98400</v>
       </c>
       <c r="K81" s="3">
         <v>89800</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>331700</v>
+        <v>334700</v>
       </c>
       <c r="E89" s="3">
-        <v>306800</v>
+        <v>309500</v>
       </c>
       <c r="F89" s="3">
-        <v>281000</v>
+        <v>283500</v>
       </c>
       <c r="G89" s="3">
-        <v>255800</v>
+        <v>258100</v>
       </c>
       <c r="H89" s="3">
-        <v>275200</v>
+        <v>277700</v>
       </c>
       <c r="I89" s="3">
-        <v>248000</v>
+        <v>250300</v>
       </c>
       <c r="J89" s="3">
-        <v>294000</v>
+        <v>296700</v>
       </c>
       <c r="K89" s="3">
         <v>256500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-154100</v>
+        <v>-155500</v>
       </c>
       <c r="E91" s="3">
-        <v>-95300</v>
+        <v>-96200</v>
       </c>
       <c r="F91" s="3">
-        <v>-122900</v>
+        <v>-124000</v>
       </c>
       <c r="G91" s="3">
-        <v>-134400</v>
+        <v>-135600</v>
       </c>
       <c r="H91" s="3">
-        <v>-187400</v>
+        <v>-189100</v>
       </c>
       <c r="I91" s="3">
-        <v>-142300</v>
+        <v>-143600</v>
       </c>
       <c r="J91" s="3">
-        <v>-124800</v>
+        <v>-125900</v>
       </c>
       <c r="K91" s="3">
         <v>-135900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-220100</v>
+        <v>-222000</v>
       </c>
       <c r="E94" s="3">
-        <v>-248500</v>
+        <v>-250700</v>
       </c>
       <c r="F94" s="3">
-        <v>-122200</v>
+        <v>-123300</v>
       </c>
       <c r="G94" s="3">
-        <v>-131100</v>
+        <v>-132300</v>
       </c>
       <c r="H94" s="3">
-        <v>-187400</v>
+        <v>-189100</v>
       </c>
       <c r="I94" s="3">
-        <v>-126400</v>
+        <v>-127600</v>
       </c>
       <c r="J94" s="3">
-        <v>-114500</v>
+        <v>-115500</v>
       </c>
       <c r="K94" s="3">
         <v>-198500</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-118000</v>
+        <v>-119100</v>
       </c>
       <c r="E96" s="3">
-        <v>-111000</v>
+        <v>-112000</v>
       </c>
       <c r="F96" s="3">
-        <v>-95800</v>
+        <v>-96600</v>
       </c>
       <c r="G96" s="3">
-        <v>-97200</v>
+        <v>-98000</v>
       </c>
       <c r="H96" s="3">
-        <v>-83200</v>
+        <v>-84000</v>
       </c>
       <c r="I96" s="3">
-        <v>-75000</v>
+        <v>-75700</v>
       </c>
       <c r="J96" s="3">
-        <v>-60300</v>
+        <v>-60800</v>
       </c>
       <c r="K96" s="3">
         <v>-62200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-128000</v>
+        <v>-129200</v>
       </c>
       <c r="E100" s="3">
-        <v>125500</v>
+        <v>126600</v>
       </c>
       <c r="F100" s="3">
-        <v>-141100</v>
+        <v>-142400</v>
       </c>
       <c r="G100" s="3">
-        <v>-127200</v>
+        <v>-128400</v>
       </c>
       <c r="H100" s="3">
-        <v>-87000</v>
+        <v>-87700</v>
       </c>
       <c r="I100" s="3">
-        <v>-109000</v>
+        <v>-110000</v>
       </c>
       <c r="J100" s="3">
-        <v>-109400</v>
+        <v>-110400</v>
       </c>
       <c r="K100" s="3">
         <v>-55800</v>
@@ -3959,10 +3959,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="E101" s="3">
-        <v>-15100</v>
+        <v>-15200</v>
       </c>
       <c r="F101" s="3">
         <v>4500</v>
@@ -3971,13 +3971,13 @@
         <v>4000</v>
       </c>
       <c r="H101" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="I101" s="3">
         <v>900</v>
       </c>
       <c r="J101" s="3">
-        <v>-15100</v>
+        <v>-15200</v>
       </c>
       <c r="K101" s="3">
         <v>-2700</v>
@@ -4001,22 +4001,22 @@
         <v>-5800</v>
       </c>
       <c r="E102" s="3">
-        <v>168700</v>
+        <v>170200</v>
       </c>
       <c r="F102" s="3">
-        <v>22200</v>
+        <v>22400</v>
       </c>
       <c r="G102" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H102" s="3">
         <v>-5600</v>
       </c>
       <c r="I102" s="3">
-        <v>13400</v>
+        <v>13600</v>
       </c>
       <c r="J102" s="3">
-        <v>55100</v>
+        <v>55600</v>
       </c>
       <c r="K102" s="3">
         <v>-500</v>

--- a/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>AKO.B</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2482700</v>
+        <v>3347700</v>
       </c>
       <c r="E8" s="3">
-        <v>1902100</v>
+        <v>2793100</v>
       </c>
       <c r="F8" s="3">
-        <v>1992500</v>
+        <v>2139800</v>
       </c>
       <c r="G8" s="3">
-        <v>1873700</v>
+        <v>2241600</v>
       </c>
       <c r="H8" s="3">
-        <v>2070700</v>
+        <v>2107900</v>
       </c>
       <c r="I8" s="3">
-        <v>1990800</v>
+        <v>2329600</v>
       </c>
       <c r="J8" s="3">
+        <v>2239600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2102700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2138700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1978200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1500500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1484100</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1540400</v>
+        <v>2052200</v>
       </c>
       <c r="E9" s="3">
-        <v>1145200</v>
+        <v>1733000</v>
       </c>
       <c r="F9" s="3">
-        <v>1174100</v>
+        <v>1288300</v>
       </c>
       <c r="G9" s="3">
-        <v>1084200</v>
+        <v>1320900</v>
       </c>
       <c r="H9" s="3">
-        <v>1197300</v>
+        <v>1219700</v>
       </c>
       <c r="I9" s="3">
-        <v>1158000</v>
+        <v>1347000</v>
       </c>
       <c r="J9" s="3">
+        <v>1302700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1239500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1286700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1189300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>894700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>873700</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>942300</v>
+        <v>1295500</v>
       </c>
       <c r="E10" s="3">
-        <v>756900</v>
+        <v>1060100</v>
       </c>
       <c r="F10" s="3">
-        <v>818400</v>
+        <v>851500</v>
       </c>
       <c r="G10" s="3">
-        <v>789500</v>
+        <v>920700</v>
       </c>
       <c r="H10" s="3">
-        <v>873400</v>
+        <v>888200</v>
       </c>
       <c r="I10" s="3">
-        <v>832800</v>
+        <v>982600</v>
       </c>
       <c r="J10" s="3">
+        <v>936900</v>
+      </c>
+      <c r="K10" s="3">
         <v>863200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>852000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>788900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>605900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>610500</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,48 +944,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
-        <v>8900</v>
-      </c>
       <c r="F14" s="3">
-        <v>3300</v>
+        <v>10000</v>
       </c>
       <c r="G14" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
-        <v>3400</v>
-      </c>
       <c r="I14" s="3">
-        <v>5400</v>
+        <v>3800</v>
       </c>
       <c r="J14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K14" s="3">
         <v>4500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3700</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2170700</v>
+        <v>2942200</v>
       </c>
       <c r="E17" s="3">
-        <v>1643900</v>
+        <v>2442100</v>
       </c>
       <c r="F17" s="3">
-        <v>1709700</v>
+        <v>1849400</v>
       </c>
       <c r="G17" s="3">
-        <v>1639300</v>
+        <v>1923400</v>
       </c>
       <c r="H17" s="3">
-        <v>1824300</v>
+        <v>1844300</v>
       </c>
       <c r="I17" s="3">
-        <v>1778800</v>
+        <v>2052300</v>
       </c>
       <c r="J17" s="3">
+        <v>2001100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1892400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1935700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1785800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1320300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1282700</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>312000</v>
+        <v>405400</v>
       </c>
       <c r="E18" s="3">
-        <v>258200</v>
+        <v>351000</v>
       </c>
       <c r="F18" s="3">
-        <v>282900</v>
+        <v>290500</v>
       </c>
       <c r="G18" s="3">
-        <v>234300</v>
+        <v>318200</v>
       </c>
       <c r="H18" s="3">
-        <v>246400</v>
+        <v>263600</v>
       </c>
       <c r="I18" s="3">
-        <v>212000</v>
+        <v>277200</v>
       </c>
       <c r="J18" s="3">
+        <v>238500</v>
+      </c>
+      <c r="K18" s="3">
         <v>210300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>202900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>192400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>180200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>201500</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-27600</v>
+        <v>-41900</v>
       </c>
       <c r="E20" s="3">
-        <v>-6000</v>
+        <v>-31100</v>
       </c>
       <c r="F20" s="3">
-        <v>26200</v>
+        <v>-6800</v>
       </c>
       <c r="G20" s="3">
-        <v>-17700</v>
+        <v>29400</v>
       </c>
       <c r="H20" s="3">
-        <v>-1700</v>
+        <v>-19900</v>
       </c>
       <c r="I20" s="3">
-        <v>-3100</v>
+        <v>-1900</v>
       </c>
       <c r="J20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-8800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-15200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-10400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8300</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>284400</v>
+        <v>363600</v>
       </c>
       <c r="E21" s="3">
-        <v>252200</v>
+        <v>319900</v>
       </c>
       <c r="F21" s="3">
-        <v>309000</v>
+        <v>283700</v>
       </c>
       <c r="G21" s="3">
-        <v>216600</v>
+        <v>347600</v>
       </c>
       <c r="H21" s="3">
-        <v>244800</v>
+        <v>243700</v>
       </c>
       <c r="I21" s="3">
-        <v>208900</v>
+        <v>275300</v>
       </c>
       <c r="J21" s="3">
+        <v>235000</v>
+      </c>
+      <c r="K21" s="3">
         <v>201500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>187800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>181900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>246000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>268700</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>56800</v>
+        <v>70200</v>
       </c>
       <c r="E22" s="3">
-        <v>52800</v>
+        <v>63900</v>
       </c>
       <c r="F22" s="3">
-        <v>44200</v>
+        <v>59400</v>
       </c>
       <c r="G22" s="3">
-        <v>45200</v>
+        <v>49800</v>
       </c>
       <c r="H22" s="3">
-        <v>53500</v>
+        <v>50900</v>
       </c>
       <c r="I22" s="3">
-        <v>51100</v>
+        <v>60100</v>
       </c>
       <c r="J22" s="3">
+        <v>57500</v>
+      </c>
+      <c r="K22" s="3">
         <v>56200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>71300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>34700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>14300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10900</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>227600</v>
+        <v>293300</v>
       </c>
       <c r="E23" s="3">
-        <v>199400</v>
+        <v>256000</v>
       </c>
       <c r="F23" s="3">
-        <v>264800</v>
+        <v>224300</v>
       </c>
       <c r="G23" s="3">
-        <v>171400</v>
+        <v>297900</v>
       </c>
       <c r="H23" s="3">
-        <v>191300</v>
+        <v>192800</v>
       </c>
       <c r="I23" s="3">
-        <v>157800</v>
+        <v>215200</v>
       </c>
       <c r="J23" s="3">
+        <v>177500</v>
+      </c>
+      <c r="K23" s="3">
         <v>145300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>116400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>147200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>162300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>198900</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>51700</v>
+        <v>131500</v>
       </c>
       <c r="E24" s="3">
+        <v>58200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>69200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>77100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>70000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>65300</v>
+      </c>
+      <c r="J24" s="3">
         <v>61500</v>
       </c>
-      <c r="F24" s="3">
-        <v>68500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>62200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>58000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>54700</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>46600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>26200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>29900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>49300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>52400</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>175900</v>
+        <v>161900</v>
       </c>
       <c r="E26" s="3">
-        <v>137900</v>
+        <v>197900</v>
       </c>
       <c r="F26" s="3">
-        <v>196300</v>
+        <v>155100</v>
       </c>
       <c r="G26" s="3">
-        <v>109100</v>
+        <v>220800</v>
       </c>
       <c r="H26" s="3">
-        <v>133300</v>
+        <v>122800</v>
       </c>
       <c r="I26" s="3">
-        <v>103100</v>
+        <v>149900</v>
       </c>
       <c r="J26" s="3">
+        <v>116000</v>
+      </c>
+      <c r="K26" s="3">
         <v>98700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>90200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>117300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>113000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>146500</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>173300</v>
+        <v>158100</v>
       </c>
       <c r="E27" s="3">
-        <v>136600</v>
+        <v>194900</v>
       </c>
       <c r="F27" s="3">
-        <v>194600</v>
+        <v>153700</v>
       </c>
       <c r="G27" s="3">
-        <v>108200</v>
+        <v>218900</v>
       </c>
       <c r="H27" s="3">
-        <v>132000</v>
+        <v>121700</v>
       </c>
       <c r="I27" s="3">
-        <v>101400</v>
+        <v>148500</v>
       </c>
       <c r="J27" s="3">
+        <v>114100</v>
+      </c>
+      <c r="K27" s="3">
         <v>98400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>89800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>115700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>112200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>146500</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>27600</v>
+        <v>41900</v>
       </c>
       <c r="E32" s="3">
-        <v>6000</v>
+        <v>31100</v>
       </c>
       <c r="F32" s="3">
-        <v>-26200</v>
+        <v>6800</v>
       </c>
       <c r="G32" s="3">
-        <v>17700</v>
+        <v>-29400</v>
       </c>
       <c r="H32" s="3">
-        <v>1700</v>
+        <v>19900</v>
       </c>
       <c r="I32" s="3">
-        <v>3100</v>
+        <v>1900</v>
       </c>
       <c r="J32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K32" s="3">
         <v>8800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>15200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>10400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8300</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>173300</v>
+        <v>158100</v>
       </c>
       <c r="E33" s="3">
-        <v>136600</v>
+        <v>194900</v>
       </c>
       <c r="F33" s="3">
-        <v>194600</v>
+        <v>153700</v>
       </c>
       <c r="G33" s="3">
-        <v>108200</v>
+        <v>218900</v>
       </c>
       <c r="H33" s="3">
-        <v>132000</v>
+        <v>121700</v>
       </c>
       <c r="I33" s="3">
-        <v>101400</v>
+        <v>148500</v>
       </c>
       <c r="J33" s="3">
+        <v>114100</v>
+      </c>
+      <c r="K33" s="3">
         <v>98400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>89800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>115700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>112200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>146500</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>173300</v>
+        <v>158100</v>
       </c>
       <c r="E35" s="3">
-        <v>136600</v>
+        <v>194900</v>
       </c>
       <c r="F35" s="3">
-        <v>194600</v>
+        <v>153700</v>
       </c>
       <c r="G35" s="3">
-        <v>108200</v>
+        <v>218900</v>
       </c>
       <c r="H35" s="3">
-        <v>132000</v>
+        <v>121700</v>
       </c>
       <c r="I35" s="3">
-        <v>101400</v>
+        <v>148500</v>
       </c>
       <c r="J35" s="3">
+        <v>114100</v>
+      </c>
+      <c r="K35" s="3">
         <v>98400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>89800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>115700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>112200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>146500</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>106400</v>
+        <v>137000</v>
       </c>
       <c r="E41" s="3">
-        <v>93300</v>
+        <v>119700</v>
       </c>
       <c r="F41" s="3">
-        <v>59900</v>
+        <v>105000</v>
       </c>
       <c r="G41" s="3">
-        <v>56900</v>
+        <v>67400</v>
       </c>
       <c r="H41" s="3">
-        <v>44800</v>
+        <v>64100</v>
       </c>
       <c r="I41" s="3">
-        <v>31200</v>
+        <v>50400</v>
       </c>
       <c r="J41" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K41" s="3">
         <v>45300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>94600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>104000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>32100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>24900</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>452300</v>
+        <v>347500</v>
       </c>
       <c r="E42" s="3">
-        <v>410500</v>
+        <v>508800</v>
       </c>
       <c r="F42" s="3">
-        <v>116600</v>
+        <v>461800</v>
       </c>
       <c r="G42" s="3">
-        <v>97100</v>
+        <v>131200</v>
       </c>
       <c r="H42" s="3">
-        <v>123100</v>
+        <v>109300</v>
       </c>
       <c r="I42" s="3">
-        <v>189100</v>
+        <v>138500</v>
       </c>
       <c r="J42" s="3">
+        <v>212700</v>
+      </c>
+      <c r="K42" s="3">
         <v>197300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>126800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>47400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>39000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>22400</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>321600</v>
+        <v>422200</v>
       </c>
       <c r="E43" s="3">
-        <v>231100</v>
+        <v>361800</v>
       </c>
       <c r="F43" s="3">
-        <v>237300</v>
+        <v>260000</v>
       </c>
       <c r="G43" s="3">
-        <v>198700</v>
+        <v>267000</v>
       </c>
       <c r="H43" s="3">
-        <v>211400</v>
+        <v>223600</v>
       </c>
       <c r="I43" s="3">
-        <v>211900</v>
+        <v>237800</v>
       </c>
       <c r="J43" s="3">
+        <v>238400</v>
+      </c>
+      <c r="K43" s="3">
         <v>204300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>244600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>269000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>202400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>228100</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>214300</v>
+        <v>309800</v>
       </c>
       <c r="E44" s="3">
-        <v>143300</v>
+        <v>241100</v>
       </c>
       <c r="F44" s="3">
-        <v>165400</v>
+        <v>161200</v>
       </c>
       <c r="G44" s="3">
-        <v>169500</v>
+        <v>186000</v>
       </c>
       <c r="H44" s="3">
-        <v>147100</v>
+        <v>190700</v>
       </c>
       <c r="I44" s="3">
-        <v>162100</v>
+        <v>165500</v>
       </c>
       <c r="J44" s="3">
+        <v>182300</v>
+      </c>
+      <c r="K44" s="3">
         <v>149300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>178200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>163600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>114300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>86800</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15300</v>
+        <v>247300</v>
       </c>
       <c r="E45" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>16600</v>
+      </c>
+      <c r="G45" s="3">
+        <v>20600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>19200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>17600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K45" s="3">
+        <v>16800</v>
+      </c>
+      <c r="L45" s="3">
         <v>14700</v>
       </c>
-      <c r="F45" s="3">
-        <v>18300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>17100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>15600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>24700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>16800</v>
-      </c>
-      <c r="K45" s="3">
-        <v>14700</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>31000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>49700</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1109900</v>
+        <v>1463800</v>
       </c>
       <c r="E46" s="3">
-        <v>893000</v>
+        <v>1248600</v>
       </c>
       <c r="F46" s="3">
-        <v>597500</v>
+        <v>1004600</v>
       </c>
       <c r="G46" s="3">
-        <v>539400</v>
+        <v>672200</v>
       </c>
       <c r="H46" s="3">
-        <v>542100</v>
+        <v>606800</v>
       </c>
       <c r="I46" s="3">
-        <v>619100</v>
+        <v>609900</v>
       </c>
       <c r="J46" s="3">
+        <v>696500</v>
+      </c>
+      <c r="K46" s="3">
         <v>613100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>658900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>598800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>418800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>355700</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>163200</v>
+        <v>193400</v>
       </c>
       <c r="E47" s="3">
-        <v>185500</v>
+        <v>183600</v>
       </c>
       <c r="F47" s="3">
-        <v>230100</v>
+        <v>208700</v>
       </c>
       <c r="G47" s="3">
-        <v>131100</v>
+        <v>258800</v>
       </c>
       <c r="H47" s="3">
-        <v>102600</v>
+        <v>147500</v>
       </c>
       <c r="I47" s="3">
-        <v>93900</v>
+        <v>115500</v>
       </c>
       <c r="J47" s="3">
+        <v>105600</v>
+      </c>
+      <c r="K47" s="3">
         <v>70800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>147800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>109500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>102200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>101900</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>802300</v>
+        <v>1005800</v>
       </c>
       <c r="E48" s="3">
-        <v>678200</v>
+        <v>902600</v>
       </c>
       <c r="F48" s="3">
-        <v>809400</v>
+        <v>763000</v>
       </c>
       <c r="G48" s="3">
-        <v>796100</v>
+        <v>910600</v>
       </c>
       <c r="H48" s="3">
-        <v>738900</v>
+        <v>895600</v>
       </c>
       <c r="I48" s="3">
-        <v>746100</v>
+        <v>831300</v>
       </c>
       <c r="J48" s="3">
+        <v>839400</v>
+      </c>
+      <c r="K48" s="3">
         <v>717400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>848600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>900800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>738000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>528600</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>871000</v>
+        <v>1009000</v>
       </c>
       <c r="E49" s="3">
-        <v>787200</v>
+        <v>979900</v>
       </c>
       <c r="F49" s="3">
-        <v>891900</v>
+        <v>885600</v>
       </c>
       <c r="G49" s="3">
-        <v>880400</v>
+        <v>1003300</v>
       </c>
       <c r="H49" s="3">
-        <v>847700</v>
+        <v>990400</v>
       </c>
       <c r="I49" s="3">
-        <v>878000</v>
+        <v>953700</v>
       </c>
       <c r="J49" s="3">
+        <v>987700</v>
+      </c>
+      <c r="K49" s="3">
         <v>852900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1005700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1061300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>677600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>88600</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>353200</v>
+        <v>121600</v>
       </c>
       <c r="E52" s="3">
-        <v>197900</v>
+        <v>397400</v>
       </c>
       <c r="F52" s="3">
-        <v>149000</v>
+        <v>222600</v>
       </c>
       <c r="G52" s="3">
-        <v>133300</v>
+        <v>167600</v>
       </c>
       <c r="H52" s="3">
-        <v>137300</v>
+        <v>150000</v>
       </c>
       <c r="I52" s="3">
-        <v>125900</v>
+        <v>154400</v>
       </c>
       <c r="J52" s="3">
+        <v>141700</v>
+      </c>
+      <c r="K52" s="3">
         <v>220300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>39300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>37400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>34500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>45600</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3299600</v>
+        <v>3793500</v>
       </c>
       <c r="E54" s="3">
-        <v>2741800</v>
+        <v>3712100</v>
       </c>
       <c r="F54" s="3">
-        <v>2677900</v>
+        <v>3084600</v>
       </c>
       <c r="G54" s="3">
-        <v>2480200</v>
+        <v>3012600</v>
       </c>
       <c r="H54" s="3">
-        <v>2368600</v>
+        <v>2790300</v>
       </c>
       <c r="I54" s="3">
-        <v>2463000</v>
+        <v>2664700</v>
       </c>
       <c r="J54" s="3">
+        <v>2770900</v>
+      </c>
+      <c r="K54" s="3">
         <v>2474500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2700300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2707800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1971000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1120400</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>429500</v>
+        <v>598600</v>
       </c>
       <c r="E57" s="3">
-        <v>302400</v>
+        <v>483200</v>
       </c>
       <c r="F57" s="3">
-        <v>333000</v>
+        <v>340200</v>
       </c>
       <c r="G57" s="3">
-        <v>318000</v>
+        <v>374600</v>
       </c>
       <c r="H57" s="3">
-        <v>326500</v>
+        <v>357800</v>
       </c>
       <c r="I57" s="3">
-        <v>321400</v>
+        <v>367300</v>
       </c>
       <c r="J57" s="3">
+        <v>361600</v>
+      </c>
+      <c r="K57" s="3">
         <v>292500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>257900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>268300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>245700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>187700</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>37600</v>
+        <v>439200</v>
       </c>
       <c r="E58" s="3">
-        <v>28200</v>
+        <v>42300</v>
       </c>
       <c r="F58" s="3">
-        <v>32500</v>
+        <v>31800</v>
       </c>
       <c r="G58" s="3">
-        <v>49000</v>
+        <v>36600</v>
       </c>
       <c r="H58" s="3">
-        <v>60100</v>
+        <v>55100</v>
       </c>
       <c r="I58" s="3">
-        <v>56100</v>
+        <v>67600</v>
       </c>
       <c r="J58" s="3">
+        <v>63200</v>
+      </c>
+      <c r="K58" s="3">
         <v>51400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>94000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>137600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>136000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>34900</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>125900</v>
+        <v>158300</v>
       </c>
       <c r="E59" s="3">
-        <v>92800</v>
+        <v>141700</v>
       </c>
       <c r="F59" s="3">
-        <v>95500</v>
+        <v>104400</v>
       </c>
       <c r="G59" s="3">
-        <v>103200</v>
+        <v>107400</v>
       </c>
       <c r="H59" s="3">
-        <v>93100</v>
+        <v>116200</v>
       </c>
       <c r="I59" s="3">
-        <v>92300</v>
+        <v>104700</v>
       </c>
       <c r="J59" s="3">
+        <v>103900</v>
+      </c>
+      <c r="K59" s="3">
         <v>82400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>136200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>116900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>60400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>74300</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>593100</v>
+        <v>1196000</v>
       </c>
       <c r="E60" s="3">
-        <v>423400</v>
+        <v>667300</v>
       </c>
       <c r="F60" s="3">
-        <v>461100</v>
+        <v>476400</v>
       </c>
       <c r="G60" s="3">
-        <v>470200</v>
+        <v>518700</v>
       </c>
       <c r="H60" s="3">
-        <v>479700</v>
+        <v>529000</v>
       </c>
       <c r="I60" s="3">
-        <v>469900</v>
+        <v>539600</v>
       </c>
       <c r="J60" s="3">
+        <v>528600</v>
+      </c>
+      <c r="K60" s="3">
         <v>426200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>488200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>522800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>442100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>296900</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1166000</v>
+        <v>998700</v>
       </c>
       <c r="E61" s="3">
-        <v>1050900</v>
+        <v>1311700</v>
       </c>
       <c r="F61" s="3">
-        <v>832500</v>
+        <v>1182200</v>
       </c>
       <c r="G61" s="3">
-        <v>802600</v>
+        <v>936600</v>
       </c>
       <c r="H61" s="3">
-        <v>756900</v>
+        <v>902900</v>
       </c>
       <c r="I61" s="3">
-        <v>808200</v>
+        <v>851500</v>
       </c>
       <c r="J61" s="3">
+        <v>909200</v>
+      </c>
+      <c r="K61" s="3">
         <v>857100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>864700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>785700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>222600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>112700</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>307000</v>
+        <v>485600</v>
       </c>
       <c r="E62" s="3">
-        <v>336200</v>
+        <v>345300</v>
       </c>
       <c r="F62" s="3">
-        <v>299100</v>
+        <v>378200</v>
       </c>
       <c r="G62" s="3">
-        <v>240100</v>
+        <v>336500</v>
       </c>
       <c r="H62" s="3">
-        <v>221300</v>
+        <v>270100</v>
       </c>
       <c r="I62" s="3">
-        <v>241700</v>
+        <v>248900</v>
       </c>
       <c r="J62" s="3">
+        <v>272000</v>
+      </c>
+      <c r="K62" s="3">
         <v>237400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>253900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>253500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>162500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>73500</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2094400</v>
+        <v>2715900</v>
       </c>
       <c r="E66" s="3">
-        <v>1833300</v>
+        <v>2356200</v>
       </c>
       <c r="F66" s="3">
-        <v>1615400</v>
+        <v>2062500</v>
       </c>
       <c r="G66" s="3">
-        <v>1535200</v>
+        <v>1817300</v>
       </c>
       <c r="H66" s="3">
-        <v>1482400</v>
+        <v>1727100</v>
       </c>
       <c r="I66" s="3">
-        <v>1543900</v>
+        <v>1667700</v>
       </c>
       <c r="J66" s="3">
+        <v>1736900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1544400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1632500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1589000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>852100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>483200</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1345400</v>
+        <v>1449200</v>
       </c>
       <c r="E72" s="3">
-        <v>1217800</v>
+        <v>1513600</v>
       </c>
       <c r="F72" s="3">
-        <v>1158200</v>
+        <v>1370000</v>
       </c>
       <c r="G72" s="3">
-        <v>1002800</v>
+        <v>1302900</v>
       </c>
       <c r="H72" s="3">
-        <v>854200</v>
+        <v>1128200</v>
       </c>
       <c r="I72" s="3">
-        <v>809600</v>
+        <v>961000</v>
       </c>
       <c r="J72" s="3">
+        <v>910800</v>
+      </c>
+      <c r="K72" s="3">
         <v>786100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>803200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>871400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>853700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>322400</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1205300</v>
+        <v>1077600</v>
       </c>
       <c r="E76" s="3">
-        <v>908500</v>
+        <v>1355900</v>
       </c>
       <c r="F76" s="3">
-        <v>1062500</v>
+        <v>1022100</v>
       </c>
       <c r="G76" s="3">
-        <v>945100</v>
+        <v>1195300</v>
       </c>
       <c r="H76" s="3">
-        <v>886300</v>
+        <v>1063200</v>
       </c>
       <c r="I76" s="3">
-        <v>919100</v>
+        <v>997100</v>
       </c>
       <c r="J76" s="3">
+        <v>1034000</v>
+      </c>
+      <c r="K76" s="3">
         <v>930100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1067800</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1118900</v>
       </c>
       <c r="M76" s="3">
         <v>1118900</v>
       </c>
       <c r="N76" s="3">
+        <v>1118900</v>
+      </c>
+      <c r="O76" s="3">
         <v>637200</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>173300</v>
+        <v>158100</v>
       </c>
       <c r="E81" s="3">
-        <v>136600</v>
+        <v>194900</v>
       </c>
       <c r="F81" s="3">
-        <v>194600</v>
+        <v>153700</v>
       </c>
       <c r="G81" s="3">
-        <v>108200</v>
+        <v>218900</v>
       </c>
       <c r="H81" s="3">
-        <v>132000</v>
+        <v>121700</v>
       </c>
       <c r="I81" s="3">
-        <v>101400</v>
+        <v>148500</v>
       </c>
       <c r="J81" s="3">
+        <v>114100</v>
+      </c>
+      <c r="K81" s="3">
         <v>98400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>89800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>115700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>112200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>146500</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,8 +3492,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3328,14 +3526,17 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>68900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>59700</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>334700</v>
+        <v>479900</v>
       </c>
       <c r="E89" s="3">
-        <v>309500</v>
+        <v>376600</v>
       </c>
       <c r="F89" s="3">
-        <v>283500</v>
+        <v>348200</v>
       </c>
       <c r="G89" s="3">
-        <v>258100</v>
+        <v>319000</v>
       </c>
       <c r="H89" s="3">
-        <v>277700</v>
+        <v>290400</v>
       </c>
       <c r="I89" s="3">
-        <v>250300</v>
+        <v>312400</v>
       </c>
       <c r="J89" s="3">
+        <v>281500</v>
+      </c>
+      <c r="K89" s="3">
         <v>296700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>256500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>223700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>241700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>209800</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-155500</v>
+        <v>-235200</v>
       </c>
       <c r="E91" s="3">
-        <v>-96200</v>
+        <v>-175000</v>
       </c>
       <c r="F91" s="3">
-        <v>-124000</v>
+        <v>-108200</v>
       </c>
       <c r="G91" s="3">
-        <v>-135600</v>
+        <v>-139500</v>
       </c>
       <c r="H91" s="3">
-        <v>-189100</v>
+        <v>-152500</v>
       </c>
       <c r="I91" s="3">
-        <v>-143600</v>
+        <v>-212800</v>
       </c>
       <c r="J91" s="3">
+        <v>-161600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-125900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-135900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-238800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-184000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-191700</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-222000</v>
+        <v>-107300</v>
       </c>
       <c r="E94" s="3">
-        <v>-250700</v>
+        <v>-249800</v>
       </c>
       <c r="F94" s="3">
-        <v>-123300</v>
+        <v>-282100</v>
       </c>
       <c r="G94" s="3">
-        <v>-132300</v>
+        <v>-138700</v>
       </c>
       <c r="H94" s="3">
-        <v>-189100</v>
+        <v>-148800</v>
       </c>
       <c r="I94" s="3">
-        <v>-127600</v>
+        <v>-212700</v>
       </c>
       <c r="J94" s="3">
+        <v>-143500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-115500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-198500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-581800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-199900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-135300</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-119100</v>
+        <v>-345600</v>
       </c>
       <c r="E96" s="3">
-        <v>-112000</v>
+        <v>-134000</v>
       </c>
       <c r="F96" s="3">
-        <v>-96600</v>
+        <v>-126000</v>
       </c>
       <c r="G96" s="3">
-        <v>-98000</v>
+        <v>-108700</v>
       </c>
       <c r="H96" s="3">
-        <v>-84000</v>
+        <v>-110300</v>
       </c>
       <c r="I96" s="3">
-        <v>-75700</v>
+        <v>-94500</v>
       </c>
       <c r="J96" s="3">
+        <v>-85200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-60800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-62200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-95000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-89300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-107100</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-129200</v>
+        <v>-361600</v>
       </c>
       <c r="E100" s="3">
-        <v>126600</v>
+        <v>-145300</v>
       </c>
       <c r="F100" s="3">
-        <v>-142400</v>
+        <v>142400</v>
       </c>
       <c r="G100" s="3">
-        <v>-128400</v>
+        <v>-160200</v>
       </c>
       <c r="H100" s="3">
-        <v>-87700</v>
+        <v>-144400</v>
       </c>
       <c r="I100" s="3">
-        <v>-110000</v>
+        <v>-98700</v>
       </c>
       <c r="J100" s="3">
+        <v>-123800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-110400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-55800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>394000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-101400</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10600</v>
+        <v>-26900</v>
       </c>
       <c r="E101" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="G101" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H101" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-15200</v>
       </c>
-      <c r="F101" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G101" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="I101" s="3">
-        <v>900</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1300</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5800</v>
+        <v>-15900</v>
       </c>
       <c r="E102" s="3">
-        <v>170200</v>
+        <v>-6600</v>
       </c>
       <c r="F102" s="3">
-        <v>22400</v>
+        <v>191500</v>
       </c>
       <c r="G102" s="3">
-        <v>1500</v>
+        <v>25200</v>
       </c>
       <c r="H102" s="3">
-        <v>-5600</v>
+        <v>1600</v>
       </c>
       <c r="I102" s="3">
-        <v>13600</v>
+        <v>-6300</v>
       </c>
       <c r="J102" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K102" s="3">
         <v>55600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>31800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>31000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-25600</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3347700</v>
+        <v>3108500</v>
       </c>
       <c r="E8" s="3">
-        <v>2793100</v>
+        <v>2593600</v>
       </c>
       <c r="F8" s="3">
-        <v>2139800</v>
+        <v>1987000</v>
       </c>
       <c r="G8" s="3">
-        <v>2241600</v>
+        <v>2081500</v>
       </c>
       <c r="H8" s="3">
-        <v>2107900</v>
+        <v>1957300</v>
       </c>
       <c r="I8" s="3">
-        <v>2329600</v>
+        <v>2163200</v>
       </c>
       <c r="J8" s="3">
-        <v>2239600</v>
+        <v>2079600</v>
       </c>
       <c r="K8" s="3">
         <v>2102700</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2052200</v>
+        <v>1905600</v>
       </c>
       <c r="E9" s="3">
-        <v>1733000</v>
+        <v>1609200</v>
       </c>
       <c r="F9" s="3">
-        <v>1288300</v>
+        <v>1196300</v>
       </c>
       <c r="G9" s="3">
-        <v>1320900</v>
+        <v>1226600</v>
       </c>
       <c r="H9" s="3">
-        <v>1219700</v>
+        <v>1132600</v>
       </c>
       <c r="I9" s="3">
-        <v>1347000</v>
+        <v>1250800</v>
       </c>
       <c r="J9" s="3">
-        <v>1302700</v>
+        <v>1209700</v>
       </c>
       <c r="K9" s="3">
         <v>1239500</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1295500</v>
+        <v>1203000</v>
       </c>
       <c r="E10" s="3">
-        <v>1060100</v>
+        <v>984400</v>
       </c>
       <c r="F10" s="3">
-        <v>851500</v>
+        <v>790700</v>
       </c>
       <c r="G10" s="3">
-        <v>920700</v>
+        <v>854900</v>
       </c>
       <c r="H10" s="3">
-        <v>888200</v>
+        <v>824700</v>
       </c>
       <c r="I10" s="3">
-        <v>982600</v>
+        <v>912400</v>
       </c>
       <c r="J10" s="3">
-        <v>936900</v>
+        <v>870000</v>
       </c>
       <c r="K10" s="3">
         <v>863200</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>29100</v>
+        <v>27100</v>
       </c>
       <c r="E14" s="3">
         <v>500</v>
       </c>
       <c r="F14" s="3">
-        <v>10000</v>
+        <v>9300</v>
       </c>
       <c r="G14" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="H14" s="3">
         <v>300</v>
       </c>
       <c r="I14" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="J14" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="K14" s="3">
         <v>4500</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2942200</v>
+        <v>2732100</v>
       </c>
       <c r="E17" s="3">
-        <v>2442100</v>
+        <v>2267700</v>
       </c>
       <c r="F17" s="3">
-        <v>1849400</v>
+        <v>1717300</v>
       </c>
       <c r="G17" s="3">
-        <v>1923400</v>
+        <v>1786000</v>
       </c>
       <c r="H17" s="3">
-        <v>1844300</v>
+        <v>1712500</v>
       </c>
       <c r="I17" s="3">
-        <v>2052300</v>
+        <v>1905700</v>
       </c>
       <c r="J17" s="3">
-        <v>2001100</v>
+        <v>1858200</v>
       </c>
       <c r="K17" s="3">
         <v>1892400</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>405400</v>
+        <v>376500</v>
       </c>
       <c r="E18" s="3">
-        <v>351000</v>
+        <v>325900</v>
       </c>
       <c r="F18" s="3">
-        <v>290500</v>
+        <v>269700</v>
       </c>
       <c r="G18" s="3">
-        <v>318200</v>
+        <v>295500</v>
       </c>
       <c r="H18" s="3">
-        <v>263600</v>
+        <v>244800</v>
       </c>
       <c r="I18" s="3">
-        <v>277200</v>
+        <v>257400</v>
       </c>
       <c r="J18" s="3">
-        <v>238500</v>
+        <v>221500</v>
       </c>
       <c r="K18" s="3">
         <v>210300</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-41900</v>
+        <v>-38900</v>
       </c>
       <c r="E20" s="3">
-        <v>-31100</v>
+        <v>-28800</v>
       </c>
       <c r="F20" s="3">
-        <v>-6800</v>
+        <v>-6300</v>
       </c>
       <c r="G20" s="3">
-        <v>29400</v>
+        <v>27300</v>
       </c>
       <c r="H20" s="3">
-        <v>-19900</v>
+        <v>-18500</v>
       </c>
       <c r="I20" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="J20" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="K20" s="3">
         <v>-8800</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>363600</v>
+        <v>337600</v>
       </c>
       <c r="E21" s="3">
-        <v>319900</v>
+        <v>297100</v>
       </c>
       <c r="F21" s="3">
-        <v>283700</v>
+        <v>263400</v>
       </c>
       <c r="G21" s="3">
-        <v>347600</v>
+        <v>322800</v>
       </c>
       <c r="H21" s="3">
-        <v>243700</v>
+        <v>226300</v>
       </c>
       <c r="I21" s="3">
-        <v>275300</v>
+        <v>255700</v>
       </c>
       <c r="J21" s="3">
-        <v>235000</v>
+        <v>218200</v>
       </c>
       <c r="K21" s="3">
         <v>201500</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>70200</v>
+        <v>65200</v>
       </c>
       <c r="E22" s="3">
-        <v>63900</v>
+        <v>59300</v>
       </c>
       <c r="F22" s="3">
-        <v>59400</v>
+        <v>55100</v>
       </c>
       <c r="G22" s="3">
-        <v>49800</v>
+        <v>46200</v>
       </c>
       <c r="H22" s="3">
-        <v>50900</v>
+        <v>47200</v>
       </c>
       <c r="I22" s="3">
-        <v>60100</v>
+        <v>55800</v>
       </c>
       <c r="J22" s="3">
-        <v>57500</v>
+        <v>53400</v>
       </c>
       <c r="K22" s="3">
         <v>56200</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>293300</v>
+        <v>272400</v>
       </c>
       <c r="E23" s="3">
-        <v>256000</v>
+        <v>237800</v>
       </c>
       <c r="F23" s="3">
-        <v>224300</v>
+        <v>208300</v>
       </c>
       <c r="G23" s="3">
-        <v>297900</v>
+        <v>276600</v>
       </c>
       <c r="H23" s="3">
-        <v>192800</v>
+        <v>179000</v>
       </c>
       <c r="I23" s="3">
-        <v>215200</v>
+        <v>199800</v>
       </c>
       <c r="J23" s="3">
-        <v>177500</v>
+        <v>164800</v>
       </c>
       <c r="K23" s="3">
         <v>145300</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>131500</v>
+        <v>122100</v>
       </c>
       <c r="E24" s="3">
-        <v>58200</v>
+        <v>54000</v>
       </c>
       <c r="F24" s="3">
-        <v>69200</v>
+        <v>64200</v>
       </c>
       <c r="G24" s="3">
-        <v>77100</v>
+        <v>71600</v>
       </c>
       <c r="H24" s="3">
-        <v>70000</v>
+        <v>65000</v>
       </c>
       <c r="I24" s="3">
-        <v>65300</v>
+        <v>60600</v>
       </c>
       <c r="J24" s="3">
-        <v>61500</v>
+        <v>57100</v>
       </c>
       <c r="K24" s="3">
         <v>46600</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>161900</v>
+        <v>150300</v>
       </c>
       <c r="E26" s="3">
-        <v>197900</v>
+        <v>183700</v>
       </c>
       <c r="F26" s="3">
-        <v>155100</v>
+        <v>144000</v>
       </c>
       <c r="G26" s="3">
-        <v>220800</v>
+        <v>205000</v>
       </c>
       <c r="H26" s="3">
-        <v>122800</v>
+        <v>114000</v>
       </c>
       <c r="I26" s="3">
-        <v>149900</v>
+        <v>139200</v>
       </c>
       <c r="J26" s="3">
-        <v>116000</v>
+        <v>107700</v>
       </c>
       <c r="K26" s="3">
         <v>98700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>158100</v>
+        <v>146800</v>
       </c>
       <c r="E27" s="3">
-        <v>194900</v>
+        <v>181000</v>
       </c>
       <c r="F27" s="3">
-        <v>153700</v>
+        <v>142700</v>
       </c>
       <c r="G27" s="3">
-        <v>218900</v>
+        <v>203300</v>
       </c>
       <c r="H27" s="3">
-        <v>121700</v>
+        <v>113000</v>
       </c>
       <c r="I27" s="3">
-        <v>148500</v>
+        <v>137900</v>
       </c>
       <c r="J27" s="3">
-        <v>114100</v>
+        <v>105900</v>
       </c>
       <c r="K27" s="3">
         <v>98400</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>41900</v>
+        <v>38900</v>
       </c>
       <c r="E32" s="3">
-        <v>31100</v>
+        <v>28800</v>
       </c>
       <c r="F32" s="3">
-        <v>6800</v>
+        <v>6300</v>
       </c>
       <c r="G32" s="3">
-        <v>-29400</v>
+        <v>-27300</v>
       </c>
       <c r="H32" s="3">
-        <v>19900</v>
+        <v>18500</v>
       </c>
       <c r="I32" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J32" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="K32" s="3">
         <v>8800</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>158100</v>
+        <v>146800</v>
       </c>
       <c r="E33" s="3">
-        <v>194900</v>
+        <v>181000</v>
       </c>
       <c r="F33" s="3">
-        <v>153700</v>
+        <v>142700</v>
       </c>
       <c r="G33" s="3">
-        <v>218900</v>
+        <v>203300</v>
       </c>
       <c r="H33" s="3">
-        <v>121700</v>
+        <v>113000</v>
       </c>
       <c r="I33" s="3">
-        <v>148500</v>
+        <v>137900</v>
       </c>
       <c r="J33" s="3">
-        <v>114100</v>
+        <v>105900</v>
       </c>
       <c r="K33" s="3">
         <v>98400</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>158100</v>
+        <v>146800</v>
       </c>
       <c r="E35" s="3">
-        <v>194900</v>
+        <v>181000</v>
       </c>
       <c r="F35" s="3">
-        <v>153700</v>
+        <v>142700</v>
       </c>
       <c r="G35" s="3">
-        <v>218900</v>
+        <v>203300</v>
       </c>
       <c r="H35" s="3">
-        <v>121700</v>
+        <v>113000</v>
       </c>
       <c r="I35" s="3">
-        <v>148500</v>
+        <v>137900</v>
       </c>
       <c r="J35" s="3">
-        <v>114100</v>
+        <v>105900</v>
       </c>
       <c r="K35" s="3">
         <v>98400</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>137000</v>
+        <v>127200</v>
       </c>
       <c r="E41" s="3">
-        <v>119700</v>
+        <v>111100</v>
       </c>
       <c r="F41" s="3">
-        <v>105000</v>
+        <v>97500</v>
       </c>
       <c r="G41" s="3">
-        <v>67400</v>
+        <v>62600</v>
       </c>
       <c r="H41" s="3">
-        <v>64100</v>
+        <v>59500</v>
       </c>
       <c r="I41" s="3">
-        <v>50400</v>
+        <v>46800</v>
       </c>
       <c r="J41" s="3">
-        <v>35200</v>
+        <v>32600</v>
       </c>
       <c r="K41" s="3">
         <v>45300</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>347500</v>
+        <v>322700</v>
       </c>
       <c r="E42" s="3">
-        <v>508800</v>
+        <v>472500</v>
       </c>
       <c r="F42" s="3">
-        <v>461800</v>
+        <v>428800</v>
       </c>
       <c r="G42" s="3">
-        <v>131200</v>
+        <v>121800</v>
       </c>
       <c r="H42" s="3">
-        <v>109300</v>
+        <v>101500</v>
       </c>
       <c r="I42" s="3">
-        <v>138500</v>
+        <v>128600</v>
       </c>
       <c r="J42" s="3">
-        <v>212700</v>
+        <v>197500</v>
       </c>
       <c r="K42" s="3">
         <v>197300</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>422200</v>
+        <v>392000</v>
       </c>
       <c r="E43" s="3">
-        <v>361800</v>
+        <v>336000</v>
       </c>
       <c r="F43" s="3">
-        <v>260000</v>
+        <v>241400</v>
       </c>
       <c r="G43" s="3">
-        <v>267000</v>
+        <v>247900</v>
       </c>
       <c r="H43" s="3">
-        <v>223600</v>
+        <v>207600</v>
       </c>
       <c r="I43" s="3">
-        <v>237800</v>
+        <v>220900</v>
       </c>
       <c r="J43" s="3">
-        <v>238400</v>
+        <v>221400</v>
       </c>
       <c r="K43" s="3">
         <v>204300</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>309800</v>
+        <v>287700</v>
       </c>
       <c r="E44" s="3">
-        <v>241100</v>
+        <v>223900</v>
       </c>
       <c r="F44" s="3">
-        <v>161200</v>
+        <v>149700</v>
       </c>
       <c r="G44" s="3">
-        <v>186000</v>
+        <v>172700</v>
       </c>
       <c r="H44" s="3">
-        <v>190700</v>
+        <v>177000</v>
       </c>
       <c r="I44" s="3">
-        <v>165500</v>
+        <v>153700</v>
       </c>
       <c r="J44" s="3">
-        <v>182300</v>
+        <v>169300</v>
       </c>
       <c r="K44" s="3">
         <v>149300</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>247300</v>
+        <v>229600</v>
       </c>
       <c r="E45" s="3">
-        <v>17200</v>
+        <v>16000</v>
       </c>
       <c r="F45" s="3">
-        <v>16600</v>
+        <v>15400</v>
       </c>
       <c r="G45" s="3">
-        <v>20600</v>
+        <v>19100</v>
       </c>
       <c r="H45" s="3">
-        <v>19200</v>
+        <v>17900</v>
       </c>
       <c r="I45" s="3">
-        <v>17600</v>
+        <v>16300</v>
       </c>
       <c r="J45" s="3">
-        <v>27800</v>
+        <v>25800</v>
       </c>
       <c r="K45" s="3">
         <v>16800</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1463800</v>
+        <v>1359200</v>
       </c>
       <c r="E46" s="3">
-        <v>1248600</v>
+        <v>1159500</v>
       </c>
       <c r="F46" s="3">
-        <v>1004600</v>
+        <v>932800</v>
       </c>
       <c r="G46" s="3">
-        <v>672200</v>
+        <v>624200</v>
       </c>
       <c r="H46" s="3">
-        <v>606800</v>
+        <v>563500</v>
       </c>
       <c r="I46" s="3">
-        <v>609900</v>
+        <v>566300</v>
       </c>
       <c r="J46" s="3">
-        <v>696500</v>
+        <v>646700</v>
       </c>
       <c r="K46" s="3">
         <v>613100</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>193400</v>
+        <v>179600</v>
       </c>
       <c r="E47" s="3">
-        <v>183600</v>
+        <v>170400</v>
       </c>
       <c r="F47" s="3">
-        <v>208700</v>
+        <v>193800</v>
       </c>
       <c r="G47" s="3">
-        <v>258800</v>
+        <v>240400</v>
       </c>
       <c r="H47" s="3">
-        <v>147500</v>
+        <v>137000</v>
       </c>
       <c r="I47" s="3">
-        <v>115500</v>
+        <v>107200</v>
       </c>
       <c r="J47" s="3">
-        <v>105600</v>
+        <v>98100</v>
       </c>
       <c r="K47" s="3">
         <v>70800</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1005800</v>
+        <v>933900</v>
       </c>
       <c r="E48" s="3">
-        <v>902600</v>
+        <v>838200</v>
       </c>
       <c r="F48" s="3">
-        <v>763000</v>
+        <v>708500</v>
       </c>
       <c r="G48" s="3">
-        <v>910600</v>
+        <v>845600</v>
       </c>
       <c r="H48" s="3">
-        <v>895600</v>
+        <v>831600</v>
       </c>
       <c r="I48" s="3">
-        <v>831300</v>
+        <v>771900</v>
       </c>
       <c r="J48" s="3">
-        <v>839400</v>
+        <v>779400</v>
       </c>
       <c r="K48" s="3">
         <v>717400</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1009000</v>
+        <v>936900</v>
       </c>
       <c r="E49" s="3">
-        <v>979900</v>
+        <v>909900</v>
       </c>
       <c r="F49" s="3">
-        <v>885600</v>
+        <v>822300</v>
       </c>
       <c r="G49" s="3">
-        <v>1003300</v>
+        <v>931700</v>
       </c>
       <c r="H49" s="3">
-        <v>990400</v>
+        <v>919700</v>
       </c>
       <c r="I49" s="3">
-        <v>953700</v>
+        <v>885500</v>
       </c>
       <c r="J49" s="3">
-        <v>987700</v>
+        <v>917200</v>
       </c>
       <c r="K49" s="3">
         <v>852900</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>121600</v>
+        <v>112900</v>
       </c>
       <c r="E52" s="3">
-        <v>397400</v>
+        <v>369000</v>
       </c>
       <c r="F52" s="3">
-        <v>222600</v>
+        <v>206700</v>
       </c>
       <c r="G52" s="3">
-        <v>167600</v>
+        <v>155600</v>
       </c>
       <c r="H52" s="3">
-        <v>150000</v>
+        <v>139200</v>
       </c>
       <c r="I52" s="3">
-        <v>154400</v>
+        <v>143400</v>
       </c>
       <c r="J52" s="3">
-        <v>141700</v>
+        <v>131600</v>
       </c>
       <c r="K52" s="3">
         <v>220300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3793500</v>
+        <v>3522500</v>
       </c>
       <c r="E54" s="3">
-        <v>3712100</v>
+        <v>3446900</v>
       </c>
       <c r="F54" s="3">
-        <v>3084600</v>
+        <v>2864200</v>
       </c>
       <c r="G54" s="3">
-        <v>3012600</v>
+        <v>2797400</v>
       </c>
       <c r="H54" s="3">
-        <v>2790300</v>
+        <v>2591000</v>
       </c>
       <c r="I54" s="3">
-        <v>2664700</v>
+        <v>2474400</v>
       </c>
       <c r="J54" s="3">
-        <v>2770900</v>
+        <v>2573000</v>
       </c>
       <c r="K54" s="3">
         <v>2474500</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>598600</v>
+        <v>555800</v>
       </c>
       <c r="E57" s="3">
-        <v>483200</v>
+        <v>448700</v>
       </c>
       <c r="F57" s="3">
-        <v>340200</v>
+        <v>315900</v>
       </c>
       <c r="G57" s="3">
-        <v>374600</v>
+        <v>347900</v>
       </c>
       <c r="H57" s="3">
-        <v>357800</v>
+        <v>332200</v>
       </c>
       <c r="I57" s="3">
-        <v>367300</v>
+        <v>341000</v>
       </c>
       <c r="J57" s="3">
-        <v>361600</v>
+        <v>335700</v>
       </c>
       <c r="K57" s="3">
         <v>292500</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>439200</v>
+        <v>407800</v>
       </c>
       <c r="E58" s="3">
-        <v>42300</v>
+        <v>39300</v>
       </c>
       <c r="F58" s="3">
-        <v>31800</v>
+        <v>29500</v>
       </c>
       <c r="G58" s="3">
-        <v>36600</v>
+        <v>34000</v>
       </c>
       <c r="H58" s="3">
-        <v>55100</v>
+        <v>51200</v>
       </c>
       <c r="I58" s="3">
-        <v>67600</v>
+        <v>62800</v>
       </c>
       <c r="J58" s="3">
-        <v>63200</v>
+        <v>58600</v>
       </c>
       <c r="K58" s="3">
         <v>51400</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>158300</v>
+        <v>147000</v>
       </c>
       <c r="E59" s="3">
-        <v>141700</v>
+        <v>131600</v>
       </c>
       <c r="F59" s="3">
-        <v>104400</v>
+        <v>96900</v>
       </c>
       <c r="G59" s="3">
-        <v>107400</v>
+        <v>99800</v>
       </c>
       <c r="H59" s="3">
-        <v>116200</v>
+        <v>107900</v>
       </c>
       <c r="I59" s="3">
-        <v>104700</v>
+        <v>97300</v>
       </c>
       <c r="J59" s="3">
-        <v>103900</v>
+        <v>96500</v>
       </c>
       <c r="K59" s="3">
         <v>82400</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1196000</v>
+        <v>1110600</v>
       </c>
       <c r="E60" s="3">
-        <v>667300</v>
+        <v>619600</v>
       </c>
       <c r="F60" s="3">
-        <v>476400</v>
+        <v>442300</v>
       </c>
       <c r="G60" s="3">
-        <v>518700</v>
+        <v>481600</v>
       </c>
       <c r="H60" s="3">
-        <v>529000</v>
+        <v>491200</v>
       </c>
       <c r="I60" s="3">
-        <v>539600</v>
+        <v>501100</v>
       </c>
       <c r="J60" s="3">
-        <v>528600</v>
+        <v>490900</v>
       </c>
       <c r="K60" s="3">
         <v>426200</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>998700</v>
+        <v>927400</v>
       </c>
       <c r="E61" s="3">
-        <v>1311700</v>
+        <v>1218000</v>
       </c>
       <c r="F61" s="3">
-        <v>1182200</v>
+        <v>1097800</v>
       </c>
       <c r="G61" s="3">
-        <v>936600</v>
+        <v>869700</v>
       </c>
       <c r="H61" s="3">
-        <v>902900</v>
+        <v>838400</v>
       </c>
       <c r="I61" s="3">
-        <v>851500</v>
+        <v>790600</v>
       </c>
       <c r="J61" s="3">
-        <v>909200</v>
+        <v>844200</v>
       </c>
       <c r="K61" s="3">
         <v>857100</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>485600</v>
+        <v>450900</v>
       </c>
       <c r="E62" s="3">
-        <v>345300</v>
+        <v>320700</v>
       </c>
       <c r="F62" s="3">
-        <v>378200</v>
+        <v>351200</v>
       </c>
       <c r="G62" s="3">
-        <v>336500</v>
+        <v>312500</v>
       </c>
       <c r="H62" s="3">
-        <v>270100</v>
+        <v>250800</v>
       </c>
       <c r="I62" s="3">
-        <v>248900</v>
+        <v>231200</v>
       </c>
       <c r="J62" s="3">
-        <v>272000</v>
+        <v>252500</v>
       </c>
       <c r="K62" s="3">
         <v>237400</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2715900</v>
+        <v>2521900</v>
       </c>
       <c r="E66" s="3">
-        <v>2356200</v>
+        <v>2187900</v>
       </c>
       <c r="F66" s="3">
-        <v>2062500</v>
+        <v>1915200</v>
       </c>
       <c r="G66" s="3">
-        <v>1817300</v>
+        <v>1687500</v>
       </c>
       <c r="H66" s="3">
-        <v>1727100</v>
+        <v>1603700</v>
       </c>
       <c r="I66" s="3">
-        <v>1667700</v>
+        <v>1548600</v>
       </c>
       <c r="J66" s="3">
-        <v>1736900</v>
+        <v>1612800</v>
       </c>
       <c r="K66" s="3">
         <v>1544400</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1449200</v>
+        <v>1345600</v>
       </c>
       <c r="E72" s="3">
-        <v>1513600</v>
+        <v>1405500</v>
       </c>
       <c r="F72" s="3">
-        <v>1370000</v>
+        <v>1272200</v>
       </c>
       <c r="G72" s="3">
-        <v>1302900</v>
+        <v>1209900</v>
       </c>
       <c r="H72" s="3">
-        <v>1128200</v>
+        <v>1047600</v>
       </c>
       <c r="I72" s="3">
-        <v>961000</v>
+        <v>892300</v>
       </c>
       <c r="J72" s="3">
-        <v>910800</v>
+        <v>845700</v>
       </c>
       <c r="K72" s="3">
         <v>786100</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1077600</v>
+        <v>1000700</v>
       </c>
       <c r="E76" s="3">
-        <v>1355900</v>
+        <v>1259100</v>
       </c>
       <c r="F76" s="3">
-        <v>1022100</v>
+        <v>949100</v>
       </c>
       <c r="G76" s="3">
-        <v>1195300</v>
+        <v>1109900</v>
       </c>
       <c r="H76" s="3">
-        <v>1063200</v>
+        <v>987300</v>
       </c>
       <c r="I76" s="3">
-        <v>997100</v>
+        <v>925800</v>
       </c>
       <c r="J76" s="3">
-        <v>1034000</v>
+        <v>960100</v>
       </c>
       <c r="K76" s="3">
         <v>930100</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>158100</v>
+        <v>146800</v>
       </c>
       <c r="E81" s="3">
-        <v>194900</v>
+        <v>181000</v>
       </c>
       <c r="F81" s="3">
-        <v>153700</v>
+        <v>142700</v>
       </c>
       <c r="G81" s="3">
-        <v>218900</v>
+        <v>203300</v>
       </c>
       <c r="H81" s="3">
-        <v>121700</v>
+        <v>113000</v>
       </c>
       <c r="I81" s="3">
-        <v>148500</v>
+        <v>137900</v>
       </c>
       <c r="J81" s="3">
-        <v>114100</v>
+        <v>105900</v>
       </c>
       <c r="K81" s="3">
         <v>98400</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>479900</v>
+        <v>445600</v>
       </c>
       <c r="E89" s="3">
-        <v>376600</v>
+        <v>349700</v>
       </c>
       <c r="F89" s="3">
-        <v>348200</v>
+        <v>323400</v>
       </c>
       <c r="G89" s="3">
-        <v>319000</v>
+        <v>296200</v>
       </c>
       <c r="H89" s="3">
-        <v>290400</v>
+        <v>269600</v>
       </c>
       <c r="I89" s="3">
-        <v>312400</v>
+        <v>290100</v>
       </c>
       <c r="J89" s="3">
-        <v>281500</v>
+        <v>261400</v>
       </c>
       <c r="K89" s="3">
         <v>296700</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-235200</v>
+        <v>-218400</v>
       </c>
       <c r="E91" s="3">
-        <v>-175000</v>
+        <v>-162500</v>
       </c>
       <c r="F91" s="3">
-        <v>-108200</v>
+        <v>-100500</v>
       </c>
       <c r="G91" s="3">
-        <v>-139500</v>
+        <v>-129500</v>
       </c>
       <c r="H91" s="3">
-        <v>-152500</v>
+        <v>-141600</v>
       </c>
       <c r="I91" s="3">
-        <v>-212800</v>
+        <v>-197600</v>
       </c>
       <c r="J91" s="3">
-        <v>-161600</v>
+        <v>-150000</v>
       </c>
       <c r="K91" s="3">
         <v>-125900</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-107300</v>
+        <v>-99600</v>
       </c>
       <c r="E94" s="3">
-        <v>-249800</v>
+        <v>-232000</v>
       </c>
       <c r="F94" s="3">
-        <v>-282100</v>
+        <v>-261900</v>
       </c>
       <c r="G94" s="3">
-        <v>-138700</v>
+        <v>-128800</v>
       </c>
       <c r="H94" s="3">
-        <v>-148800</v>
+        <v>-138200</v>
       </c>
       <c r="I94" s="3">
-        <v>-212700</v>
+        <v>-197500</v>
       </c>
       <c r="J94" s="3">
-        <v>-143500</v>
+        <v>-133300</v>
       </c>
       <c r="K94" s="3">
         <v>-115500</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-345600</v>
+        <v>-320900</v>
       </c>
       <c r="E96" s="3">
-        <v>-134000</v>
+        <v>-124400</v>
       </c>
       <c r="F96" s="3">
-        <v>-126000</v>
+        <v>-117000</v>
       </c>
       <c r="G96" s="3">
-        <v>-108700</v>
+        <v>-100900</v>
       </c>
       <c r="H96" s="3">
-        <v>-110300</v>
+        <v>-102400</v>
       </c>
       <c r="I96" s="3">
-        <v>-94500</v>
+        <v>-87700</v>
       </c>
       <c r="J96" s="3">
-        <v>-85200</v>
+        <v>-79100</v>
       </c>
       <c r="K96" s="3">
         <v>-60800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-361600</v>
+        <v>-335700</v>
       </c>
       <c r="E100" s="3">
-        <v>-145300</v>
+        <v>-134900</v>
       </c>
       <c r="F100" s="3">
-        <v>142400</v>
+        <v>132300</v>
       </c>
       <c r="G100" s="3">
-        <v>-160200</v>
+        <v>-148700</v>
       </c>
       <c r="H100" s="3">
-        <v>-144400</v>
+        <v>-134100</v>
       </c>
       <c r="I100" s="3">
-        <v>-98700</v>
+        <v>-91700</v>
       </c>
       <c r="J100" s="3">
-        <v>-123800</v>
+        <v>-114900</v>
       </c>
       <c r="K100" s="3">
         <v>-110400</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-26900</v>
+        <v>-25000</v>
       </c>
       <c r="E101" s="3">
-        <v>12000</v>
+        <v>11100</v>
       </c>
       <c r="F101" s="3">
-        <v>-17100</v>
+        <v>-15900</v>
       </c>
       <c r="G101" s="3">
-        <v>5100</v>
+        <v>4700</v>
       </c>
       <c r="H101" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="I101" s="3">
-        <v>-7300</v>
+        <v>-6800</v>
       </c>
       <c r="J101" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K101" s="3">
         <v>-15200</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-15900</v>
+        <v>-14800</v>
       </c>
       <c r="E102" s="3">
-        <v>-6600</v>
+        <v>-6100</v>
       </c>
       <c r="F102" s="3">
-        <v>191500</v>
+        <v>177800</v>
       </c>
       <c r="G102" s="3">
-        <v>25200</v>
+        <v>23400</v>
       </c>
       <c r="H102" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I102" s="3">
-        <v>-6300</v>
+        <v>-5900</v>
       </c>
       <c r="J102" s="3">
-        <v>15200</v>
+        <v>14200</v>
       </c>
       <c r="K102" s="3">
         <v>55600</v>

--- a/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AKO.B_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3108500</v>
+        <v>3002300</v>
       </c>
       <c r="E8" s="3">
-        <v>2593600</v>
+        <v>2504900</v>
       </c>
       <c r="F8" s="3">
-        <v>1987000</v>
+        <v>1919100</v>
       </c>
       <c r="G8" s="3">
-        <v>2081500</v>
+        <v>2010300</v>
       </c>
       <c r="H8" s="3">
-        <v>1957300</v>
+        <v>1890400</v>
       </c>
       <c r="I8" s="3">
-        <v>2163200</v>
+        <v>2089200</v>
       </c>
       <c r="J8" s="3">
-        <v>2079600</v>
+        <v>2008500</v>
       </c>
       <c r="K8" s="3">
         <v>2102700</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1905600</v>
+        <v>1840400</v>
       </c>
       <c r="E9" s="3">
-        <v>1609200</v>
+        <v>1554200</v>
       </c>
       <c r="F9" s="3">
-        <v>1196300</v>
+        <v>1155400</v>
       </c>
       <c r="G9" s="3">
-        <v>1226600</v>
+        <v>1184600</v>
       </c>
       <c r="H9" s="3">
-        <v>1132600</v>
+        <v>1093900</v>
       </c>
       <c r="I9" s="3">
-        <v>1250800</v>
+        <v>1208000</v>
       </c>
       <c r="J9" s="3">
-        <v>1209700</v>
+        <v>1168300</v>
       </c>
       <c r="K9" s="3">
         <v>1239500</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1203000</v>
+        <v>1161800</v>
       </c>
       <c r="E10" s="3">
-        <v>984400</v>
+        <v>950700</v>
       </c>
       <c r="F10" s="3">
-        <v>790700</v>
+        <v>763600</v>
       </c>
       <c r="G10" s="3">
-        <v>854900</v>
+        <v>825700</v>
       </c>
       <c r="H10" s="3">
-        <v>824700</v>
+        <v>796500</v>
       </c>
       <c r="I10" s="3">
-        <v>912400</v>
+        <v>881200</v>
       </c>
       <c r="J10" s="3">
-        <v>870000</v>
+        <v>840200</v>
       </c>
       <c r="K10" s="3">
         <v>863200</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>27100</v>
+        <v>26100</v>
       </c>
       <c r="E14" s="3">
         <v>500</v>
       </c>
       <c r="F14" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="G14" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H14" s="3">
         <v>300</v>
       </c>
       <c r="I14" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J14" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="K14" s="3">
         <v>4500</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2732100</v>
+        <v>2638700</v>
       </c>
       <c r="E17" s="3">
-        <v>2267700</v>
+        <v>2190100</v>
       </c>
       <c r="F17" s="3">
-        <v>1717300</v>
+        <v>1658500</v>
       </c>
       <c r="G17" s="3">
-        <v>1786000</v>
+        <v>1724900</v>
       </c>
       <c r="H17" s="3">
-        <v>1712500</v>
+        <v>1654000</v>
       </c>
       <c r="I17" s="3">
-        <v>1905700</v>
+        <v>1840600</v>
       </c>
       <c r="J17" s="3">
-        <v>1858200</v>
+        <v>1794600</v>
       </c>
       <c r="K17" s="3">
         <v>1892400</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>376500</v>
+        <v>363600</v>
       </c>
       <c r="E18" s="3">
-        <v>325900</v>
+        <v>314800</v>
       </c>
       <c r="F18" s="3">
-        <v>269700</v>
+        <v>260500</v>
       </c>
       <c r="G18" s="3">
-        <v>295500</v>
+        <v>285400</v>
       </c>
       <c r="H18" s="3">
-        <v>244800</v>
+        <v>236400</v>
       </c>
       <c r="I18" s="3">
-        <v>257400</v>
+        <v>248600</v>
       </c>
       <c r="J18" s="3">
-        <v>221500</v>
+        <v>213900</v>
       </c>
       <c r="K18" s="3">
         <v>210300</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-38900</v>
+        <v>-37500</v>
       </c>
       <c r="E20" s="3">
-        <v>-28800</v>
+        <v>-27900</v>
       </c>
       <c r="F20" s="3">
-        <v>-6300</v>
+        <v>-6100</v>
       </c>
       <c r="G20" s="3">
-        <v>27300</v>
+        <v>26400</v>
       </c>
       <c r="H20" s="3">
-        <v>-18500</v>
+        <v>-17900</v>
       </c>
       <c r="I20" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="J20" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="K20" s="3">
         <v>-8800</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>337600</v>
+        <v>326100</v>
       </c>
       <c r="E21" s="3">
-        <v>297100</v>
+        <v>286900</v>
       </c>
       <c r="F21" s="3">
-        <v>263400</v>
+        <v>254400</v>
       </c>
       <c r="G21" s="3">
-        <v>322800</v>
+        <v>311800</v>
       </c>
       <c r="H21" s="3">
-        <v>226300</v>
+        <v>218500</v>
       </c>
       <c r="I21" s="3">
-        <v>255700</v>
+        <v>246900</v>
       </c>
       <c r="J21" s="3">
-        <v>218200</v>
+        <v>210700</v>
       </c>
       <c r="K21" s="3">
         <v>201500</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>65200</v>
+        <v>63000</v>
       </c>
       <c r="E22" s="3">
-        <v>59300</v>
+        <v>57300</v>
       </c>
       <c r="F22" s="3">
-        <v>55100</v>
+        <v>53200</v>
       </c>
       <c r="G22" s="3">
-        <v>46200</v>
+        <v>44600</v>
       </c>
       <c r="H22" s="3">
-        <v>47200</v>
+        <v>45600</v>
       </c>
       <c r="I22" s="3">
-        <v>55800</v>
+        <v>53900</v>
       </c>
       <c r="J22" s="3">
-        <v>53400</v>
+        <v>51600</v>
       </c>
       <c r="K22" s="3">
         <v>56200</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>272400</v>
+        <v>263100</v>
       </c>
       <c r="E23" s="3">
-        <v>237800</v>
+        <v>229600</v>
       </c>
       <c r="F23" s="3">
-        <v>208300</v>
+        <v>201200</v>
       </c>
       <c r="G23" s="3">
-        <v>276600</v>
+        <v>267100</v>
       </c>
       <c r="H23" s="3">
-        <v>179000</v>
+        <v>172900</v>
       </c>
       <c r="I23" s="3">
-        <v>199800</v>
+        <v>193000</v>
       </c>
       <c r="J23" s="3">
-        <v>164800</v>
+        <v>159200</v>
       </c>
       <c r="K23" s="3">
         <v>145300</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>122100</v>
+        <v>117900</v>
       </c>
       <c r="E24" s="3">
-        <v>54000</v>
+        <v>52200</v>
       </c>
       <c r="F24" s="3">
-        <v>64200</v>
+        <v>62000</v>
       </c>
       <c r="G24" s="3">
-        <v>71600</v>
+        <v>69100</v>
       </c>
       <c r="H24" s="3">
-        <v>65000</v>
+        <v>62800</v>
       </c>
       <c r="I24" s="3">
-        <v>60600</v>
+        <v>58500</v>
       </c>
       <c r="J24" s="3">
-        <v>57100</v>
+        <v>55200</v>
       </c>
       <c r="K24" s="3">
         <v>46600</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>150300</v>
+        <v>145200</v>
       </c>
       <c r="E26" s="3">
-        <v>183700</v>
+        <v>177400</v>
       </c>
       <c r="F26" s="3">
-        <v>144000</v>
+        <v>139100</v>
       </c>
       <c r="G26" s="3">
-        <v>205000</v>
+        <v>198000</v>
       </c>
       <c r="H26" s="3">
-        <v>114000</v>
+        <v>110100</v>
       </c>
       <c r="I26" s="3">
-        <v>139200</v>
+        <v>134500</v>
       </c>
       <c r="J26" s="3">
-        <v>107700</v>
+        <v>104000</v>
       </c>
       <c r="K26" s="3">
         <v>98700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>146800</v>
+        <v>141800</v>
       </c>
       <c r="E27" s="3">
-        <v>181000</v>
+        <v>174800</v>
       </c>
       <c r="F27" s="3">
-        <v>142700</v>
+        <v>137900</v>
       </c>
       <c r="G27" s="3">
-        <v>203300</v>
+        <v>196300</v>
       </c>
       <c r="H27" s="3">
-        <v>113000</v>
+        <v>109200</v>
       </c>
       <c r="I27" s="3">
-        <v>137900</v>
+        <v>133200</v>
       </c>
       <c r="J27" s="3">
-        <v>105900</v>
+        <v>102300</v>
       </c>
       <c r="K27" s="3">
         <v>98400</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>38900</v>
+        <v>37500</v>
       </c>
       <c r="E32" s="3">
-        <v>28800</v>
+        <v>27900</v>
       </c>
       <c r="F32" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="G32" s="3">
-        <v>-27300</v>
+        <v>-26400</v>
       </c>
       <c r="H32" s="3">
-        <v>18500</v>
+        <v>17900</v>
       </c>
       <c r="I32" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J32" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="K32" s="3">
         <v>8800</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>146800</v>
+        <v>141800</v>
       </c>
       <c r="E33" s="3">
-        <v>181000</v>
+        <v>174800</v>
       </c>
       <c r="F33" s="3">
-        <v>142700</v>
+        <v>137900</v>
       </c>
       <c r="G33" s="3">
-        <v>203300</v>
+        <v>196300</v>
       </c>
       <c r="H33" s="3">
-        <v>113000</v>
+        <v>109200</v>
       </c>
       <c r="I33" s="3">
-        <v>137900</v>
+        <v>133200</v>
       </c>
       <c r="J33" s="3">
-        <v>105900</v>
+        <v>102300</v>
       </c>
       <c r="K33" s="3">
         <v>98400</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>146800</v>
+        <v>141800</v>
       </c>
       <c r="E35" s="3">
-        <v>181000</v>
+        <v>174800</v>
       </c>
       <c r="F35" s="3">
-        <v>142700</v>
+        <v>137900</v>
       </c>
       <c r="G35" s="3">
-        <v>203300</v>
+        <v>196300</v>
       </c>
       <c r="H35" s="3">
-        <v>113000</v>
+        <v>109200</v>
       </c>
       <c r="I35" s="3">
-        <v>137900</v>
+        <v>133200</v>
       </c>
       <c r="J35" s="3">
-        <v>105900</v>
+        <v>102300</v>
       </c>
       <c r="K35" s="3">
         <v>98400</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>127200</v>
+        <v>122800</v>
       </c>
       <c r="E41" s="3">
-        <v>111100</v>
+        <v>107300</v>
       </c>
       <c r="F41" s="3">
-        <v>97500</v>
+        <v>94200</v>
       </c>
       <c r="G41" s="3">
-        <v>62600</v>
+        <v>60500</v>
       </c>
       <c r="H41" s="3">
-        <v>59500</v>
+        <v>57400</v>
       </c>
       <c r="I41" s="3">
-        <v>46800</v>
+        <v>45200</v>
       </c>
       <c r="J41" s="3">
-        <v>32600</v>
+        <v>31500</v>
       </c>
       <c r="K41" s="3">
         <v>45300</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>322700</v>
+        <v>311700</v>
       </c>
       <c r="E42" s="3">
-        <v>472500</v>
+        <v>456300</v>
       </c>
       <c r="F42" s="3">
-        <v>428800</v>
+        <v>414100</v>
       </c>
       <c r="G42" s="3">
-        <v>121800</v>
+        <v>117600</v>
       </c>
       <c r="H42" s="3">
-        <v>101500</v>
+        <v>98000</v>
       </c>
       <c r="I42" s="3">
-        <v>128600</v>
+        <v>124200</v>
       </c>
       <c r="J42" s="3">
-        <v>197500</v>
+        <v>190800</v>
       </c>
       <c r="K42" s="3">
         <v>197300</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>392000</v>
+        <v>378600</v>
       </c>
       <c r="E43" s="3">
-        <v>336000</v>
+        <v>324500</v>
       </c>
       <c r="F43" s="3">
-        <v>241400</v>
+        <v>233200</v>
       </c>
       <c r="G43" s="3">
-        <v>247900</v>
+        <v>239500</v>
       </c>
       <c r="H43" s="3">
-        <v>207600</v>
+        <v>200500</v>
       </c>
       <c r="I43" s="3">
-        <v>220900</v>
+        <v>213300</v>
       </c>
       <c r="J43" s="3">
-        <v>221400</v>
+        <v>213800</v>
       </c>
       <c r="K43" s="3">
         <v>204300</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>287700</v>
+        <v>277900</v>
       </c>
       <c r="E44" s="3">
-        <v>223900</v>
+        <v>216200</v>
       </c>
       <c r="F44" s="3">
-        <v>149700</v>
+        <v>144600</v>
       </c>
       <c r="G44" s="3">
-        <v>172700</v>
+        <v>166800</v>
       </c>
       <c r="H44" s="3">
-        <v>177000</v>
+        <v>171000</v>
       </c>
       <c r="I44" s="3">
-        <v>153700</v>
+        <v>148400</v>
       </c>
       <c r="J44" s="3">
-        <v>169300</v>
+        <v>163500</v>
       </c>
       <c r="K44" s="3">
         <v>149300</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>229600</v>
+        <v>221800</v>
       </c>
       <c r="E45" s="3">
-        <v>16000</v>
+        <v>15400</v>
       </c>
       <c r="F45" s="3">
-        <v>15400</v>
+        <v>14800</v>
       </c>
       <c r="G45" s="3">
-        <v>19100</v>
+        <v>18400</v>
       </c>
       <c r="H45" s="3">
-        <v>17900</v>
+        <v>17300</v>
       </c>
       <c r="I45" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="J45" s="3">
-        <v>25800</v>
+        <v>24900</v>
       </c>
       <c r="K45" s="3">
         <v>16800</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1359200</v>
+        <v>1312800</v>
       </c>
       <c r="E46" s="3">
-        <v>1159500</v>
+        <v>1119800</v>
       </c>
       <c r="F46" s="3">
-        <v>932800</v>
+        <v>900900</v>
       </c>
       <c r="G46" s="3">
-        <v>624200</v>
+        <v>602800</v>
       </c>
       <c r="H46" s="3">
-        <v>563500</v>
+        <v>544200</v>
       </c>
       <c r="I46" s="3">
-        <v>566300</v>
+        <v>546900</v>
       </c>
       <c r="J46" s="3">
-        <v>646700</v>
+        <v>624600</v>
       </c>
       <c r="K46" s="3">
         <v>613100</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>179600</v>
+        <v>173400</v>
       </c>
       <c r="E47" s="3">
-        <v>170400</v>
+        <v>164600</v>
       </c>
       <c r="F47" s="3">
-        <v>193800</v>
+        <v>187200</v>
       </c>
       <c r="G47" s="3">
-        <v>240400</v>
+        <v>232100</v>
       </c>
       <c r="H47" s="3">
-        <v>137000</v>
+        <v>132300</v>
       </c>
       <c r="I47" s="3">
-        <v>107200</v>
+        <v>103600</v>
       </c>
       <c r="J47" s="3">
-        <v>98100</v>
+        <v>94700</v>
       </c>
       <c r="K47" s="3">
         <v>70800</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>933900</v>
+        <v>902000</v>
       </c>
       <c r="E48" s="3">
-        <v>838200</v>
+        <v>809500</v>
       </c>
       <c r="F48" s="3">
-        <v>708500</v>
+        <v>684300</v>
       </c>
       <c r="G48" s="3">
-        <v>845600</v>
+        <v>816700</v>
       </c>
       <c r="H48" s="3">
-        <v>831600</v>
+        <v>803200</v>
       </c>
       <c r="I48" s="3">
-        <v>771900</v>
+        <v>745500</v>
       </c>
       <c r="J48" s="3">
-        <v>779400</v>
+        <v>752800</v>
       </c>
       <c r="K48" s="3">
         <v>717400</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>936900</v>
+        <v>904900</v>
       </c>
       <c r="E49" s="3">
-        <v>909900</v>
+        <v>878800</v>
       </c>
       <c r="F49" s="3">
-        <v>822300</v>
+        <v>794200</v>
       </c>
       <c r="G49" s="3">
-        <v>931700</v>
+        <v>899800</v>
       </c>
       <c r="H49" s="3">
-        <v>919700</v>
+        <v>888200</v>
       </c>
       <c r="I49" s="3">
-        <v>885500</v>
+        <v>855300</v>
       </c>
       <c r="J49" s="3">
-        <v>917200</v>
+        <v>885800</v>
       </c>
       <c r="K49" s="3">
         <v>852900</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>112900</v>
+        <v>109000</v>
       </c>
       <c r="E52" s="3">
-        <v>369000</v>
+        <v>356400</v>
       </c>
       <c r="F52" s="3">
-        <v>206700</v>
+        <v>199700</v>
       </c>
       <c r="G52" s="3">
-        <v>155600</v>
+        <v>150300</v>
       </c>
       <c r="H52" s="3">
-        <v>139200</v>
+        <v>134500</v>
       </c>
       <c r="I52" s="3">
-        <v>143400</v>
+        <v>138500</v>
       </c>
       <c r="J52" s="3">
-        <v>131600</v>
+        <v>127100</v>
       </c>
       <c r="K52" s="3">
         <v>220300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3522500</v>
+        <v>3402100</v>
       </c>
       <c r="E54" s="3">
-        <v>3446900</v>
+        <v>3329100</v>
       </c>
       <c r="F54" s="3">
-        <v>2864200</v>
+        <v>2766300</v>
       </c>
       <c r="G54" s="3">
-        <v>2797400</v>
+        <v>2701800</v>
       </c>
       <c r="H54" s="3">
-        <v>2591000</v>
+        <v>2502400</v>
       </c>
       <c r="I54" s="3">
-        <v>2474400</v>
+        <v>2389800</v>
       </c>
       <c r="J54" s="3">
-        <v>2573000</v>
+        <v>2485000</v>
       </c>
       <c r="K54" s="3">
         <v>2474500</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>555800</v>
+        <v>536800</v>
       </c>
       <c r="E57" s="3">
-        <v>448700</v>
+        <v>433400</v>
       </c>
       <c r="F57" s="3">
-        <v>315900</v>
+        <v>305100</v>
       </c>
       <c r="G57" s="3">
-        <v>347900</v>
+        <v>336000</v>
       </c>
       <c r="H57" s="3">
-        <v>332200</v>
+        <v>320800</v>
       </c>
       <c r="I57" s="3">
-        <v>341000</v>
+        <v>329400</v>
       </c>
       <c r="J57" s="3">
-        <v>335700</v>
+        <v>324300</v>
       </c>
       <c r="K57" s="3">
         <v>292500</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>407800</v>
+        <v>393900</v>
       </c>
       <c r="E58" s="3">
-        <v>39300</v>
+        <v>38000</v>
       </c>
       <c r="F58" s="3">
-        <v>29500</v>
+        <v>28500</v>
       </c>
       <c r="G58" s="3">
-        <v>34000</v>
+        <v>32800</v>
       </c>
       <c r="H58" s="3">
-        <v>51200</v>
+        <v>49400</v>
       </c>
       <c r="I58" s="3">
-        <v>62800</v>
+        <v>60700</v>
       </c>
       <c r="J58" s="3">
-        <v>58600</v>
+        <v>56600</v>
       </c>
       <c r="K58" s="3">
         <v>51400</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>147000</v>
+        <v>142000</v>
       </c>
       <c r="E59" s="3">
-        <v>131600</v>
+        <v>127100</v>
       </c>
       <c r="F59" s="3">
-        <v>96900</v>
+        <v>93600</v>
       </c>
       <c r="G59" s="3">
-        <v>99800</v>
+        <v>96300</v>
       </c>
       <c r="H59" s="3">
-        <v>107900</v>
+        <v>104200</v>
       </c>
       <c r="I59" s="3">
-        <v>97300</v>
+        <v>93900</v>
       </c>
       <c r="J59" s="3">
-        <v>96500</v>
+        <v>93200</v>
       </c>
       <c r="K59" s="3">
         <v>82400</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1110600</v>
+        <v>1072600</v>
       </c>
       <c r="E60" s="3">
-        <v>619600</v>
+        <v>598400</v>
       </c>
       <c r="F60" s="3">
-        <v>442300</v>
+        <v>427200</v>
       </c>
       <c r="G60" s="3">
-        <v>481600</v>
+        <v>465200</v>
       </c>
       <c r="H60" s="3">
-        <v>491200</v>
+        <v>474400</v>
       </c>
       <c r="I60" s="3">
-        <v>501100</v>
+        <v>484000</v>
       </c>
       <c r="J60" s="3">
-        <v>490900</v>
+        <v>474100</v>
       </c>
       <c r="K60" s="3">
         <v>426200</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>927400</v>
+        <v>895700</v>
       </c>
       <c r="E61" s="3">
-        <v>1218000</v>
+        <v>1176400</v>
       </c>
       <c r="F61" s="3">
-        <v>1097800</v>
+        <v>1060200</v>
       </c>
       <c r="G61" s="3">
-        <v>869700</v>
+        <v>840000</v>
       </c>
       <c r="H61" s="3">
-        <v>838400</v>
+        <v>809700</v>
       </c>
       <c r="I61" s="3">
-        <v>790600</v>
+        <v>763600</v>
       </c>
       <c r="J61" s="3">
-        <v>844200</v>
+        <v>815400</v>
       </c>
       <c r="K61" s="3">
         <v>857100</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>450900</v>
+        <v>435500</v>
       </c>
       <c r="E62" s="3">
-        <v>320700</v>
+        <v>309700</v>
       </c>
       <c r="F62" s="3">
-        <v>351200</v>
+        <v>339200</v>
       </c>
       <c r="G62" s="3">
-        <v>312500</v>
+        <v>301800</v>
       </c>
       <c r="H62" s="3">
-        <v>250800</v>
+        <v>242200</v>
       </c>
       <c r="I62" s="3">
-        <v>231200</v>
+        <v>223300</v>
       </c>
       <c r="J62" s="3">
-        <v>252500</v>
+        <v>243900</v>
       </c>
       <c r="K62" s="3">
         <v>237400</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2521900</v>
+        <v>2435600</v>
       </c>
       <c r="E66" s="3">
-        <v>2187900</v>
+        <v>2113100</v>
       </c>
       <c r="F66" s="3">
-        <v>1915200</v>
+        <v>1849700</v>
       </c>
       <c r="G66" s="3">
-        <v>1687500</v>
+        <v>1629800</v>
       </c>
       <c r="H66" s="3">
-        <v>1603700</v>
+        <v>1548900</v>
       </c>
       <c r="I66" s="3">
-        <v>1548600</v>
+        <v>1495600</v>
       </c>
       <c r="J66" s="3">
-        <v>1612800</v>
+        <v>1557700</v>
       </c>
       <c r="K66" s="3">
         <v>1544400</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1345600</v>
+        <v>1299600</v>
       </c>
       <c r="E72" s="3">
-        <v>1405500</v>
+        <v>1357400</v>
       </c>
       <c r="F72" s="3">
-        <v>1272200</v>
+        <v>1228700</v>
       </c>
       <c r="G72" s="3">
-        <v>1209900</v>
+        <v>1168500</v>
       </c>
       <c r="H72" s="3">
-        <v>1047600</v>
+        <v>1011800</v>
       </c>
       <c r="I72" s="3">
-        <v>892300</v>
+        <v>861800</v>
       </c>
       <c r="J72" s="3">
-        <v>845700</v>
+        <v>816800</v>
       </c>
       <c r="K72" s="3">
         <v>786100</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1000700</v>
+        <v>966400</v>
       </c>
       <c r="E76" s="3">
-        <v>1259100</v>
+        <v>1216000</v>
       </c>
       <c r="F76" s="3">
-        <v>949100</v>
+        <v>916600</v>
       </c>
       <c r="G76" s="3">
-        <v>1109900</v>
+        <v>1072000</v>
       </c>
       <c r="H76" s="3">
-        <v>987300</v>
+        <v>953500</v>
       </c>
       <c r="I76" s="3">
-        <v>925800</v>
+        <v>894200</v>
       </c>
       <c r="J76" s="3">
-        <v>960100</v>
+        <v>927300</v>
       </c>
       <c r="K76" s="3">
         <v>930100</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>146800</v>
+        <v>141800</v>
       </c>
       <c r="E81" s="3">
-        <v>181000</v>
+        <v>174800</v>
       </c>
       <c r="F81" s="3">
-        <v>142700</v>
+        <v>137900</v>
       </c>
       <c r="G81" s="3">
-        <v>203300</v>
+        <v>196300</v>
       </c>
       <c r="H81" s="3">
-        <v>113000</v>
+        <v>109200</v>
       </c>
       <c r="I81" s="3">
-        <v>137900</v>
+        <v>133200</v>
       </c>
       <c r="J81" s="3">
-        <v>105900</v>
+        <v>102300</v>
       </c>
       <c r="K81" s="3">
         <v>98400</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>445600</v>
+        <v>430400</v>
       </c>
       <c r="E89" s="3">
-        <v>349700</v>
+        <v>337700</v>
       </c>
       <c r="F89" s="3">
-        <v>323400</v>
+        <v>312300</v>
       </c>
       <c r="G89" s="3">
-        <v>296200</v>
+        <v>286100</v>
       </c>
       <c r="H89" s="3">
-        <v>269600</v>
+        <v>260400</v>
       </c>
       <c r="I89" s="3">
-        <v>290100</v>
+        <v>280200</v>
       </c>
       <c r="J89" s="3">
-        <v>261400</v>
+        <v>252500</v>
       </c>
       <c r="K89" s="3">
         <v>296700</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-218400</v>
+        <v>-211000</v>
       </c>
       <c r="E91" s="3">
-        <v>-162500</v>
+        <v>-156900</v>
       </c>
       <c r="F91" s="3">
-        <v>-100500</v>
+        <v>-97000</v>
       </c>
       <c r="G91" s="3">
-        <v>-129500</v>
+        <v>-125100</v>
       </c>
       <c r="H91" s="3">
-        <v>-141600</v>
+        <v>-136800</v>
       </c>
       <c r="I91" s="3">
-        <v>-197600</v>
+        <v>-190800</v>
       </c>
       <c r="J91" s="3">
-        <v>-150000</v>
+        <v>-144900</v>
       </c>
       <c r="K91" s="3">
         <v>-125900</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-99600</v>
+        <v>-96200</v>
       </c>
       <c r="E94" s="3">
-        <v>-232000</v>
+        <v>-224000</v>
       </c>
       <c r="F94" s="3">
-        <v>-261900</v>
+        <v>-253000</v>
       </c>
       <c r="G94" s="3">
-        <v>-128800</v>
+        <v>-124400</v>
       </c>
       <c r="H94" s="3">
-        <v>-138200</v>
+        <v>-133400</v>
       </c>
       <c r="I94" s="3">
-        <v>-197500</v>
+        <v>-190800</v>
       </c>
       <c r="J94" s="3">
-        <v>-133300</v>
+        <v>-128700</v>
       </c>
       <c r="K94" s="3">
         <v>-115500</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-320900</v>
+        <v>-310000</v>
       </c>
       <c r="E96" s="3">
-        <v>-124400</v>
+        <v>-120200</v>
       </c>
       <c r="F96" s="3">
-        <v>-117000</v>
+        <v>-113000</v>
       </c>
       <c r="G96" s="3">
-        <v>-100900</v>
+        <v>-97500</v>
       </c>
       <c r="H96" s="3">
-        <v>-102400</v>
+        <v>-98900</v>
       </c>
       <c r="I96" s="3">
-        <v>-87700</v>
+        <v>-84700</v>
       </c>
       <c r="J96" s="3">
-        <v>-79100</v>
+        <v>-76400</v>
       </c>
       <c r="K96" s="3">
         <v>-60800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-335700</v>
+        <v>-324300</v>
       </c>
       <c r="E100" s="3">
-        <v>-134900</v>
+        <v>-130300</v>
       </c>
       <c r="F100" s="3">
-        <v>132300</v>
+        <v>127700</v>
       </c>
       <c r="G100" s="3">
-        <v>-148700</v>
+        <v>-143600</v>
       </c>
       <c r="H100" s="3">
-        <v>-134100</v>
+        <v>-129500</v>
       </c>
       <c r="I100" s="3">
-        <v>-91700</v>
+        <v>-88500</v>
       </c>
       <c r="J100" s="3">
-        <v>-114900</v>
+        <v>-111000</v>
       </c>
       <c r="K100" s="3">
         <v>-110400</v>
@@ -4207,22 +4207,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-25000</v>
+        <v>-24100</v>
       </c>
       <c r="E101" s="3">
-        <v>11100</v>
+        <v>10700</v>
       </c>
       <c r="F101" s="3">
-        <v>-15900</v>
+        <v>-15300</v>
       </c>
       <c r="G101" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="H101" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="I101" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="J101" s="3">
         <v>900</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-14800</v>
+        <v>-14300</v>
       </c>
       <c r="E102" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="F102" s="3">
-        <v>177800</v>
+        <v>171700</v>
       </c>
       <c r="G102" s="3">
-        <v>23400</v>
+        <v>22600</v>
       </c>
       <c r="H102" s="3">
         <v>1500</v>
       </c>
       <c r="I102" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="J102" s="3">
-        <v>14200</v>
+        <v>13700</v>
       </c>
       <c r="K102" s="3">
         <v>55600</v>
